--- a/data/pez-katedry_I.xlsx
+++ b/data/pez-katedry_I.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dendo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61D568FC-B441-4675-9661-4BFEFA29A142}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAB7F61F-57AE-4405-9F2B-2CF64BE6D3F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2778" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2733" uniqueCount="673">
   <si>
     <t>Název EIZ</t>
   </si>
@@ -953,9 +953,6 @@
     <t>Proč PEZ opomíjí JoVE Biology, Environmental? Proč to vůbec rozlišuje, stačí JoVE nebo JoVE Core a co všechno v tom je</t>
   </si>
   <si>
-    <t xml:space="preserve">x (je to takový základ z té psychologie, to do rodinné výchovy 1. stupeň by mohli využít) </t>
-  </si>
-  <si>
     <t>JSTOR</t>
   </si>
   <si>
@@ -1139,760 +1136,760 @@
     <t>Open Library</t>
   </si>
   <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multioborová digitální knihovna obsahující odborné knihy, beletrii, knihy pro děti, knihy v cizím jazyce. Obsahuje audio knihy.  </t>
+  </si>
+  <si>
+    <t>Open Research Library</t>
+  </si>
+  <si>
+    <t>Multioborová digitální knihovna. Přívětivé uživatelské rozhraní nabízí možnost vyhledávání přes jednotlivé obory např. Literární kritika, Filozofie, Zahradničení, Hry, Knihy pro mládež, Vzdělávání, Vaření atd.</t>
+  </si>
+  <si>
+    <t>Oxford Bibliographies Online</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=882</t>
+  </si>
+  <si>
+    <t>Bibliografická databáze poskytující cestu k nejpřesnějším a nejspolehlivějším zdrojům pro různá akademická témata např. studie o dětech, lingvistika, ekologie, hudba, literatura</t>
+  </si>
+  <si>
+    <t>Nefunguje Sociologie</t>
+  </si>
+  <si>
+    <t>Oxford English Dictionary Online</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=571</t>
+  </si>
+  <si>
+    <t>Anglický výkladový slovník Oxford English Dictionary představuje průvodce významu, etymologie, četnosti a výslovnosti (s použitím mezinárodní fonetické abecedy). Přináší ukázky použití slov z celé oblasti používání anglického jazyka. </t>
+  </si>
+  <si>
+    <t>Vím, že jsme odepisovali jejich slovníky .)</t>
+  </si>
+  <si>
+    <t>Oxford Handbooks Online Law</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=661</t>
+  </si>
+  <si>
+    <t>Fulltextová databáze z oblasti práva, která obsahuje články a e-knihy. Přístup k lidským,ekologickým, ekonomickým právům, IT zákonům, právu a společnosti (sportovní práva - doping, protekce), práva v jednotlivých zemí atd.</t>
+  </si>
+  <si>
+    <t>x (měli by znát copyright)</t>
+  </si>
+  <si>
+    <t>x (copyright)</t>
+  </si>
+  <si>
+    <t>Oxford Journals Online Full Collection</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=827</t>
+  </si>
+  <si>
+    <t>Databáze recenzovaných vědeckých časopisů Oxford University Press. Obsahuje např. časopisy z odvětví literatury, komunikace neslyšících, sociální problémy, sémantiky, zdraví, hudební terapie, výuky matematiky, lingvistiky, historie France a Německa</t>
+  </si>
+  <si>
+    <t>Oxford Medicine Online</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=452</t>
+  </si>
+  <si>
+    <t>Fulltextová databáze z oblasti medicíny, oftalmologie, veřejného zdraví, psychologie, terapie (včetně hudební a výtvarné), vzdělávání. Součástí některých článků jsou i videa.</t>
+  </si>
+  <si>
+    <t>Oxford Scholarship Online</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=858</t>
+  </si>
+  <si>
+    <t>Databáze knih vydaných Oxford University Press. Zahrnuje odvětví  humanitní, společenské, vědní, lékařské a právních předpisů.</t>
+  </si>
+  <si>
+    <t>Persée</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=758</t>
+  </si>
+  <si>
+    <t>Multioborová fulltextová digitální knihova obsahující díla převážně ve francouzštine, ale také v angličtině a v menší míře i němčině a ruštině.</t>
+  </si>
+  <si>
+    <t>Political Science Complete</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=569</t>
+  </si>
+  <si>
+    <t>ProQuest Ebook Central</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=799</t>
+  </si>
+  <si>
+    <t>Multioborová digitální knihovna. Součástí jsou i knihy a učebnice v češtině  a e-knihy vydané nakladatelství Karolinum.</t>
+  </si>
+  <si>
+    <t>PsycInfo</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=376</t>
+  </si>
+  <si>
+    <t>Převážně bibliografická (občas fulltext) databáze z oblasti psychologie a souvisejících oborů (speciální pedagogika, vzdělávání, vzdělávací systémy v jiných zemích, filozofie)</t>
+  </si>
+  <si>
+    <t>Platforma EBSCO (ví Ústředka, že APA je k dispozici i skrz ProQuest?)</t>
+  </si>
+  <si>
+    <t>Publicly Available Content Database (PAC)</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=881</t>
+  </si>
+  <si>
+    <t>Multioborová fulltextová databáze publikací, závěrečných prací, sborníků</t>
+  </si>
+  <si>
+    <t>Platforma ProQuest</t>
+  </si>
+  <si>
+    <t>Publi eCUNI</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=863</t>
+  </si>
+  <si>
+    <t>Databáze vybraných e-knih převážně z oblasti tělesné výchovy. Dále obsahuje také odvětví hudby, algebry, jazyky, školského managementu</t>
+  </si>
+  <si>
+    <t>Stejné jako Futurebooks. Je tam k dispozici "Otevřené vzdělávací zdroje", které evokují použitelnost pro všechny katedry, nicméně, mně se ta publikace nelíbí a to co obsahuje studenti vědí.</t>
+  </si>
+  <si>
+    <t>PubMed</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=187</t>
+  </si>
+  <si>
+    <t>Z databáze MEDLINE agreguje biomedicínskou literaturu. K dispozici jsou i články z tělesné výchovy</t>
+  </si>
+  <si>
+    <t>RAMBI (The Index of Articles on Jewish Studies)</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=775</t>
+  </si>
+  <si>
+    <t>Bibliografická databáze článku týkající se Izraele a Palestiny. K dispozici jsou také články o vzdělávacích metodách.</t>
+  </si>
+  <si>
+    <t>RDA Toolkit</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=746</t>
+  </si>
+  <si>
+    <t>Katalogizační pravidla RDA</t>
+  </si>
+  <si>
+    <t>K čemu budou někomu z PedF katalogizační pravidla?</t>
+  </si>
+  <si>
+    <t>Reaxys</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=554</t>
+  </si>
+  <si>
+    <t>Chemická databáze databází s možností vyhledávání pomocí chemických vzorečků</t>
+  </si>
+  <si>
+    <t>RePEc (Research Papers in Economics)</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decentralizovaná bibliografická databáze ekonomie a příbuzných oborů </t>
+  </si>
+  <si>
+    <t>Répertoire International des Sources Musicales (RISM)</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=539</t>
+  </si>
+  <si>
+    <t>Komplexní katalog k hudebním rukopisům a tištěné hudbě</t>
+  </si>
+  <si>
+    <t>Repozitář závěrečných prací</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=766</t>
+  </si>
+  <si>
+    <t>Multioborový fulltextový open access repozitář závěrečných prací obhájených na Univerzitě Karlově po roce 2006</t>
+  </si>
+  <si>
+    <t>Od roku 2006</t>
+  </si>
+  <si>
+    <t>Royal Society of Chemistry</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulltextová databáze periodik z oblasti chemie vydávaných nakladatelstvím Royal Society of Chemistry. Obsahuje také periodika o Enviromentalistice a Food &amp; Function </t>
+  </si>
+  <si>
+    <t>SAGE Journals</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=197</t>
+  </si>
+  <si>
+    <t>Multioborová fulltextová databáze článků. Možnost vyhledávat i pomocí citací.</t>
+  </si>
+  <si>
+    <t>SAGE Knowledge</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=591</t>
+  </si>
+  <si>
+    <t>Multioborová fulltextová databáze knih a referenčních příruček</t>
+  </si>
+  <si>
+    <t>ScienceDirect</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=412</t>
+  </si>
+  <si>
+    <t>Multioborová fulltextová databáze poskytující přístup do článků z recenzovaných vědeckých časopisů, knih a referenčních příruček publikovaných vydavatelstvím Elsevier</t>
+  </si>
+  <si>
+    <t>SciFinder N (Chemical Abstracts)</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=418</t>
+  </si>
+  <si>
+    <t>Bibliografická a faktografická databáze z oblasti chemie</t>
+  </si>
+  <si>
+    <t>SCOAP3 repository</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=816</t>
+  </si>
+  <si>
+    <t>Open access repozitář článků z oblasti jaderné a subjaderné fyziky</t>
+  </si>
+  <si>
+    <t>Scopus</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=201</t>
+  </si>
+  <si>
+    <t>Multioborová bibliografická a citační databáze</t>
+  </si>
+  <si>
+    <t>SIAM Journals</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=669</t>
+  </si>
+  <si>
+    <t>Digitální knihovna recenzovaných časopisů z oblasti matematiky a počítačové vědy</t>
+  </si>
+  <si>
+    <t>Social Science Research Network (SSRN)</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=203</t>
+  </si>
+  <si>
+    <t>Multioborová fulltextová databáze převážně z oblasti sociálních věd</t>
+  </si>
+  <si>
+    <t>SpringerLink</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=206</t>
+  </si>
+  <si>
+    <t>Multioborová fulltextová databáze e-časopisů a e-knih</t>
+  </si>
+  <si>
+    <t>Synthesis - Digital Library of Engineering and Computer Science</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=745</t>
+  </si>
+  <si>
+    <t>Digitální knihovna z oblasti strojírenství a počítačové vědy, včetně vizualizace a výuky pomocí počítačů</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spíše je to databáze abstraktů </t>
+  </si>
+  <si>
+    <t>Taylor &amp; Francis Group eBooks</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=830</t>
+  </si>
+  <si>
+    <t>Fulltextová databáze e-knih a e-článků (ano jsou tam také) z oblasti biologie, lékařství, výchovy a vzdělávání, sociálních věd, managementu</t>
+  </si>
+  <si>
+    <t>Taylor &amp; Francis Online</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=208</t>
+  </si>
+  <si>
+    <t>Teacher Reference Center (TRC)</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=363</t>
+  </si>
+  <si>
+    <t>Bibliografická databáze pro oblast výchovy a vzdělávání</t>
+  </si>
+  <si>
+    <t>The Chinese Christian Texts Database (CCT-Database)</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=714</t>
+  </si>
+  <si>
+    <t>Bibliografická databáze primárních a sekundárních zdrojů na téma kontaktů mezi Evropou a Čínou zejména v 17.-18. století </t>
+  </si>
+  <si>
+    <t>Thesaurus Linguae Graecae</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=692</t>
+  </si>
+  <si>
+    <t>Fulltextová databáze všech dochovaných děl antické řecké literatury</t>
+  </si>
+  <si>
+    <t>Thieme MedOne Education</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=274</t>
+  </si>
+  <si>
+    <t>Multimediální fulltextová databáze titulů vydaných od nakladatelství Thieme z oblasti lékařství</t>
+  </si>
+  <si>
+    <t>Ulrichsweb</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=214</t>
+  </si>
+  <si>
+    <t>Multioborová bibliografická databáze časopisů pro pro snadné vyhledání podrobných informací o různých typech periodik: akademických a školních časopisech, elektronických časopisech, odborně posouzených titulech, oblíbených magazínech, novinách, zpravodajích a dalších</t>
+  </si>
+  <si>
+    <t>Virtuální studovna Divadelního ústavu</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=725</t>
+  </si>
+  <si>
+    <t>Databáze divadelního ústavu. Záznamy inscenací a audiotéka jsou k dispozici v prostorách IDU</t>
+  </si>
+  <si>
+    <t>Web of Science</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=222</t>
+  </si>
+  <si>
+    <t>WikiSkripta</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=536</t>
+  </si>
+  <si>
+    <t>Fulltextový portál studijních materiálů z oblasti lékařství</t>
+  </si>
+  <si>
+    <t>WikiSofia</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=710</t>
+  </si>
+  <si>
+    <t>Open access portál studijních materiálů z oblasti humanitních věd</t>
+  </si>
+  <si>
+    <t>Wiley Online Library</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=193</t>
+  </si>
+  <si>
+    <t>Multioborová fulltextová databáze e-časopisů, e-knih a referenčních příruček</t>
+  </si>
+  <si>
+    <t>World Christian Database</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=952</t>
+  </si>
+  <si>
+    <t>Faktografická databáze statistických informací o světových náboženstvích</t>
+  </si>
+  <si>
+    <t>Zkušební přístupy</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/?type=freetrials&amp;lang=cs</t>
+  </si>
+  <si>
+    <t>dočasné přístupy k různým databázím</t>
+  </si>
+  <si>
+    <t>Zkušební přístup</t>
+  </si>
+  <si>
+    <t>Katedra andragogiky a managementu vzdělávání</t>
+  </si>
+  <si>
+    <t>Katedra anglického jazyka a literatury</t>
+  </si>
+  <si>
+    <t>Katedra biologie a environmentálních studií</t>
+  </si>
+  <si>
+    <t>Katedra české literatury</t>
+  </si>
+  <si>
+    <t>Katedra českého jazyka</t>
+  </si>
+  <si>
+    <t>Katedra dějin a didaktiky dějepisu</t>
+  </si>
+  <si>
+    <t>Katedra francouzského jazyka a literatury</t>
+  </si>
+  <si>
+    <t>Katedra germanistiky</t>
+  </si>
+  <si>
+    <t>Katedra hudební výchovy</t>
+  </si>
+  <si>
+    <t>Katedra chemie a didaktiky chemie</t>
+  </si>
+  <si>
+    <t>Katedra informačních technologií a technické výchovy</t>
+  </si>
+  <si>
+    <t>Katedra matematiky a didaktiky matematiky</t>
+  </si>
+  <si>
+    <t>Katedra občanské výchovy a filozofie</t>
+  </si>
+  <si>
+    <t>Katedra pedagogiky</t>
+  </si>
+  <si>
+    <t>Katedra preprimární a primární pedagogiky</t>
+  </si>
+  <si>
+    <t>Katedra psychologie</t>
+  </si>
+  <si>
+    <t>Katedra rusistiky a lingvodidaktiky</t>
+  </si>
+  <si>
+    <t>Katedra speciální pedagogiky</t>
+  </si>
+  <si>
+    <t>Katedra tělesné výchovy</t>
+  </si>
+  <si>
+    <t>Katedra výtvarné výchovy</t>
+  </si>
+  <si>
+    <t>Arcanum Digitheca</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=880</t>
+  </si>
+  <si>
+    <t>ASM Journals Online</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=958</t>
+  </si>
+  <si>
+    <t>Bentham Science</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=359</t>
+  </si>
+  <si>
+    <t>Business Source Ultimate</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=294</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=500</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=826</t>
+  </si>
+  <si>
+    <t>Citace PRO Free</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=395</t>
+  </si>
+  <si>
+    <t>Citace PRO Plus</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=604</t>
+  </si>
+  <si>
+    <t>Classical Scores Library</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=857</t>
+  </si>
+  <si>
+    <t>ClinicalKey Student</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=862</t>
+  </si>
+  <si>
+    <t>De Gruyter eBooks</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=963</t>
+  </si>
+  <si>
+    <t>Dictionary of Old English</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=869</t>
+  </si>
+  <si>
+    <t>Digital Karl Barth Library</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=272</t>
+  </si>
+  <si>
+    <t>Digitální knihovna Fakulty sociálních věd UK (Kramerius)</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=767</t>
+  </si>
+  <si>
+    <t>Digitální knihovna MLP - Covid</t>
+  </si>
+  <si>
+    <t>Digitální knihovna MZK - Covid</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=966</t>
+  </si>
+  <si>
+    <t>Digitální knihovna Pedagogické fakulty UK (Kramerius)</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=768</t>
+  </si>
+  <si>
+    <t>Digitální knihovna UK - Covid</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=973</t>
+  </si>
+  <si>
+    <t>Digizeitschriften</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=48</t>
+  </si>
+  <si>
+    <t>EastView</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=4</t>
+  </si>
+  <si>
+    <t>EconLit with Full Text</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=502</t>
+  </si>
+  <si>
+    <t>EIU Country Data</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=428</t>
+  </si>
+  <si>
+    <t>Elsevier eLibrary</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=770</t>
+  </si>
+  <si>
+    <t>EMIS Intelligence</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=381</t>
+  </si>
+  <si>
+    <t>EndNote Basic</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=404</t>
+  </si>
+  <si>
+    <t>EZB - Electronic Journals Library</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=398</t>
+  </si>
+  <si>
+    <t>Factiva</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=277</t>
+  </si>
+  <si>
+    <t>Google Scholar</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=93</t>
+  </si>
+  <si>
+    <t>Handbook of Porphyrin Science</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=670</t>
+  </si>
+  <si>
+    <t>HeinOnline</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=384</t>
+  </si>
+  <si>
+    <t>ICC Dispute Resolution Channel</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=974</t>
+  </si>
+  <si>
+    <t>Idunn</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=897</t>
+  </si>
+  <si>
+    <t>JoVE Core Chemistry</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=970</t>
+  </si>
+  <si>
+    <t>JSTOR Trial</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=921</t>
+  </si>
+  <si>
+    <t>Knihy Google</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=92</t>
+  </si>
+  <si>
+    <t>Levná knihovna</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=965</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=122</t>
+  </si>
+  <si>
+    <t>Library &amp; Information Science Source (LISS)</t>
+  </si>
+  <si>
+    <t>LIVIVO</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=757</t>
+  </si>
+  <si>
+    <t>MEDLINE Complete</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=644</t>
+  </si>
+  <si>
+    <t>Micromedex</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=134</t>
+  </si>
+  <si>
+    <t>MIT Press Direct</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=924</t>
+  </si>
+  <si>
+    <t>Newton Media Monitoring</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=579</t>
+  </si>
+  <si>
+    <t>Newton Media Search</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=271</t>
+  </si>
+  <si>
+    <t>Oborová brána Knihovnictví a informační věda (KIV)</t>
+  </si>
+  <si>
+    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=401</t>
+  </si>
+  <si>
+    <t>Online Egyptological Bibliography (OEB)</t>
+  </si>
+  <si>
     <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=721</t>
   </si>
   <si>
-    <t xml:space="preserve">Multioborová digitální knihovna obsahující odborné knihy, beletrii, knihy pro děti, knihy v cizím jazyce. Obsahuje audio knihy.  </t>
-  </si>
-  <si>
-    <t>Open Research Library</t>
-  </si>
-  <si>
-    <t>Multioborová digitální knihovna. Přívětivé uživatelské rozhraní nabízí možnost vyhledávání přes jednotlivé obory např. Literární kritika, Filozofie, Zahradničení, Hry, Knihy pro mládež, Vzdělávání, Vaření atd.</t>
-  </si>
-  <si>
-    <t>Oxford Bibliographies Online</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=882</t>
-  </si>
-  <si>
-    <t>Bibliografická databáze poskytující cestu k nejpřesnějším a nejspolehlivějším zdrojům pro různá akademická témata např. studie o dětech, lingvistika, ekologie, hudba, literatura</t>
-  </si>
-  <si>
-    <t>Nefunguje Sociologie</t>
-  </si>
-  <si>
-    <t>Oxford English Dictionary Online</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=571</t>
-  </si>
-  <si>
-    <t>Anglický výkladový slovník Oxford English Dictionary představuje průvodce významu, etymologie, četnosti a výslovnosti (s použitím mezinárodní fonetické abecedy). Přináší ukázky použití slov z celé oblasti používání anglického jazyka. </t>
-  </si>
-  <si>
-    <t>Vím, že jsme odepisovali jejich slovníky .)</t>
-  </si>
-  <si>
-    <t>Oxford Handbooks Online Law</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=661</t>
-  </si>
-  <si>
-    <t>Fulltextová databáze z oblasti práva, která obsahuje články a e-knihy. Přístup k lidským,ekologickým, ekonomickým právům, IT zákonům, právu a společnosti (sportovní práva - doping, protekce), práva v jednotlivých zemí atd.</t>
-  </si>
-  <si>
-    <t>x (měli by znát copyright)</t>
-  </si>
-  <si>
-    <t>x (copyright)</t>
-  </si>
-  <si>
-    <t>Oxford Journals Online Full Collection</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=827</t>
-  </si>
-  <si>
-    <t>Databáze recenzovaných vědeckých časopisů Oxford University Press. Obsahuje např. časopisy z odvětví literatury, komunikace neslyšících, sociální problémy, sémantiky, zdraví, hudební terapie, výuky matematiky, lingvistiky, historie France a Německa</t>
-  </si>
-  <si>
-    <t>Oxford Medicine Online</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=452</t>
-  </si>
-  <si>
-    <t>Fulltextová databáze z oblasti medicíny, oftalmologie, veřejného zdraví, psychologie, terapie (včetně hudební a výtvarné), vzdělávání. Součástí některých článků jsou i videa.</t>
-  </si>
-  <si>
-    <t>Oxford Scholarship Online</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=858</t>
-  </si>
-  <si>
-    <t>Databáze knih vydaných Oxford University Press. Zahrnuje odvětví  humanitní, společenské, vědní, lékařské a právních předpisů.</t>
-  </si>
-  <si>
-    <t>Persée</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=758</t>
-  </si>
-  <si>
-    <t>Multioborová fulltextová digitální knihova obsahující díla převážně ve francouzštine, ale také v angličtině a v menší míře i němčině a ruštině.</t>
-  </si>
-  <si>
-    <t>Political Science Complete</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=569</t>
-  </si>
-  <si>
-    <t>ProQuest Ebook Central</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=799</t>
-  </si>
-  <si>
-    <t>Multioborová digitální knihovna. Součástí jsou i knihy a učebnice v češtině  a e-knihy vydané nakladatelství Karolinum.</t>
-  </si>
-  <si>
-    <t>PsycInfo</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=376</t>
-  </si>
-  <si>
-    <t>Převážně bibliografická (občas fulltext) databáze z oblasti psychologie a souvisejících oborů (speciální pedagogika, vzdělávání, vzdělávací systémy v jiných zemích, filozofie)</t>
-  </si>
-  <si>
-    <t>Platforma EBSCO (ví Ústředka, že APA je k dispozici i skrz ProQuest?)</t>
-  </si>
-  <si>
-    <t>Publicly Available Content Database (PAC)</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=881</t>
-  </si>
-  <si>
-    <t>Multioborová fulltextová databáze publikací, závěrečných prací, sborníků</t>
-  </si>
-  <si>
-    <t>Platforma ProQuest</t>
-  </si>
-  <si>
-    <t>Publi eCUNI</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=863</t>
-  </si>
-  <si>
-    <t>Databáze vybraných e-knih převážně z oblasti tělesné výchovy. Dále obsahuje také odvětví hudby, algebry, jazyky, školského managementu</t>
-  </si>
-  <si>
-    <t>Stejné jako Futurebooks. Je tam k dispozici "Otevřené vzdělávací zdroje", které evokují použitelnost pro všechny katedry, nicméně, mně se ta publikace nelíbí a to co obsahuje studenti vědí.</t>
-  </si>
-  <si>
-    <t>PubMed</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=187</t>
-  </si>
-  <si>
-    <t>Z databáze MEDLINE agreguje biomedicínskou literaturu. K dispozici jsou i články z tělesné výchovy</t>
-  </si>
-  <si>
-    <t>RAMBI (The Index of Articles on Jewish Studies)</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=775</t>
-  </si>
-  <si>
-    <t>Bibliografická databáze článku týkající se Izraele a Palestiny. K dispozici jsou také články o vzdělávacích metodách.</t>
-  </si>
-  <si>
-    <t>RDA Toolkit</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=746</t>
-  </si>
-  <si>
-    <t>Katalogizační pravidla RDA</t>
-  </si>
-  <si>
-    <t>K čemu budou někomu z PedF katalogizační pravidla?</t>
-  </si>
-  <si>
-    <t>Reaxys</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=554</t>
-  </si>
-  <si>
-    <t>Chemická databáze databází s možností vyhledávání pomocí chemických vzorečků</t>
-  </si>
-  <si>
-    <t>RePEc (Research Papers in Economics)</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decentralizovaná bibliografická databáze ekonomie a příbuzných oborů </t>
-  </si>
-  <si>
-    <t>Répertoire International des Sources Musicales (RISM)</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=539</t>
-  </si>
-  <si>
-    <t>Komplexní katalog k hudebním rukopisům a tištěné hudbě</t>
-  </si>
-  <si>
-    <t>Repozitář závěrečných prací</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=766</t>
-  </si>
-  <si>
-    <t>Multioborový fulltextový open access repozitář závěrečných prací obhájených na Univerzitě Karlově po roce 2006</t>
-  </si>
-  <si>
-    <t>Od roku 2006</t>
-  </si>
-  <si>
-    <t>Royal Society of Chemistry</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulltextová databáze periodik z oblasti chemie vydávaných nakladatelstvím Royal Society of Chemistry. Obsahuje také periodika o Enviromentalistice a Food &amp; Function </t>
-  </si>
-  <si>
-    <t>SAGE Journals</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=197</t>
-  </si>
-  <si>
-    <t>Multioborová fulltextová databáze článků. Možnost vyhledávat i pomocí citací.</t>
-  </si>
-  <si>
-    <t>SAGE Knowledge</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=591</t>
-  </si>
-  <si>
-    <t>Multioborová fulltextová databáze knih a referenčních příruček</t>
-  </si>
-  <si>
-    <t>ScienceDirect</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=412</t>
-  </si>
-  <si>
-    <t>Multioborová fulltextová databáze poskytující přístup do článků z recenzovaných vědeckých časopisů, knih a referenčních příruček publikovaných vydavatelstvím Elsevier</t>
-  </si>
-  <si>
-    <t>SciFinder N (Chemical Abstracts)</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=418</t>
-  </si>
-  <si>
-    <t>Bibliografická a faktografická databáze z oblasti chemie</t>
-  </si>
-  <si>
-    <t>SCOAP3 repository</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=816</t>
-  </si>
-  <si>
-    <t>Open access repozitář článků z oblasti jaderné a subjaderné fyziky</t>
-  </si>
-  <si>
-    <t>Scopus</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=201</t>
-  </si>
-  <si>
-    <t>Multioborová bibliografická a citační databáze</t>
-  </si>
-  <si>
-    <t>SIAM Journals</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=669</t>
-  </si>
-  <si>
-    <t>Digitální knihovna recenzovaných časopisů z oblasti matematiky a počítačové vědy</t>
-  </si>
-  <si>
-    <t>Social Science Research Network (SSRN)</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=203</t>
-  </si>
-  <si>
-    <t>Multioborová fulltextová databáze převážně z oblasti sociálních věd</t>
-  </si>
-  <si>
-    <t>SpringerLink</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=206</t>
-  </si>
-  <si>
-    <t>Multioborová fulltextová databáze e-časopisů a e-knih</t>
-  </si>
-  <si>
-    <t>Synthesis - Digital Library of Engineering and Computer Science</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=745</t>
-  </si>
-  <si>
-    <t>Digitální knihovna z oblasti strojírenství a počítačové vědy, včetně vizualizace a výuky pomocí počítačů</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spíše je to databáze abstraktů </t>
-  </si>
-  <si>
-    <t>Taylor &amp; Francis Group eBooks</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=830</t>
-  </si>
-  <si>
-    <t>Fulltextová databáze e-knih a e-článků (ano jsou tam také) z oblasti biologie, lékařství, výchovy a vzdělávání, sociálních věd, managementu</t>
-  </si>
-  <si>
-    <t>Taylor &amp; Francis Online</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=208</t>
-  </si>
-  <si>
-    <t>Teacher Reference Center (TRC)</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=363</t>
-  </si>
-  <si>
-    <t>Bibliografická databáze pro oblast výchovy a vzdělávání</t>
-  </si>
-  <si>
-    <t>The Chinese Christian Texts Database (CCT-Database)</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=714</t>
-  </si>
-  <si>
-    <t>Bibliografická databáze primárních a sekundárních zdrojů na téma kontaktů mezi Evropou a Čínou zejména v 17.-18. století </t>
-  </si>
-  <si>
-    <t>Thesaurus Linguae Graecae</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=692</t>
-  </si>
-  <si>
-    <t>Fulltextová databáze všech dochovaných děl antické řecké literatury</t>
-  </si>
-  <si>
-    <t>Thieme MedOne Education</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=274</t>
-  </si>
-  <si>
-    <t>Multimediální fulltextová databáze titulů vydaných od nakladatelství Thieme z oblasti lékařství</t>
-  </si>
-  <si>
-    <t>Ulrichsweb</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=214</t>
-  </si>
-  <si>
-    <t>Multioborová bibliografická databáze časopisů pro pro snadné vyhledání podrobných informací o různých typech periodik: akademických a školních časopisech, elektronických časopisech, odborně posouzených titulech, oblíbených magazínech, novinách, zpravodajích a dalších</t>
-  </si>
-  <si>
-    <t>Virtuální studovna Divadelního ústavu</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=725</t>
-  </si>
-  <si>
-    <t>Databáze divadelního ústavu. Záznamy inscenací a audiotéka jsou k dispozici v prostorách IDU</t>
-  </si>
-  <si>
-    <t>Web of Science</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=222</t>
-  </si>
-  <si>
-    <t>WikiSkripta</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=536</t>
-  </si>
-  <si>
-    <t>Fulltextový portál studijních materiálů z oblasti lékařství</t>
-  </si>
-  <si>
-    <t>WikiSofia</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=710</t>
-  </si>
-  <si>
-    <t>Open access portál studijních materiálů z oblasti humanitních věd</t>
-  </si>
-  <si>
-    <t>Wiley Online Library</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=193</t>
-  </si>
-  <si>
-    <t>Multioborová fulltextová databáze e-časopisů, e-knih a referenčních příruček</t>
-  </si>
-  <si>
-    <t>World Christian Database</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=952</t>
-  </si>
-  <si>
-    <t>Faktografická databáze statistických informací o světových náboženstvích</t>
-  </si>
-  <si>
-    <t>Zkušební přístupy</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/?type=freetrials&amp;lang=cs</t>
-  </si>
-  <si>
-    <t>dočasné přístupy k různým databázím</t>
-  </si>
-  <si>
-    <t>Zkušební přístup</t>
-  </si>
-  <si>
-    <t>Katedra andragogiky a managementu vzdělávání</t>
-  </si>
-  <si>
-    <t>Katedra anglického jazyka a literatury</t>
-  </si>
-  <si>
-    <t>Katedra biologie a environmentálních studií</t>
-  </si>
-  <si>
-    <t>Katedra české literatury</t>
-  </si>
-  <si>
-    <t>Katedra českého jazyka</t>
-  </si>
-  <si>
-    <t>Katedra dějin a didaktiky dějepisu</t>
-  </si>
-  <si>
-    <t>Katedra francouzského jazyka a literatury</t>
-  </si>
-  <si>
-    <t>Katedra germanistiky</t>
-  </si>
-  <si>
-    <t>Katedra hudební výchovy</t>
-  </si>
-  <si>
-    <t>Katedra chemie a didaktiky chemie</t>
-  </si>
-  <si>
-    <t>Katedra informačních technologií a technické výchovy</t>
-  </si>
-  <si>
-    <t>Katedra matematiky a didaktiky matematiky</t>
-  </si>
-  <si>
-    <t>Katedra občanské výchovy a filozofie</t>
-  </si>
-  <si>
-    <t>Katedra pedagogiky</t>
-  </si>
-  <si>
-    <t>Katedra preprimární a primární pedagogiky</t>
-  </si>
-  <si>
-    <t>Katedra psychologie</t>
-  </si>
-  <si>
-    <t>Katedra rusistiky a lingvodidaktiky</t>
-  </si>
-  <si>
-    <t>Katedra speciální pedagogiky</t>
-  </si>
-  <si>
-    <t>Katedra tělesné výchovy</t>
-  </si>
-  <si>
-    <t>Katedra výtvarné výchovy</t>
-  </si>
-  <si>
-    <t>Arcanum Digitheca</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=880</t>
-  </si>
-  <si>
-    <t>ASM Journals Online</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=958</t>
-  </si>
-  <si>
-    <t>Bentham Science</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=359</t>
-  </si>
-  <si>
-    <t>Business Source Ultimate</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=294</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=500</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=826</t>
-  </si>
-  <si>
-    <t>Citace PRO Free</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=395</t>
-  </si>
-  <si>
-    <t>Citace PRO Plus</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=604</t>
-  </si>
-  <si>
-    <t>Classical Scores Library</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=857</t>
-  </si>
-  <si>
-    <t>ClinicalKey Student</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=862</t>
-  </si>
-  <si>
-    <t>De Gruyter eBooks</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=963</t>
-  </si>
-  <si>
-    <t>Dictionary of Old English</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=869</t>
-  </si>
-  <si>
-    <t>Digital Karl Barth Library</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=272</t>
-  </si>
-  <si>
-    <t>Digitální knihovna Fakulty sociálních věd UK (Kramerius)</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=767</t>
-  </si>
-  <si>
-    <t>Digitální knihovna MLP - Covid</t>
-  </si>
-  <si>
-    <t>Digitální knihovna MZK - Covid</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=966</t>
-  </si>
-  <si>
-    <t>Digitální knihovna Pedagogické fakulty UK (Kramerius)</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=768</t>
-  </si>
-  <si>
-    <t>Digitální knihovna UK - Covid</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=973</t>
-  </si>
-  <si>
-    <t>Digizeitschriften</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=48</t>
-  </si>
-  <si>
-    <t>EastView</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=4</t>
-  </si>
-  <si>
-    <t>EconLit with Full Text</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=502</t>
-  </si>
-  <si>
-    <t>EIU Country Data</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=428</t>
-  </si>
-  <si>
-    <t>Elsevier eLibrary</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=770</t>
-  </si>
-  <si>
-    <t>EMIS Intelligence</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=381</t>
-  </si>
-  <si>
-    <t>EndNote Basic</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=404</t>
-  </si>
-  <si>
-    <t>EZB - Electronic Journals Library</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=398</t>
-  </si>
-  <si>
-    <t>Factiva</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=277</t>
-  </si>
-  <si>
-    <t>Google Scholar</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=93</t>
-  </si>
-  <si>
-    <t>Handbook of Porphyrin Science</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=670</t>
-  </si>
-  <si>
-    <t>HeinOnline</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=384</t>
-  </si>
-  <si>
-    <t>ICC Dispute Resolution Channel</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=974</t>
-  </si>
-  <si>
-    <t>Idunn</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=897</t>
-  </si>
-  <si>
-    <t>JoVE Core Chemistry</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=970</t>
-  </si>
-  <si>
-    <t>JSTOR Trial</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=921</t>
-  </si>
-  <si>
-    <t>Knihy Google</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=92</t>
-  </si>
-  <si>
-    <t>Levná knihovna</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=965</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=122</t>
-  </si>
-  <si>
-    <t>Library &amp; Information Science Source (LISS)</t>
-  </si>
-  <si>
-    <t>LIVIVO</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=757</t>
-  </si>
-  <si>
-    <t>MEDLINE Complete</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=644</t>
-  </si>
-  <si>
-    <t>Micromedex</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=134</t>
-  </si>
-  <si>
-    <t>MIT Press Direct</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=924</t>
-  </si>
-  <si>
-    <t>Newton Media Monitoring</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=579</t>
-  </si>
-  <si>
-    <t>Newton Media Search</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=271</t>
-  </si>
-  <si>
-    <t>Oborová brána Knihovnictví a informační věda (KIV)</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=401</t>
-  </si>
-  <si>
-    <t>Online Egyptological Bibliography (OEB)</t>
-  </si>
-  <si>
     <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=815</t>
-  </si>
-  <si>
-    <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=647</t>
   </si>
   <si>
     <t>People's Daily Graphic Database (1946-2020)</t>
@@ -2487,8 +2484,8 @@
   <dimension ref="A1:Y156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F120" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="Q140" sqref="Q140"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B127" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B154" sqref="B154"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -3555,9 +3552,6 @@
       <c r="P31" t="s">
         <v>28</v>
       </c>
-      <c r="Q31" t="s">
-        <v>28</v>
-      </c>
       <c r="R31" t="s">
         <v>28</v>
       </c>
@@ -3623,9 +3617,6 @@
       <c r="P32" t="s">
         <v>28</v>
       </c>
-      <c r="Q32" t="s">
-        <v>28</v>
-      </c>
       <c r="R32" t="s">
         <v>28</v>
       </c>
@@ -3935,9 +3926,6 @@
       <c r="M38" t="s">
         <v>28</v>
       </c>
-      <c r="Q38" t="s">
-        <v>28</v>
-      </c>
       <c r="S38" t="s">
         <v>28</v>
       </c>
@@ -3949,7 +3937,7 @@
       <c r="A39" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="12" t="s">
         <v>143</v>
       </c>
       <c r="C39" t="s">
@@ -5930,9 +5918,6 @@
       <c r="P81" t="s">
         <v>28</v>
       </c>
-      <c r="Q81" t="s">
-        <v>28</v>
-      </c>
       <c r="R81" t="s">
         <v>28</v>
       </c>
@@ -6004,9 +5989,6 @@
       <c r="P82" t="s">
         <v>28</v>
       </c>
-      <c r="Q82" t="s">
-        <v>28</v>
-      </c>
       <c r="R82" t="s">
         <v>28</v>
       </c>
@@ -6136,66 +6118,6 @@
       <c r="D85" t="s">
         <v>32</v>
       </c>
-      <c r="F85" t="s">
-        <v>28</v>
-      </c>
-      <c r="G85" t="s">
-        <v>28</v>
-      </c>
-      <c r="H85" t="s">
-        <v>28</v>
-      </c>
-      <c r="I85" t="s">
-        <v>28</v>
-      </c>
-      <c r="J85" t="s">
-        <v>28</v>
-      </c>
-      <c r="K85" t="s">
-        <v>28</v>
-      </c>
-      <c r="L85" t="s">
-        <v>28</v>
-      </c>
-      <c r="M85" t="s">
-        <v>28</v>
-      </c>
-      <c r="N85" t="s">
-        <v>28</v>
-      </c>
-      <c r="O85" t="s">
-        <v>28</v>
-      </c>
-      <c r="P85" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>28</v>
-      </c>
-      <c r="R85" t="s">
-        <v>28</v>
-      </c>
-      <c r="S85" t="s">
-        <v>28</v>
-      </c>
-      <c r="T85" t="s">
-        <v>28</v>
-      </c>
-      <c r="U85" t="s">
-        <v>28</v>
-      </c>
-      <c r="V85" t="s">
-        <v>28</v>
-      </c>
-      <c r="W85" t="s">
-        <v>28</v>
-      </c>
-      <c r="X85" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y85" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="86" spans="1:25">
       <c r="A86" s="2" t="s">
@@ -6285,6 +6207,9 @@
       <c r="G89" t="s">
         <v>28</v>
       </c>
+      <c r="I89" t="s">
+        <v>28</v>
+      </c>
       <c r="J89" t="s">
         <v>28</v>
       </c>
@@ -6292,18 +6217,6 @@
         <v>28</v>
       </c>
       <c r="M89" t="s">
-        <v>28</v>
-      </c>
-      <c r="N89" t="s">
-        <v>28</v>
-      </c>
-      <c r="R89" t="s">
-        <v>28</v>
-      </c>
-      <c r="V89" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y89" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6397,25 +6310,16 @@
       <c r="E91" t="s">
         <v>304</v>
       </c>
-      <c r="S91" t="s">
-        <v>28</v>
-      </c>
-      <c r="T91" t="s">
-        <v>305</v>
-      </c>
-      <c r="U91" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="92" spans="1:25">
       <c r="A92" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B92" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="C92" t="s">
         <v>307</v>
-      </c>
-      <c r="C92" t="s">
-        <v>308</v>
       </c>
       <c r="D92" t="s">
         <v>27</v>
@@ -6456,13 +6360,13 @@
     </row>
     <row r="93" spans="1:25">
       <c r="A93" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B93" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="C93" t="s">
         <v>310</v>
-      </c>
-      <c r="C93" t="s">
-        <v>311</v>
       </c>
       <c r="D93" t="s">
         <v>32</v>
@@ -6485,13 +6389,13 @@
     </row>
     <row r="94" spans="1:25">
       <c r="A94" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B94" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="C94" t="s">
         <v>313</v>
-      </c>
-      <c r="C94" t="s">
-        <v>314</v>
       </c>
       <c r="D94" t="s">
         <v>32</v>
@@ -6514,13 +6418,13 @@
     </row>
     <row r="95" spans="1:25">
       <c r="A95" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B95" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="C95" t="s">
         <v>316</v>
-      </c>
-      <c r="C95" t="s">
-        <v>317</v>
       </c>
       <c r="D95" t="s">
         <v>32</v>
@@ -6591,13 +6495,13 @@
     </row>
     <row r="96" spans="1:25">
       <c r="A96" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="C96" t="s">
         <v>319</v>
-      </c>
-      <c r="C96" t="s">
-        <v>320</v>
       </c>
       <c r="D96" t="s">
         <v>27</v>
@@ -6620,13 +6524,13 @@
     </row>
     <row r="97" spans="1:25">
       <c r="A97" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="C97" t="s">
         <v>322</v>
-      </c>
-      <c r="C97" t="s">
-        <v>323</v>
       </c>
       <c r="D97" t="s">
         <v>27</v>
@@ -6656,18 +6560,18 @@
         <v>28</v>
       </c>
       <c r="R97" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="98" spans="1:25">
       <c r="A98" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B98" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="C98" t="s">
         <v>326</v>
-      </c>
-      <c r="C98" t="s">
-        <v>327</v>
       </c>
       <c r="D98" t="s">
         <v>32</v>
@@ -6687,19 +6591,19 @@
     </row>
     <row r="99" spans="1:25">
       <c r="A99" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B99" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="C99" t="s">
         <v>329</v>
-      </c>
-      <c r="C99" t="s">
-        <v>330</v>
       </c>
       <c r="D99" t="s">
         <v>32</v>
       </c>
       <c r="E99" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G99" t="s">
         <v>28</v>
@@ -6722,13 +6626,13 @@
     </row>
     <row r="100" spans="1:25">
       <c r="A100" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="C100" t="s">
         <v>333</v>
-      </c>
-      <c r="C100" t="s">
-        <v>334</v>
       </c>
       <c r="D100" t="s">
         <v>27</v>
@@ -6796,13 +6700,13 @@
     </row>
     <row r="101" spans="1:25">
       <c r="A101" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B101" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="C101" t="s">
         <v>336</v>
-      </c>
-      <c r="C101" t="s">
-        <v>337</v>
       </c>
       <c r="D101" t="s">
         <v>32</v>
@@ -6816,19 +6720,19 @@
     </row>
     <row r="102" spans="1:25">
       <c r="A102" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B102" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="B102" s="6" t="s">
-        <v>339</v>
-      </c>
       <c r="C102" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D102" t="s">
         <v>32</v>
       </c>
       <c r="E102" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H102" t="s">
         <v>28</v>
@@ -6842,13 +6746,13 @@
     </row>
     <row r="103" spans="1:25">
       <c r="A103" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B103" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="C103" t="s">
         <v>342</v>
-      </c>
-      <c r="C103" t="s">
-        <v>343</v>
       </c>
       <c r="D103" t="s">
         <v>27</v>
@@ -6871,10 +6775,10 @@
     </row>
     <row r="104" spans="1:25">
       <c r="A104" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B104" s="6" t="s">
         <v>344</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>345</v>
       </c>
       <c r="C104" t="s">
         <v>170</v>
@@ -6883,7 +6787,7 @@
         <v>27</v>
       </c>
       <c r="E104" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F104" t="s">
         <v>28</v>
@@ -6948,19 +6852,19 @@
     </row>
     <row r="105" spans="1:25">
       <c r="A105" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B105" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="C105" t="s">
         <v>348</v>
-      </c>
-      <c r="C105" t="s">
-        <v>349</v>
       </c>
       <c r="D105" t="s">
         <v>32</v>
       </c>
       <c r="E105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F105" t="s">
         <v>28</v>
@@ -7025,13 +6929,13 @@
     </row>
     <row r="106" spans="1:25">
       <c r="A106" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B106" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="C106" t="s">
         <v>352</v>
-      </c>
-      <c r="C106" t="s">
-        <v>353</v>
       </c>
       <c r="D106" t="s">
         <v>27</v>
@@ -7069,9 +6973,6 @@
       <c r="P106" t="s">
         <v>28</v>
       </c>
-      <c r="Q106" t="s">
-        <v>28</v>
-      </c>
       <c r="R106" t="s">
         <v>28</v>
       </c>
@@ -7099,13 +7000,13 @@
     </row>
     <row r="107" spans="1:25">
       <c r="A107" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B107" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="C107" t="s">
         <v>355</v>
-      </c>
-      <c r="C107" t="s">
-        <v>356</v>
       </c>
       <c r="D107" t="s">
         <v>32</v>
@@ -7173,13 +7074,13 @@
     </row>
     <row r="108" spans="1:25">
       <c r="A108" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B108" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="C108" t="s">
         <v>358</v>
-      </c>
-      <c r="C108" t="s">
-        <v>359</v>
       </c>
       <c r="D108" t="s">
         <v>27</v>
@@ -7208,13 +7109,13 @@
     </row>
     <row r="109" spans="1:25">
       <c r="A109" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B109" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="C109" t="s">
         <v>361</v>
-      </c>
-      <c r="C109" t="s">
-        <v>362</v>
       </c>
       <c r="D109" t="s">
         <v>27</v>
@@ -7240,13 +7141,13 @@
     </row>
     <row r="110" spans="1:25">
       <c r="A110" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B110" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="C110" t="s">
         <v>364</v>
-      </c>
-      <c r="C110" t="s">
-        <v>365</v>
       </c>
       <c r="D110" t="s">
         <v>27</v>
@@ -7314,13 +7215,13 @@
     </row>
     <row r="111" spans="1:25">
       <c r="A111" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B111" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="C111" t="s">
         <v>367</v>
-      </c>
-      <c r="C111" t="s">
-        <v>368</v>
       </c>
       <c r="D111" t="s">
         <v>32</v>
@@ -7388,13 +7289,13 @@
     </row>
     <row r="112" spans="1:25">
       <c r="A112" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="C112" t="s">
         <v>369</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="C112" t="s">
-        <v>370</v>
       </c>
       <c r="D112" t="s">
         <v>27</v>
@@ -7462,19 +7363,19 @@
     </row>
     <row r="113" spans="1:25">
       <c r="A113" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B113" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="C113" t="s">
         <v>372</v>
-      </c>
-      <c r="C113" t="s">
-        <v>373</v>
       </c>
       <c r="D113" t="s">
         <v>32</v>
       </c>
       <c r="E113" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F113" t="s">
         <v>28</v>
@@ -7507,9 +7408,6 @@
         <v>28</v>
       </c>
       <c r="P113" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q113" t="s">
         <v>28</v>
       </c>
       <c r="R113" t="s">
@@ -7539,19 +7437,19 @@
     </row>
     <row r="114" spans="1:25">
       <c r="A114" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B114" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="C114" t="s">
         <v>376</v>
-      </c>
-      <c r="C114" t="s">
-        <v>377</v>
       </c>
       <c r="D114" t="s">
         <v>32</v>
       </c>
       <c r="E114" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F114" t="s">
         <v>28</v>
@@ -7616,13 +7514,13 @@
     </row>
     <row r="115" spans="1:25">
       <c r="A115" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B115" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="C115" t="s">
         <v>380</v>
-      </c>
-      <c r="C115" t="s">
-        <v>381</v>
       </c>
       <c r="D115" t="s">
         <v>32</v>
@@ -7637,32 +7535,29 @@
         <v>28</v>
       </c>
       <c r="I115" t="s">
+        <v>381</v>
+      </c>
+      <c r="J115" t="s">
+        <v>28</v>
+      </c>
+      <c r="K115" t="s">
+        <v>28</v>
+      </c>
+      <c r="L115" t="s">
+        <v>28</v>
+      </c>
+      <c r="M115" t="s">
+        <v>28</v>
+      </c>
+      <c r="N115" t="s">
         <v>382</v>
       </c>
-      <c r="J115" t="s">
-        <v>28</v>
-      </c>
-      <c r="K115" t="s">
-        <v>28</v>
-      </c>
-      <c r="L115" t="s">
-        <v>28</v>
-      </c>
-      <c r="M115" t="s">
-        <v>28</v>
-      </c>
-      <c r="N115" t="s">
-        <v>383</v>
-      </c>
       <c r="O115" t="s">
         <v>28</v>
       </c>
       <c r="P115" t="s">
         <v>28</v>
       </c>
-      <c r="Q115" t="s">
-        <v>28</v>
-      </c>
       <c r="R115" t="s">
         <v>28</v>
       </c>
@@ -7685,18 +7580,18 @@
         <v>28</v>
       </c>
       <c r="Y115" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="116" spans="1:25">
       <c r="A116" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B116" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="C116" t="s">
         <v>385</v>
-      </c>
-      <c r="C116" t="s">
-        <v>386</v>
       </c>
       <c r="D116" t="s">
         <v>32</v>
@@ -7752,13 +7647,13 @@
     </row>
     <row r="117" spans="1:25">
       <c r="A117" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B117" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="C117" t="s">
         <v>388</v>
-      </c>
-      <c r="C117" t="s">
-        <v>389</v>
       </c>
       <c r="D117" t="s">
         <v>32</v>
@@ -7796,13 +7691,13 @@
     </row>
     <row r="118" spans="1:25">
       <c r="A118" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B118" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="C118" t="s">
         <v>391</v>
-      </c>
-      <c r="C118" t="s">
-        <v>392</v>
       </c>
       <c r="D118" t="s">
         <v>32</v>
@@ -7870,13 +7765,13 @@
     </row>
     <row r="119" spans="1:25">
       <c r="A119" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B119" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="C119" t="s">
         <v>394</v>
-      </c>
-      <c r="C119" t="s">
-        <v>395</v>
       </c>
       <c r="D119" t="s">
         <v>27</v>
@@ -7944,10 +7839,10 @@
     </row>
     <row r="120" spans="1:25">
       <c r="A120" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B120" s="6" t="s">
         <v>396</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>397</v>
       </c>
       <c r="C120" s="8"/>
       <c r="D120" s="8" t="s">
@@ -7959,13 +7854,13 @@
     </row>
     <row r="121" spans="1:25">
       <c r="A121" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B121" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="C121" t="s">
         <v>399</v>
-      </c>
-      <c r="C121" t="s">
-        <v>400</v>
       </c>
       <c r="D121" t="s">
         <v>32</v>
@@ -8033,19 +7928,19 @@
     </row>
     <row r="122" spans="1:25">
       <c r="A122" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B122" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="C122" t="s">
         <v>402</v>
-      </c>
-      <c r="C122" t="s">
-        <v>403</v>
       </c>
       <c r="D122" t="s">
         <v>32</v>
       </c>
       <c r="E122" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F122" t="s">
         <v>28</v>
@@ -8080,19 +7975,19 @@
     </row>
     <row r="123" spans="1:25">
       <c r="A123" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B123" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="B123" s="12" t="s">
+      <c r="C123" t="s">
         <v>406</v>
-      </c>
-      <c r="C123" t="s">
-        <v>407</v>
       </c>
       <c r="D123" t="s">
         <v>27</v>
       </c>
       <c r="E123" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F123" t="s">
         <v>28</v>
@@ -8157,19 +8052,19 @@
     </row>
     <row r="124" spans="1:25">
       <c r="A124" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B124" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="B124" s="12" t="s">
+      <c r="C124" t="s">
         <v>410</v>
-      </c>
-      <c r="C124" t="s">
-        <v>411</v>
       </c>
       <c r="D124" t="s">
         <v>32</v>
       </c>
       <c r="E124" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F124" t="s">
         <v>28</v>
@@ -8216,13 +8111,13 @@
     </row>
     <row r="125" spans="1:25">
       <c r="A125" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B125" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="C125" t="s">
         <v>414</v>
-      </c>
-      <c r="C125" t="s">
-        <v>415</v>
       </c>
       <c r="D125" t="s">
         <v>27</v>
@@ -8239,13 +8134,13 @@
     </row>
     <row r="126" spans="1:25">
       <c r="A126" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B126" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="C126" t="s">
         <v>417</v>
-      </c>
-      <c r="C126" t="s">
-        <v>418</v>
       </c>
       <c r="D126" t="s">
         <v>27</v>
@@ -8265,30 +8160,30 @@
     </row>
     <row r="127" spans="1:25">
       <c r="A127" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B127" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="C127" t="s">
         <v>420</v>
-      </c>
-      <c r="C127" t="s">
-        <v>421</v>
       </c>
       <c r="D127" t="s">
         <v>32</v>
       </c>
       <c r="E127" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="128" spans="1:25">
       <c r="A128" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B128" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="C128" t="s">
         <v>424</v>
-      </c>
-      <c r="C128" t="s">
-        <v>425</v>
       </c>
       <c r="D128" t="s">
         <v>32</v>
@@ -8299,13 +8194,13 @@
     </row>
     <row r="129" spans="1:25">
       <c r="A129" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B129" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="C129" t="s">
         <v>427</v>
-      </c>
-      <c r="C129" t="s">
-        <v>428</v>
       </c>
       <c r="D129" t="s">
         <v>27</v>
@@ -8319,13 +8214,13 @@
     </row>
     <row r="130" spans="1:25">
       <c r="A130" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B130" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="B130" s="6" t="s">
+      <c r="C130" t="s">
         <v>430</v>
-      </c>
-      <c r="C130" t="s">
-        <v>431</v>
       </c>
       <c r="D130" t="s">
         <v>27</v>
@@ -8336,19 +8231,19 @@
     </row>
     <row r="131" spans="1:25">
       <c r="A131" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B131" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="C131" t="s">
         <v>433</v>
-      </c>
-      <c r="C131" t="s">
-        <v>434</v>
       </c>
       <c r="D131" t="s">
         <v>27</v>
       </c>
       <c r="E131" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F131" t="s">
         <v>28</v>
@@ -8413,13 +8308,13 @@
     </row>
     <row r="132" spans="1:25">
       <c r="A132" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B132" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="B132" s="6" t="s">
+      <c r="C132" t="s">
         <v>437</v>
-      </c>
-      <c r="C132" t="s">
-        <v>438</v>
       </c>
       <c r="D132" t="s">
         <v>32</v>
@@ -8439,13 +8334,13 @@
     </row>
     <row r="133" spans="1:25">
       <c r="A133" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B133" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="B133" s="6" t="s">
+      <c r="C133" t="s">
         <v>440</v>
-      </c>
-      <c r="C133" t="s">
-        <v>441</v>
       </c>
       <c r="D133" t="s">
         <v>32</v>
@@ -8513,13 +8408,13 @@
     </row>
     <row r="134" spans="1:25">
       <c r="A134" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B134" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="B134" s="6" t="s">
+      <c r="C134" t="s">
         <v>443</v>
-      </c>
-      <c r="C134" t="s">
-        <v>444</v>
       </c>
       <c r="D134" t="s">
         <v>32</v>
@@ -8587,13 +8482,13 @@
     </row>
     <row r="135" spans="1:25">
       <c r="A135" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B135" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="B135" s="6" t="s">
+      <c r="C135" t="s">
         <v>446</v>
-      </c>
-      <c r="C135" t="s">
-        <v>447</v>
       </c>
       <c r="D135" t="s">
         <v>32</v>
@@ -8661,13 +8556,13 @@
     </row>
     <row r="136" spans="1:25">
       <c r="A136" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B136" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="C136" t="s">
         <v>449</v>
-      </c>
-      <c r="C136" t="s">
-        <v>450</v>
       </c>
       <c r="D136" t="s">
         <v>32</v>
@@ -8681,13 +8576,13 @@
     </row>
     <row r="137" spans="1:25">
       <c r="A137" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B137" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="B137" s="6" t="s">
+      <c r="C137" t="s">
         <v>452</v>
-      </c>
-      <c r="C137" t="s">
-        <v>453</v>
       </c>
       <c r="D137" t="s">
         <v>27</v>
@@ -8698,13 +8593,13 @@
     </row>
     <row r="138" spans="1:25">
       <c r="A138" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B138" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="B138" s="6" t="s">
+      <c r="C138" t="s">
         <v>455</v>
-      </c>
-      <c r="C138" t="s">
-        <v>456</v>
       </c>
       <c r="D138" t="s">
         <v>32</v>
@@ -8772,13 +8667,13 @@
     </row>
     <row r="139" spans="1:25">
       <c r="A139" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B139" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="C139" t="s">
         <v>458</v>
-      </c>
-      <c r="C139" t="s">
-        <v>459</v>
       </c>
       <c r="D139" t="s">
         <v>32</v>
@@ -8792,13 +8687,13 @@
     </row>
     <row r="140" spans="1:25">
       <c r="A140" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B140" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="C140" t="s">
         <v>461</v>
-      </c>
-      <c r="C140" t="s">
-        <v>462</v>
       </c>
       <c r="D140" t="s">
         <v>27</v>
@@ -8857,13 +8752,13 @@
     </row>
     <row r="141" spans="1:25">
       <c r="A141" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B141" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="C141" t="s">
         <v>464</v>
-      </c>
-      <c r="C141" t="s">
-        <v>465</v>
       </c>
       <c r="D141" t="s">
         <v>32</v>
@@ -8931,19 +8826,19 @@
     </row>
     <row r="142" spans="1:25">
       <c r="A142" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B142" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="C142" t="s">
         <v>467</v>
-      </c>
-      <c r="C142" t="s">
-        <v>468</v>
       </c>
       <c r="D142" t="s">
         <v>32</v>
       </c>
       <c r="E142" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F142" t="s">
         <v>28</v>
@@ -8963,13 +8858,13 @@
     </row>
     <row r="143" spans="1:25">
       <c r="A143" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B143" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="B143" s="6" t="s">
+      <c r="C143" t="s">
         <v>471</v>
-      </c>
-      <c r="C143" t="s">
-        <v>472</v>
       </c>
       <c r="D143" t="s">
         <v>32</v>
@@ -9007,10 +8902,10 @@
     </row>
     <row r="144" spans="1:25">
       <c r="A144" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B144" s="6" t="s">
         <v>473</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>474</v>
       </c>
       <c r="C144" t="s">
         <v>31</v>
@@ -9081,13 +8976,13 @@
     </row>
     <row r="145" spans="1:25">
       <c r="A145" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B145" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="B145" s="6" t="s">
+      <c r="C145" t="s">
         <v>476</v>
-      </c>
-      <c r="C145" t="s">
-        <v>477</v>
       </c>
       <c r="D145" t="s">
         <v>27</v>
@@ -9155,57 +9050,24 @@
     </row>
     <row r="146" spans="1:25">
       <c r="A146" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B146" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="B146" s="6" t="s">
+      <c r="C146" t="s">
         <v>479</v>
-      </c>
-      <c r="C146" t="s">
-        <v>480</v>
       </c>
       <c r="D146" t="s">
         <v>27</v>
       </c>
-      <c r="F146" t="s">
-        <v>28</v>
-      </c>
-      <c r="G146" t="s">
-        <v>28</v>
-      </c>
-      <c r="H146" t="s">
-        <v>28</v>
-      </c>
-      <c r="J146" t="s">
-        <v>28</v>
-      </c>
       <c r="K146" t="s">
         <v>28</v>
       </c>
-      <c r="L146" t="s">
-        <v>28</v>
-      </c>
-      <c r="M146" t="s">
-        <v>28</v>
-      </c>
       <c r="N146" t="s">
         <v>28</v>
       </c>
-      <c r="O146" t="s">
-        <v>28</v>
-      </c>
       <c r="R146" t="s">
-        <v>28</v>
-      </c>
-      <c r="S146" t="s">
-        <v>28</v>
-      </c>
-      <c r="U146" t="s">
-        <v>28</v>
-      </c>
-      <c r="V146" t="s">
-        <v>28</v>
-      </c>
-      <c r="X146" t="s">
         <v>28</v>
       </c>
       <c r="Y146" t="s">
@@ -9214,13 +9076,13 @@
     </row>
     <row r="147" spans="1:25">
       <c r="A147" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B147" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="B147" s="6" t="s">
+      <c r="C147" t="s">
         <v>482</v>
-      </c>
-      <c r="C147" t="s">
-        <v>483</v>
       </c>
       <c r="D147" t="s">
         <v>32</v>
@@ -9258,13 +9120,13 @@
     </row>
     <row r="148" spans="1:25">
       <c r="A148" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B148" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="B148" s="6" t="s">
+      <c r="C148" t="s">
         <v>485</v>
-      </c>
-      <c r="C148" t="s">
-        <v>486</v>
       </c>
       <c r="D148" t="s">
         <v>32</v>
@@ -9284,13 +9146,13 @@
     </row>
     <row r="149" spans="1:25">
       <c r="A149" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B149" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="B149" s="6" t="s">
+      <c r="C149" t="s">
         <v>488</v>
-      </c>
-      <c r="C149" t="s">
-        <v>489</v>
       </c>
       <c r="D149" t="s">
         <v>32</v>
@@ -9358,13 +9220,13 @@
     </row>
     <row r="150" spans="1:25">
       <c r="A150" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B150" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="B150" s="6" t="s">
+      <c r="C150" t="s">
         <v>491</v>
-      </c>
-      <c r="C150" t="s">
-        <v>492</v>
       </c>
       <c r="D150" t="s">
         <v>27</v>
@@ -9393,13 +9255,13 @@
     </row>
     <row r="151" spans="1:25">
       <c r="A151" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B151" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="B151" s="6" t="s">
-        <v>494</v>
-      </c>
       <c r="C151" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D151" t="s">
         <v>32</v>
@@ -9467,13 +9329,13 @@
     </row>
     <row r="152" spans="1:25">
       <c r="A152" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B152" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="B152" s="6" t="s">
+      <c r="C152" t="s">
         <v>496</v>
-      </c>
-      <c r="C152" t="s">
-        <v>497</v>
       </c>
       <c r="D152" t="s">
         <v>27</v>
@@ -9494,13 +9356,13 @@
     </row>
     <row r="153" spans="1:25">
       <c r="A153" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B153" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="C153" t="s">
         <v>499</v>
-      </c>
-      <c r="C153" t="s">
-        <v>500</v>
       </c>
       <c r="D153" t="s">
         <v>27</v>
@@ -9550,13 +9412,13 @@
     </row>
     <row r="154" spans="1:25">
       <c r="A154" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B154" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="B154" s="6" t="s">
+      <c r="C154" t="s">
         <v>502</v>
-      </c>
-      <c r="C154" t="s">
-        <v>503</v>
       </c>
       <c r="D154" t="s">
         <v>32</v>
@@ -9624,13 +9486,13 @@
     </row>
     <row r="155" spans="1:25">
       <c r="A155" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B155" s="12" t="s">
         <v>504</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="C155" t="s">
         <v>505</v>
-      </c>
-      <c r="C155" t="s">
-        <v>506</v>
       </c>
       <c r="D155" t="s">
         <v>32</v>
@@ -9641,16 +9503,16 @@
     </row>
     <row r="156" spans="1:25">
       <c r="A156" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B156" s="12" t="s">
         <v>507</v>
       </c>
-      <c r="B156" s="12" t="s">
+      <c r="C156" t="s">
         <v>508</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
         <v>509</v>
-      </c>
-      <c r="D156" t="s">
-        <v>510</v>
       </c>
       <c r="F156" t="s">
         <v>28</v>
@@ -9879,9 +9741,12 @@
     <hyperlink ref="B3" r:id="rId161" xr:uid="{C2DC3950-B3B2-43BB-B351-7BF9207E112C}"/>
     <hyperlink ref="B123" r:id="rId162" xr:uid="{469ECC17-2973-4C75-A333-DF1E5BC5ADAB}"/>
     <hyperlink ref="B124" r:id="rId163" xr:uid="{B08B16DE-DFDF-4E68-AB6C-5DA6781A33E3}"/>
+    <hyperlink ref="B39" r:id="rId164" xr:uid="{BA3B2AED-B325-44CC-963A-59D39AFA4536}"/>
+    <hyperlink ref="B111" r:id="rId165" xr:uid="{EBB79F4D-14B9-47C2-A367-9697A061A42D}"/>
+    <hyperlink ref="B155" r:id="rId166" xr:uid="{8B403CE0-91FC-4665-82E4-CEF81E63FC75}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId164"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId167"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Běžné"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Běžné"&amp;12Stránka &amp;P</oddFooter>
@@ -9904,7 +9769,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -9912,7 +9777,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -9920,7 +9785,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -9928,7 +9793,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -9936,7 +9801,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -9944,7 +9809,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -9952,7 +9817,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -9960,7 +9825,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -9968,7 +9833,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -9976,7 +9841,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -9984,7 +9849,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -9992,7 +9857,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -10000,7 +9865,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -10008,7 +9873,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -10016,7 +9881,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -10024,7 +9889,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -10032,7 +9897,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -10040,7 +9905,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -10048,7 +9913,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -10056,7 +9921,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -10169,10 +10034,10 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>530</v>
+      </c>
+      <c r="B12" t="s">
         <v>531</v>
-      </c>
-      <c r="B12" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -10193,10 +10058,10 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
+        <v>532</v>
+      </c>
+      <c r="B15" t="s">
         <v>533</v>
-      </c>
-      <c r="B15" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -10233,10 +10098,10 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>534</v>
+      </c>
+      <c r="B20" t="s">
         <v>535</v>
-      </c>
-      <c r="B20" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -10329,10 +10194,10 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
+        <v>536</v>
+      </c>
+      <c r="B32" t="s">
         <v>537</v>
-      </c>
-      <c r="B32" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -10380,7 +10245,7 @@
         <v>131</v>
       </c>
       <c r="B38" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -10388,23 +10253,23 @@
         <v>134</v>
       </c>
       <c r="B39" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
+        <v>540</v>
+      </c>
+      <c r="B40" t="s">
         <v>541</v>
-      </c>
-      <c r="B40" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
+        <v>542</v>
+      </c>
+      <c r="B41" t="s">
         <v>543</v>
-      </c>
-      <c r="B41" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -10417,10 +10282,10 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
+        <v>544</v>
+      </c>
+      <c r="B43" t="s">
         <v>545</v>
-      </c>
-      <c r="B43" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -10441,10 +10306,10 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
+        <v>546</v>
+      </c>
+      <c r="B46" t="s">
         <v>547</v>
-      </c>
-      <c r="B46" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -10481,18 +10346,18 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
+        <v>548</v>
+      </c>
+      <c r="B51" t="s">
         <v>549</v>
-      </c>
-      <c r="B51" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
+        <v>550</v>
+      </c>
+      <c r="B52" t="s">
         <v>551</v>
-      </c>
-      <c r="B52" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -10505,10 +10370,10 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
+        <v>552</v>
+      </c>
+      <c r="B54" t="s">
         <v>553</v>
-      </c>
-      <c r="B54" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -10529,10 +10394,10 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
+        <v>554</v>
+      </c>
+      <c r="B57" t="s">
         <v>555</v>
-      </c>
-      <c r="B57" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -10545,7 +10410,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B59" t="s">
         <v>177</v>
@@ -10553,10 +10418,10 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
+        <v>557</v>
+      </c>
+      <c r="B60" t="s">
         <v>558</v>
-      </c>
-      <c r="B60" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -10569,18 +10434,18 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
+        <v>559</v>
+      </c>
+      <c r="B62" t="s">
         <v>560</v>
-      </c>
-      <c r="B62" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
+        <v>561</v>
+      </c>
+      <c r="B63" t="s">
         <v>562</v>
-      </c>
-      <c r="B63" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -10601,10 +10466,10 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
+        <v>563</v>
+      </c>
+      <c r="B66" t="s">
         <v>564</v>
-      </c>
-      <c r="B66" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -10641,10 +10506,10 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
+        <v>565</v>
+      </c>
+      <c r="B71" t="s">
         <v>566</v>
-      </c>
-      <c r="B71" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -10673,18 +10538,18 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
+        <v>567</v>
+      </c>
+      <c r="B75" t="s">
         <v>568</v>
-      </c>
-      <c r="B75" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
+        <v>569</v>
+      </c>
+      <c r="B76" t="s">
         <v>570</v>
-      </c>
-      <c r="B76" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -10705,10 +10570,10 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
+        <v>571</v>
+      </c>
+      <c r="B79" t="s">
         <v>572</v>
-      </c>
-      <c r="B79" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -10721,18 +10586,18 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
+        <v>573</v>
+      </c>
+      <c r="B81" t="s">
         <v>574</v>
-      </c>
-      <c r="B81" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
+        <v>575</v>
+      </c>
+      <c r="B82" t="s">
         <v>576</v>
-      </c>
-      <c r="B82" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -10801,18 +10666,18 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
+        <v>577</v>
+      </c>
+      <c r="B91" t="s">
         <v>578</v>
-      </c>
-      <c r="B91" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
+        <v>579</v>
+      </c>
+      <c r="B92" t="s">
         <v>580</v>
-      </c>
-      <c r="B92" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -10865,10 +10730,10 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
+        <v>581</v>
+      </c>
+      <c r="B99" t="s">
         <v>582</v>
-      </c>
-      <c r="B99" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -10889,18 +10754,18 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
+        <v>583</v>
+      </c>
+      <c r="B102" t="s">
         <v>584</v>
-      </c>
-      <c r="B102" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
+        <v>585</v>
+      </c>
+      <c r="B103" t="s">
         <v>586</v>
-      </c>
-      <c r="B103" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -10921,10 +10786,10 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
+        <v>587</v>
+      </c>
+      <c r="B106" t="s">
         <v>588</v>
-      </c>
-      <c r="B106" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -10937,10 +10802,10 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
+        <v>589</v>
+      </c>
+      <c r="B108" t="s">
         <v>590</v>
-      </c>
-      <c r="B108" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -11001,10 +10866,10 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
+        <v>591</v>
+      </c>
+      <c r="B116" t="s">
         <v>592</v>
-      </c>
-      <c r="B116" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -11017,247 +10882,247 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
+        <v>305</v>
+      </c>
+      <c r="B118" t="s">
         <v>306</v>
-      </c>
-      <c r="B118" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
+        <v>593</v>
+      </c>
+      <c r="B119" t="s">
         <v>594</v>
-      </c>
-      <c r="B119" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
+        <v>308</v>
+      </c>
+      <c r="B120" t="s">
         <v>309</v>
-      </c>
-      <c r="B120" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
+        <v>311</v>
+      </c>
+      <c r="B121" t="s">
         <v>312</v>
-      </c>
-      <c r="B121" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
+        <v>595</v>
+      </c>
+      <c r="B122" t="s">
         <v>596</v>
-      </c>
-      <c r="B122" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
+        <v>314</v>
+      </c>
+      <c r="B123" t="s">
         <v>315</v>
-      </c>
-      <c r="B123" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
+        <v>597</v>
+      </c>
+      <c r="B124" t="s">
         <v>598</v>
-      </c>
-      <c r="B124" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B125" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B126" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
+        <v>320</v>
+      </c>
+      <c r="B127" t="s">
         <v>321</v>
-      </c>
-      <c r="B127" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
+        <v>324</v>
+      </c>
+      <c r="B128" t="s">
         <v>325</v>
-      </c>
-      <c r="B128" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
+        <v>327</v>
+      </c>
+      <c r="B129" t="s">
         <v>328</v>
-      </c>
-      <c r="B129" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
+        <v>601</v>
+      </c>
+      <c r="B130" t="s">
         <v>602</v>
-      </c>
-      <c r="B130" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
+        <v>331</v>
+      </c>
+      <c r="B131" t="s">
         <v>332</v>
-      </c>
-      <c r="B131" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
+        <v>334</v>
+      </c>
+      <c r="B132" t="s">
         <v>335</v>
-      </c>
-      <c r="B132" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
+        <v>337</v>
+      </c>
+      <c r="B133" t="s">
         <v>338</v>
-      </c>
-      <c r="B133" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
+        <v>603</v>
+      </c>
+      <c r="B134" t="s">
         <v>604</v>
-      </c>
-      <c r="B134" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
+        <v>340</v>
+      </c>
+      <c r="B135" t="s">
         <v>341</v>
-      </c>
-      <c r="B135" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
+        <v>605</v>
+      </c>
+      <c r="B136" t="s">
         <v>606</v>
-      </c>
-      <c r="B136" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
+        <v>607</v>
+      </c>
+      <c r="B137" t="s">
         <v>608</v>
-      </c>
-      <c r="B137" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
+        <v>343</v>
+      </c>
+      <c r="B138" t="s">
         <v>344</v>
-      </c>
-      <c r="B138" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
+        <v>346</v>
+      </c>
+      <c r="B139" t="s">
         <v>347</v>
-      </c>
-      <c r="B139" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
+        <v>609</v>
+      </c>
+      <c r="B140" t="s">
         <v>610</v>
-      </c>
-      <c r="B140" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
+        <v>611</v>
+      </c>
+      <c r="B141" t="s">
         <v>612</v>
-      </c>
-      <c r="B141" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
+        <v>350</v>
+      </c>
+      <c r="B142" t="s">
         <v>351</v>
-      </c>
-      <c r="B142" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
+        <v>613</v>
+      </c>
+      <c r="B143" t="s">
         <v>614</v>
-      </c>
-      <c r="B143" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
+        <v>353</v>
+      </c>
+      <c r="B144" t="s">
         <v>354</v>
-      </c>
-      <c r="B144" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
+        <v>356</v>
+      </c>
+      <c r="B145" t="s">
         <v>357</v>
-      </c>
-      <c r="B145" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
+        <v>359</v>
+      </c>
+      <c r="B146" t="s">
         <v>360</v>
-      </c>
-      <c r="B146" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
+        <v>615</v>
+      </c>
+      <c r="B147" t="s">
         <v>616</v>
-      </c>
-      <c r="B147" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B148" t="s">
         <v>617</v>
@@ -11265,578 +11130,578 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
+        <v>365</v>
+      </c>
+      <c r="B149" t="s">
         <v>366</v>
-      </c>
-      <c r="B149" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B150" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
+        <v>370</v>
+      </c>
+      <c r="B151" t="s">
         <v>371</v>
-      </c>
-      <c r="B151" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
+        <v>374</v>
+      </c>
+      <c r="B152" t="s">
         <v>375</v>
-      </c>
-      <c r="B152" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
+        <v>378</v>
+      </c>
+      <c r="B153" t="s">
         <v>379</v>
-      </c>
-      <c r="B153" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
+        <v>383</v>
+      </c>
+      <c r="B154" t="s">
         <v>384</v>
-      </c>
-      <c r="B154" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
+        <v>386</v>
+      </c>
+      <c r="B155" t="s">
         <v>387</v>
-      </c>
-      <c r="B155" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
+        <v>389</v>
+      </c>
+      <c r="B156" t="s">
         <v>390</v>
-      </c>
-      <c r="B156" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
+        <v>618</v>
+      </c>
+      <c r="B157" t="s">
         <v>619</v>
-      </c>
-      <c r="B157" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
+        <v>392</v>
+      </c>
+      <c r="B158" t="s">
         <v>393</v>
-      </c>
-      <c r="B158" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
+        <v>395</v>
+      </c>
+      <c r="B159" t="s">
         <v>396</v>
-      </c>
-      <c r="B159" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
+        <v>620</v>
+      </c>
+      <c r="B160" t="s">
         <v>621</v>
-      </c>
-      <c r="B160" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
+        <v>622</v>
+      </c>
+      <c r="B161" t="s">
         <v>623</v>
-      </c>
-      <c r="B161" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
+        <v>624</v>
+      </c>
+      <c r="B162" t="s">
         <v>625</v>
-      </c>
-      <c r="B162" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
+        <v>626</v>
+      </c>
+      <c r="B163" t="s">
         <v>627</v>
-      </c>
-      <c r="B163" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
+        <v>628</v>
+      </c>
+      <c r="B164" t="s">
         <v>629</v>
-      </c>
-      <c r="B164" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
+        <v>630</v>
+      </c>
+      <c r="B165" t="s">
         <v>631</v>
-      </c>
-      <c r="B165" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
+        <v>632</v>
+      </c>
+      <c r="B166" t="s">
         <v>633</v>
-      </c>
-      <c r="B166" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
+        <v>397</v>
+      </c>
+      <c r="B167" t="s">
         <v>398</v>
-      </c>
-      <c r="B167" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
+        <v>634</v>
+      </c>
+      <c r="B168" t="s">
         <v>635</v>
-      </c>
-      <c r="B168" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
+        <v>636</v>
+      </c>
+      <c r="B169" t="s">
         <v>637</v>
-      </c>
-      <c r="B169" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
+        <v>638</v>
+      </c>
+      <c r="B170" t="s">
         <v>639</v>
-      </c>
-      <c r="B170" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
+        <v>640</v>
+      </c>
+      <c r="B171" t="s">
         <v>641</v>
-      </c>
-      <c r="B171" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B172" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
+        <v>404</v>
+      </c>
+      <c r="B173" t="s">
         <v>405</v>
-      </c>
-      <c r="B173" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
+        <v>408</v>
+      </c>
+      <c r="B174" t="s">
         <v>409</v>
-      </c>
-      <c r="B174" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
+        <v>412</v>
+      </c>
+      <c r="B175" t="s">
         <v>413</v>
-      </c>
-      <c r="B175" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
+        <v>415</v>
+      </c>
+      <c r="B176" t="s">
         <v>416</v>
-      </c>
-      <c r="B176" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
+        <v>418</v>
+      </c>
+      <c r="B177" t="s">
         <v>419</v>
-      </c>
-      <c r="B177" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
+        <v>422</v>
+      </c>
+      <c r="B178" t="s">
         <v>423</v>
-      </c>
-      <c r="B178" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
+        <v>643</v>
+      </c>
+      <c r="B179" t="s">
         <v>644</v>
-      </c>
-      <c r="B179" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
+        <v>425</v>
+      </c>
+      <c r="B180" t="s">
         <v>426</v>
-      </c>
-      <c r="B180" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
+        <v>428</v>
+      </c>
+      <c r="B181" t="s">
         <v>429</v>
-      </c>
-      <c r="B181" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
+        <v>431</v>
+      </c>
+      <c r="B182" t="s">
         <v>432</v>
-      </c>
-      <c r="B182" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
+        <v>645</v>
+      </c>
+      <c r="B183" t="s">
         <v>646</v>
-      </c>
-      <c r="B183" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
+        <v>647</v>
+      </c>
+      <c r="B184" t="s">
         <v>648</v>
-      </c>
-      <c r="B184" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
+        <v>435</v>
+      </c>
+      <c r="B185" t="s">
         <v>436</v>
-      </c>
-      <c r="B185" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
+        <v>438</v>
+      </c>
+      <c r="B186" t="s">
         <v>439</v>
-      </c>
-      <c r="B186" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
+        <v>441</v>
+      </c>
+      <c r="B187" t="s">
         <v>442</v>
-      </c>
-      <c r="B187" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
+        <v>444</v>
+      </c>
+      <c r="B188" t="s">
         <v>445</v>
-      </c>
-      <c r="B188" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
+        <v>649</v>
+      </c>
+      <c r="B189" t="s">
         <v>650</v>
-      </c>
-      <c r="B189" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
+        <v>447</v>
+      </c>
+      <c r="B190" t="s">
         <v>448</v>
-      </c>
-      <c r="B190" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
+        <v>450</v>
+      </c>
+      <c r="B191" t="s">
         <v>451</v>
-      </c>
-      <c r="B191" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
+        <v>453</v>
+      </c>
+      <c r="B192" t="s">
         <v>454</v>
-      </c>
-      <c r="B192" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
+        <v>456</v>
+      </c>
+      <c r="B193" t="s">
         <v>457</v>
-      </c>
-      <c r="B193" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
+        <v>459</v>
+      </c>
+      <c r="B194" t="s">
         <v>460</v>
-      </c>
-      <c r="B194" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
+        <v>651</v>
+      </c>
+      <c r="B195" t="s">
         <v>652</v>
-      </c>
-      <c r="B195" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
+        <v>653</v>
+      </c>
+      <c r="B196" t="s">
         <v>654</v>
-      </c>
-      <c r="B196" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
+        <v>655</v>
+      </c>
+      <c r="B197" t="s">
         <v>656</v>
-      </c>
-      <c r="B197" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
+        <v>462</v>
+      </c>
+      <c r="B198" t="s">
         <v>463</v>
-      </c>
-      <c r="B198" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
+        <v>465</v>
+      </c>
+      <c r="B199" t="s">
         <v>466</v>
-      </c>
-      <c r="B199" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
+        <v>469</v>
+      </c>
+      <c r="B200" t="s">
         <v>470</v>
-      </c>
-      <c r="B200" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
+        <v>472</v>
+      </c>
+      <c r="B201" t="s">
         <v>473</v>
-      </c>
-      <c r="B201" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
+        <v>474</v>
+      </c>
+      <c r="B202" t="s">
         <v>475</v>
-      </c>
-      <c r="B202" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
+        <v>657</v>
+      </c>
+      <c r="B203" t="s">
         <v>658</v>
-      </c>
-      <c r="B203" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
+        <v>477</v>
+      </c>
+      <c r="B204" t="s">
         <v>478</v>
-      </c>
-      <c r="B204" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
+        <v>480</v>
+      </c>
+      <c r="B205" t="s">
         <v>481</v>
-      </c>
-      <c r="B205" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
+        <v>659</v>
+      </c>
+      <c r="B206" t="s">
         <v>660</v>
-      </c>
-      <c r="B206" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
+        <v>483</v>
+      </c>
+      <c r="B207" t="s">
         <v>484</v>
-      </c>
-      <c r="B207" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
+        <v>661</v>
+      </c>
+      <c r="B208" t="s">
         <v>662</v>
-      </c>
-      <c r="B208" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
+        <v>486</v>
+      </c>
+      <c r="B209" t="s">
         <v>487</v>
-      </c>
-      <c r="B209" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
+        <v>663</v>
+      </c>
+      <c r="B210" t="s">
         <v>664</v>
-      </c>
-      <c r="B210" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
+        <v>665</v>
+      </c>
+      <c r="B211" t="s">
         <v>666</v>
-      </c>
-      <c r="B211" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
+        <v>489</v>
+      </c>
+      <c r="B212" t="s">
         <v>490</v>
-      </c>
-      <c r="B212" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
+        <v>492</v>
+      </c>
+      <c r="B213" t="s">
         <v>493</v>
-      </c>
-      <c r="B213" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
+        <v>494</v>
+      </c>
+      <c r="B214" t="s">
         <v>495</v>
-      </c>
-      <c r="B214" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
+        <v>497</v>
+      </c>
+      <c r="B215" t="s">
         <v>498</v>
-      </c>
-      <c r="B215" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
+        <v>500</v>
+      </c>
+      <c r="B216" t="s">
         <v>501</v>
-      </c>
-      <c r="B216" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
+        <v>503</v>
+      </c>
+      <c r="B217" t="s">
         <v>504</v>
-      </c>
-      <c r="B217" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
+        <v>667</v>
+      </c>
+      <c r="B218" t="s">
         <v>668</v>
-      </c>
-      <c r="B218" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
+        <v>669</v>
+      </c>
+      <c r="B219" t="s">
         <v>670</v>
-      </c>
-      <c r="B219" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
+        <v>671</v>
+      </c>
+      <c r="B220" t="s">
         <v>672</v>
-      </c>
-      <c r="B220" t="s">
-        <v>673</v>
       </c>
     </row>
   </sheetData>

--- a/data/pez-katedry_I.xlsx
+++ b/data/pez-katedry_I.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dendo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAB7F61F-57AE-4405-9F2B-2CF64BE6D3F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8BCEEB0-2EF0-4447-B396-9B8E17D4D576}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2733" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2666" uniqueCount="673">
   <si>
     <t>Název EIZ</t>
   </si>
@@ -2484,8 +2484,8 @@
   <dimension ref="A1:Y156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B127" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B154" sqref="B154"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E77" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="F104" sqref="F104:Y104"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -4159,66 +4159,6 @@
       <c r="D46" t="s">
         <v>27</v>
       </c>
-      <c r="F46" t="s">
-        <v>28</v>
-      </c>
-      <c r="G46" t="s">
-        <v>28</v>
-      </c>
-      <c r="H46" t="s">
-        <v>28</v>
-      </c>
-      <c r="I46" t="s">
-        <v>28</v>
-      </c>
-      <c r="J46" t="s">
-        <v>28</v>
-      </c>
-      <c r="K46" t="s">
-        <v>28</v>
-      </c>
-      <c r="L46" t="s">
-        <v>28</v>
-      </c>
-      <c r="M46" t="s">
-        <v>28</v>
-      </c>
-      <c r="N46" t="s">
-        <v>28</v>
-      </c>
-      <c r="O46" t="s">
-        <v>28</v>
-      </c>
-      <c r="P46" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>28</v>
-      </c>
-      <c r="R46" t="s">
-        <v>28</v>
-      </c>
-      <c r="S46" t="s">
-        <v>28</v>
-      </c>
-      <c r="T46" t="s">
-        <v>28</v>
-      </c>
-      <c r="U46" t="s">
-        <v>28</v>
-      </c>
-      <c r="V46" t="s">
-        <v>28</v>
-      </c>
-      <c r="W46" t="s">
-        <v>28</v>
-      </c>
-      <c r="X46" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="47" spans="1:25">
       <c r="A47" s="2" t="s">
@@ -4233,66 +4173,6 @@
       <c r="D47" t="s">
         <v>27</v>
       </c>
-      <c r="F47" t="s">
-        <v>28</v>
-      </c>
-      <c r="G47" t="s">
-        <v>28</v>
-      </c>
-      <c r="H47" t="s">
-        <v>28</v>
-      </c>
-      <c r="I47" t="s">
-        <v>28</v>
-      </c>
-      <c r="J47" t="s">
-        <v>28</v>
-      </c>
-      <c r="K47" t="s">
-        <v>28</v>
-      </c>
-      <c r="L47" t="s">
-        <v>28</v>
-      </c>
-      <c r="M47" t="s">
-        <v>28</v>
-      </c>
-      <c r="N47" t="s">
-        <v>28</v>
-      </c>
-      <c r="O47" t="s">
-        <v>28</v>
-      </c>
-      <c r="P47" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>28</v>
-      </c>
-      <c r="R47" t="s">
-        <v>28</v>
-      </c>
-      <c r="S47" t="s">
-        <v>28</v>
-      </c>
-      <c r="T47" t="s">
-        <v>28</v>
-      </c>
-      <c r="U47" t="s">
-        <v>28</v>
-      </c>
-      <c r="V47" t="s">
-        <v>28</v>
-      </c>
-      <c r="W47" t="s">
-        <v>28</v>
-      </c>
-      <c r="X47" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="48" spans="1:25">
       <c r="A48" s="2" t="s">
@@ -4451,27 +4331,6 @@
       <c r="D51" t="s">
         <v>27</v>
       </c>
-      <c r="F51" t="s">
-        <v>28</v>
-      </c>
-      <c r="H51" t="s">
-        <v>28</v>
-      </c>
-      <c r="K51" t="s">
-        <v>28</v>
-      </c>
-      <c r="O51" t="s">
-        <v>28</v>
-      </c>
-      <c r="P51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>28</v>
-      </c>
-      <c r="S51" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="52" spans="1:25">
       <c r="A52" s="2" t="s">
@@ -6788,66 +6647,6 @@
       </c>
       <c r="E104" t="s">
         <v>345</v>
-      </c>
-      <c r="F104" t="s">
-        <v>28</v>
-      </c>
-      <c r="G104" t="s">
-        <v>28</v>
-      </c>
-      <c r="H104" t="s">
-        <v>28</v>
-      </c>
-      <c r="I104" t="s">
-        <v>28</v>
-      </c>
-      <c r="J104" t="s">
-        <v>28</v>
-      </c>
-      <c r="K104" t="s">
-        <v>28</v>
-      </c>
-      <c r="L104" t="s">
-        <v>28</v>
-      </c>
-      <c r="M104" t="s">
-        <v>28</v>
-      </c>
-      <c r="N104" t="s">
-        <v>28</v>
-      </c>
-      <c r="O104" t="s">
-        <v>28</v>
-      </c>
-      <c r="P104" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q104" t="s">
-        <v>28</v>
-      </c>
-      <c r="R104" t="s">
-        <v>28</v>
-      </c>
-      <c r="S104" t="s">
-        <v>28</v>
-      </c>
-      <c r="T104" t="s">
-        <v>28</v>
-      </c>
-      <c r="U104" t="s">
-        <v>28</v>
-      </c>
-      <c r="V104" t="s">
-        <v>28</v>
-      </c>
-      <c r="W104" t="s">
-        <v>28</v>
-      </c>
-      <c r="X104" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y104" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="105" spans="1:25">
@@ -11710,21 +11509,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010027AB162C77806142879CF42993C03AB7" ma:contentTypeVersion="15" ma:contentTypeDescription="Vytvoří nový dokument" ma:contentTypeScope="" ma:versionID="0fd8035d9306821e4a81ca99c4f89ccd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7f50c9d8-a752-4225-ae80-8200403cb6f4" xmlns:ns3="4a166712-586c-4573-8e1c-d8a76dcaec52" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="38e0236d02ca4fb4839d1b80e951ef45" ns2:_="" ns3:_="">
     <xsd:import namespace="7f50c9d8-a752-4225-ae80-8200403cb6f4"/>
@@ -11941,8 +11725,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{864782F5-D968-43EB-BC33-7AF1E4AF8284}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F705B8CB-2F83-4147-B21E-D1CC59ED4F79}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11950,5 +11749,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F705B8CB-2F83-4147-B21E-D1CC59ED4F79}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{864782F5-D968-43EB-BC33-7AF1E4AF8284}"/>
 </file>
--- a/data/pez-katedry_I.xlsx
+++ b/data/pez-katedry_I.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dendo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEB8C0C9-10B4-4268-9E07-198C97BD213A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B3AF2B2-1146-47CE-ABDD-55663C9214EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2543" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2550" uniqueCount="702">
   <si>
     <t>Název EIZ</t>
   </si>
@@ -116,7 +116,7 @@
     <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=214</t>
   </si>
   <si>
-    <t>Statisíce dokumentů z Archivu výtvarného umění</t>
+    <t>Statisíce dokumentů z Archivu výtvarného umění.</t>
   </si>
   <si>
     <t>Volně dostupný zdroj</t>
@@ -131,7 +131,7 @@
     <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=215</t>
   </si>
   <si>
-    <t>Multioborová fulltextová databáze e-časopisů</t>
+    <t>Multioborová fulltextová databáze e-časopisů.</t>
   </si>
   <si>
     <t>Licencovaný zdroj</t>
@@ -146,7 +146,7 @@
     <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=216</t>
   </si>
   <si>
-    <t>Digitální knihovna časopisů a sborníků z počítačové vědy</t>
+    <t>Fulltextová digitální knihovna e-časopisů a sborníků z počítačové vědy vydaných nakladatelstvím Association for Computing Machinery.</t>
   </si>
   <si>
     <t xml:space="preserve">American Chemical Society </t>
@@ -155,7 +155,7 @@
     <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=217</t>
   </si>
   <si>
-    <t>Fulltextová databáze z oblasti chemie, biologie, technologie, enviromentalistiky</t>
+    <t>Fulltextová databáze z oblasti chemie (chemický průmysl, lékařská chemie atd.), technologie, enviromentalistiky atd.</t>
   </si>
   <si>
     <t>American Association for Cancer Research Publications</t>
@@ -164,7 +164,7 @@
     <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=218</t>
   </si>
   <si>
-    <t>Databáze obsahující výzkumy zameřené na rakovinu</t>
+    <t>Databáze obsahující výzkumy zameřené na rakovinu.</t>
   </si>
   <si>
     <t>American Institute of Physics – Complete</t>
@@ -173,7 +173,7 @@
     <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=219</t>
   </si>
   <si>
-    <t>Fulltextová databáze e-časopisů z oblasti fyziky, biologie, chemie, technologie</t>
+    <t>Fulltextová databáze e-časopisů z oblasti fyziky, biologie, chemie, technologie atd.</t>
   </si>
   <si>
     <t>American Mathematical Society Journals</t>
@@ -203,7 +203,7 @@
     <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=222</t>
   </si>
   <si>
-    <t xml:space="preserve">Kolekce e-časopisů z oblasti meteorologie </t>
+    <t>Kolekce e-časopisů z oblasti meteorologie.</t>
   </si>
   <si>
     <t>Annual Reviews</t>
@@ -212,7 +212,7 @@
     <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=223</t>
   </si>
   <si>
-    <t>Multioborová fulltextová databáze</t>
+    <t>Multioborová fulltextová databáze.</t>
   </si>
   <si>
     <t>Anopress</t>
@@ -221,7 +221,7 @@
     <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=224</t>
   </si>
   <si>
-    <t>Fulltextová databáze textů z českých médií</t>
+    <t>Fulltextová databáze textů z českých médií.</t>
   </si>
   <si>
     <t>Artstor Digital Library</t>
@@ -230,7 +230,7 @@
     <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=870</t>
   </si>
   <si>
-    <t>Volně přístupné obrázky, videa, dokumenty a audio nahrávky</t>
+    <t>Volně přístupné obrázky, videa, dokumenty a audio nahrávky.</t>
   </si>
   <si>
     <t>arXiv</t>
@@ -776,6 +776,15 @@
     <t>Platforma OVID. Vzdálený přístup mi nefungoval</t>
   </si>
   <si>
+    <t>Fakta o klimatu</t>
+  </si>
+  <si>
+    <t>https://faktaoklimatu.cz/</t>
+  </si>
+  <si>
+    <t>Vizuálně zpracované vědecké informace týkajících se klimatu založené na aktuálních a ověřených datech.</t>
+  </si>
+  <si>
     <t>Flexibooks - Interaktivní učebnice Fraus</t>
   </si>
   <si>
@@ -1425,9 +1434,6 @@
   </si>
   <si>
     <t>https://ezdroje.cuni.cz/prehled/zdroj.php?lang=cs&amp;id=208</t>
-  </si>
-  <si>
-    <t>Multioborová fulltextová databáze e-časopisů.</t>
   </si>
   <si>
     <t>Teacher Reference Center (TRC)</t>
@@ -2142,7 +2148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2175,12 +2181,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <charset val="1"/>
     </font>
@@ -2191,7 +2191,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2207,12 +2207,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2246,7 +2240,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -2261,21 +2255,20 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -2592,11 +2585,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BL149"/>
+  <dimension ref="A1:BL150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="E147" sqref="E147"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B129" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11:B150"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -2689,7 +2682,7 @@
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C2" t="s">
@@ -2710,7 +2703,7 @@
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C3" t="s">
@@ -2760,7 +2753,7 @@
       <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C4" t="s">
@@ -2769,34 +2762,34 @@
       <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C5" t="s">
@@ -2819,7 +2812,7 @@
       <c r="A6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C6" t="s">
@@ -2828,34 +2821,34 @@
       <c r="D6" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
     </row>
     <row r="7" spans="1:25" ht="25.5">
       <c r="A7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C7" t="s">
@@ -2864,38 +2857,38 @@
       <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="P7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
     </row>
     <row r="8" spans="1:25" ht="25.5">
       <c r="A8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C8" t="s">
@@ -2904,34 +2897,34 @@
       <c r="D8" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
     </row>
     <row r="9" spans="1:25" ht="25.5">
       <c r="A9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C9" t="s">
@@ -2948,7 +2941,7 @@
       <c r="A10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C10" t="s">
@@ -2957,34 +2950,34 @@
       <c r="D10" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C11" t="s">
@@ -2993,64 +2986,64 @@
       <c r="D11" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="P11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="R11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="S11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="V11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y11" s="14"/>
+      <c r="F11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="V11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y11" s="12"/>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C12" t="s">
@@ -3124,7 +3117,7 @@
       <c r="A13" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C13" t="s">
@@ -3147,7 +3140,7 @@
       <c r="A14" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="8" t="s">
         <v>66</v>
       </c>
       <c r="C14" t="s">
@@ -3176,7 +3169,7 @@
       <c r="A15" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C15" t="s">
@@ -3196,7 +3189,7 @@
       <c r="A16" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="8" t="s">
         <v>73</v>
       </c>
       <c r="C16" t="s">
@@ -3213,7 +3206,7 @@
       <c r="A17" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C17" t="s">
@@ -3230,7 +3223,7 @@
       <c r="A18" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C18" t="s">
@@ -3247,7 +3240,7 @@
       <c r="A19" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="8" t="s">
         <v>82</v>
       </c>
       <c r="C19" t="s">
@@ -3279,7 +3272,7 @@
       <c r="A20" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="8" t="s">
         <v>86</v>
       </c>
       <c r="C20" t="s">
@@ -3305,7 +3298,7 @@
       <c r="A21" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="8" t="s">
         <v>89</v>
       </c>
       <c r="C21" t="s">
@@ -3328,7 +3321,7 @@
       <c r="A22" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="8" t="s">
         <v>93</v>
       </c>
       <c r="C22" t="s">
@@ -3375,7 +3368,7 @@
       <c r="A23" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C23" t="s">
@@ -3398,7 +3391,7 @@
       <c r="A24" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="8" t="s">
         <v>99</v>
       </c>
       <c r="C24" t="s">
@@ -3427,7 +3420,7 @@
       <c r="A25" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="8" t="s">
         <v>102</v>
       </c>
       <c r="C25" t="s">
@@ -3459,7 +3452,7 @@
       <c r="A26" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="8" t="s">
         <v>105</v>
       </c>
       <c r="C26" t="s">
@@ -3485,7 +3478,7 @@
       <c r="A27" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="8" t="s">
         <v>108</v>
       </c>
       <c r="C27" t="s">
@@ -3559,7 +3552,7 @@
       <c r="A28" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="8" t="s">
         <v>111</v>
       </c>
       <c r="C28" t="s">
@@ -3585,7 +3578,7 @@
       <c r="A29" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="8" t="s">
         <v>114</v>
       </c>
       <c r="C29" t="s">
@@ -3629,7 +3622,7 @@
       <c r="A30" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="8" t="s">
         <v>117</v>
       </c>
       <c r="C30" t="s">
@@ -3703,7 +3696,7 @@
       <c r="A31" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="8" t="s">
         <v>120</v>
       </c>
       <c r="C31" t="s">
@@ -3765,7 +3758,7 @@
       <c r="A32" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="8" t="s">
         <v>123</v>
       </c>
       <c r="C32" t="s">
@@ -3827,7 +3820,7 @@
       <c r="A33" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="8" t="s">
         <v>126</v>
       </c>
       <c r="C33" t="s">
@@ -3901,7 +3894,7 @@
       <c r="A34" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="8" t="s">
         <v>129</v>
       </c>
       <c r="C34" t="s">
@@ -3975,7 +3968,7 @@
       <c r="A35" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="8" t="s">
         <v>132</v>
       </c>
       <c r="C35" t="s">
@@ -3992,7 +3985,7 @@
       <c r="A36" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="8" t="s">
         <v>135</v>
       </c>
       <c r="C36" t="s">
@@ -4009,7 +4002,7 @@
       <c r="A37" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="8" t="s">
         <v>138</v>
       </c>
       <c r="C37" t="s">
@@ -4083,7 +4076,7 @@
       <c r="A38" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="8" t="s">
         <v>141</v>
       </c>
       <c r="C38" t="s">
@@ -4103,17 +4096,16 @@
       </c>
     </row>
     <row r="39" spans="1:25">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="8" t="s">
+      <c r="D39" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" t="s">
         <v>145</v>
       </c>
     </row>
@@ -4121,7 +4113,7 @@
       <c r="A40" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="8" t="s">
         <v>147</v>
       </c>
       <c r="C40" t="s">
@@ -4165,7 +4157,7 @@
       <c r="A41" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="8" t="s">
         <v>151</v>
       </c>
       <c r="C41" t="s">
@@ -4212,7 +4204,7 @@
       <c r="A42" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="8" t="s">
         <v>155</v>
       </c>
       <c r="C42" t="s">
@@ -4229,7 +4221,7 @@
       <c r="A43" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="8" t="s">
         <v>158</v>
       </c>
       <c r="C43" t="s">
@@ -4297,7 +4289,7 @@
       <c r="A44" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="8" t="s">
         <v>161</v>
       </c>
       <c r="C44" t="s">
@@ -4306,7 +4298,7 @@
       <c r="D44" t="s">
         <v>27</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="16" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4314,7 +4306,7 @@
       <c r="A45" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="8" t="s">
         <v>165</v>
       </c>
       <c r="C45" t="s">
@@ -4328,7 +4320,7 @@
       <c r="A46" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="8" t="s">
         <v>168</v>
       </c>
       <c r="C46" t="s">
@@ -4402,7 +4394,7 @@
       <c r="A47" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="8" t="s">
         <v>171</v>
       </c>
       <c r="C47" t="s">
@@ -4419,7 +4411,7 @@
       <c r="A48" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="8" t="s">
         <v>175</v>
       </c>
       <c r="C48" t="s">
@@ -4466,7 +4458,7 @@
       <c r="A49" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="8" t="s">
         <v>178</v>
       </c>
       <c r="C49" t="s">
@@ -4540,7 +4532,7 @@
       <c r="A50" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="8" t="s">
         <v>180</v>
       </c>
       <c r="C50" t="s">
@@ -4614,7 +4606,7 @@
       <c r="A51" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="8" t="s">
         <v>183</v>
       </c>
       <c r="C51" t="s">
@@ -4640,7 +4632,7 @@
       <c r="A52" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="8" t="s">
         <v>186</v>
       </c>
       <c r="C52" t="s">
@@ -4714,7 +4706,7 @@
       <c r="A53" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="8" t="s">
         <v>189</v>
       </c>
       <c r="C53" t="s">
@@ -4755,7 +4747,7 @@
       <c r="A54" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="8" t="s">
         <v>192</v>
       </c>
       <c r="C54" t="s">
@@ -4793,7 +4785,7 @@
       <c r="A55" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="8" t="s">
         <v>195</v>
       </c>
       <c r="C55" t="s">
@@ -4849,7 +4841,7 @@
       <c r="A56" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="8" t="s">
         <v>198</v>
       </c>
       <c r="C56" t="s">
@@ -4923,7 +4915,7 @@
       <c r="A57" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="8" t="s">
         <v>201</v>
       </c>
       <c r="C57" t="s">
@@ -4997,7 +4989,7 @@
       <c r="A58" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="8" t="s">
         <v>204</v>
       </c>
       <c r="C58" t="s">
@@ -5071,7 +5063,7 @@
       <c r="A59" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="8" t="s">
         <v>206</v>
       </c>
       <c r="C59" t="s">
@@ -5145,7 +5137,7 @@
       <c r="A60" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="8" t="s">
         <v>209</v>
       </c>
       <c r="C60" t="s">
@@ -5165,7 +5157,7 @@
       <c r="A61" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="8" t="s">
         <v>212</v>
       </c>
       <c r="C61" t="s">
@@ -5182,7 +5174,7 @@
       <c r="A62" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="8" t="s">
         <v>215</v>
       </c>
       <c r="C62" t="s">
@@ -5191,7 +5183,7 @@
       <c r="D62" t="s">
         <v>32</v>
       </c>
-      <c r="E62" s="13" t="s">
+      <c r="E62" s="11" t="s">
         <v>217</v>
       </c>
       <c r="F62" t="s">
@@ -5211,7 +5203,7 @@
       <c r="A63" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="8" t="s">
         <v>219</v>
       </c>
       <c r="C63" t="s">
@@ -5234,7 +5226,7 @@
       <c r="A64" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="8" t="s">
         <v>223</v>
       </c>
       <c r="C64" t="s">
@@ -5308,7 +5300,7 @@
       <c r="A65" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="8" t="s">
         <v>226</v>
       </c>
       <c r="C65" t="s">
@@ -5364,7 +5356,7 @@
       <c r="A66" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="8" t="s">
         <v>229</v>
       </c>
       <c r="C66" t="s">
@@ -5373,7 +5365,7 @@
       <c r="D66" t="s">
         <v>32</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="13" t="s">
         <v>231</v>
       </c>
       <c r="F66" t="s">
@@ -5426,7 +5418,7 @@
       <c r="A67" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="8" t="s">
         <v>233</v>
       </c>
       <c r="C67" t="s">
@@ -5455,7 +5447,7 @@
       <c r="A68" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="8" t="s">
         <v>237</v>
       </c>
       <c r="C68" t="s">
@@ -5478,7 +5470,7 @@
       <c r="A69" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="8" t="s">
         <v>240</v>
       </c>
       <c r="C69" t="s">
@@ -5513,7 +5505,7 @@
       <c r="A70" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B70" s="12" t="s">
+      <c r="B70" s="8" t="s">
         <v>243</v>
       </c>
       <c r="C70" t="s">
@@ -5533,70 +5525,19 @@
       </c>
     </row>
     <row r="71" spans="1:25">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="8" t="s">
         <v>247</v>
       </c>
       <c r="C71" t="s">
         <v>248</v>
       </c>
       <c r="D71" t="s">
-        <v>32</v>
-      </c>
-      <c r="F71" t="s">
-        <v>28</v>
-      </c>
-      <c r="G71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H71" t="s">
-        <v>28</v>
-      </c>
-      <c r="I71" t="s">
-        <v>28</v>
-      </c>
-      <c r="J71" t="s">
-        <v>28</v>
-      </c>
-      <c r="K71" t="s">
-        <v>28</v>
-      </c>
-      <c r="L71" t="s">
-        <v>28</v>
-      </c>
-      <c r="M71" t="s">
-        <v>28</v>
-      </c>
-      <c r="N71" t="s">
-        <v>28</v>
-      </c>
-      <c r="O71" t="s">
-        <v>28</v>
-      </c>
-      <c r="P71" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>28</v>
-      </c>
-      <c r="R71" t="s">
-        <v>28</v>
-      </c>
-      <c r="S71" t="s">
-        <v>28</v>
-      </c>
-      <c r="T71" t="s">
-        <v>28</v>
-      </c>
-      <c r="U71" t="s">
-        <v>28</v>
-      </c>
-      <c r="V71" t="s">
-        <v>28</v>
-      </c>
-      <c r="X71" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5604,7 +5545,7 @@
       <c r="A72" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B72" s="12" t="s">
+      <c r="B72" s="8" t="s">
         <v>250</v>
       </c>
       <c r="C72" t="s">
@@ -5613,22 +5554,64 @@
       <c r="D72" t="s">
         <v>32</v>
       </c>
+      <c r="F72" t="s">
+        <v>28</v>
+      </c>
       <c r="G72" t="s">
         <v>28</v>
       </c>
+      <c r="H72" t="s">
+        <v>28</v>
+      </c>
       <c r="I72" t="s">
         <v>28</v>
       </c>
       <c r="J72" t="s">
         <v>28</v>
       </c>
+      <c r="K72" t="s">
+        <v>28</v>
+      </c>
       <c r="L72" t="s">
         <v>28</v>
       </c>
       <c r="M72" t="s">
         <v>28</v>
       </c>
+      <c r="N72" t="s">
+        <v>28</v>
+      </c>
+      <c r="O72" t="s">
+        <v>28</v>
+      </c>
+      <c r="P72" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>28</v>
+      </c>
       <c r="R72" t="s">
+        <v>28</v>
+      </c>
+      <c r="S72" t="s">
+        <v>28</v>
+      </c>
+      <c r="T72" t="s">
+        <v>28</v>
+      </c>
+      <c r="U72" t="s">
+        <v>28</v>
+      </c>
+      <c r="V72" t="s">
+        <v>28</v>
+      </c>
+      <c r="W72" t="s">
+        <v>28</v>
+      </c>
+      <c r="X72" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y72" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5636,7 +5619,7 @@
       <c r="A73" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="8" t="s">
         <v>253</v>
       </c>
       <c r="C73" t="s">
@@ -5645,135 +5628,141 @@
       <c r="D73" t="s">
         <v>32</v>
       </c>
-      <c r="E73" t="s">
-        <v>255</v>
-      </c>
-      <c r="F73" t="s">
-        <v>28</v>
-      </c>
       <c r="G73" t="s">
         <v>28</v>
       </c>
-      <c r="H73" t="s">
-        <v>28</v>
-      </c>
       <c r="I73" t="s">
         <v>28</v>
       </c>
       <c r="J73" t="s">
         <v>28</v>
       </c>
-      <c r="K73" t="s">
-        <v>28</v>
-      </c>
       <c r="L73" t="s">
         <v>28</v>
       </c>
       <c r="M73" t="s">
         <v>28</v>
       </c>
-      <c r="N73" t="s">
-        <v>28</v>
-      </c>
-      <c r="O73" t="s">
-        <v>28</v>
-      </c>
-      <c r="P73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>28</v>
-      </c>
       <c r="R73" t="s">
-        <v>28</v>
-      </c>
-      <c r="S73" t="s">
-        <v>28</v>
-      </c>
-      <c r="T73" t="s">
-        <v>28</v>
-      </c>
-      <c r="U73" t="s">
-        <v>28</v>
-      </c>
-      <c r="V73" t="s">
-        <v>28</v>
-      </c>
-      <c r="W73" t="s">
-        <v>28</v>
-      </c>
-      <c r="X73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y73" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:25">
       <c r="A74" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B74" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="B74" s="12" t="s">
+      <c r="C74" t="s">
         <v>257</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
+        <v>32</v>
+      </c>
+      <c r="E74" t="s">
         <v>258</v>
       </c>
-      <c r="D74" t="s">
-        <v>27</v>
-      </c>
-      <c r="E74" t="s">
-        <v>52</v>
+      <c r="F74" t="s">
+        <v>28</v>
+      </c>
+      <c r="G74" t="s">
+        <v>28</v>
+      </c>
+      <c r="H74" t="s">
+        <v>28</v>
+      </c>
+      <c r="I74" t="s">
+        <v>28</v>
+      </c>
+      <c r="J74" t="s">
+        <v>28</v>
+      </c>
+      <c r="K74" t="s">
+        <v>28</v>
+      </c>
+      <c r="L74" t="s">
+        <v>28</v>
+      </c>
+      <c r="M74" t="s">
+        <v>28</v>
+      </c>
+      <c r="N74" t="s">
+        <v>28</v>
+      </c>
+      <c r="O74" t="s">
+        <v>28</v>
+      </c>
+      <c r="P74" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>28</v>
+      </c>
+      <c r="R74" t="s">
+        <v>28</v>
+      </c>
+      <c r="S74" t="s">
+        <v>28</v>
+      </c>
+      <c r="T74" t="s">
+        <v>28</v>
+      </c>
+      <c r="U74" t="s">
+        <v>28</v>
+      </c>
+      <c r="V74" t="s">
+        <v>28</v>
+      </c>
+      <c r="W74" t="s">
+        <v>28</v>
+      </c>
+      <c r="X74" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:25">
       <c r="A75" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B75" s="12" t="s">
+      <c r="B75" s="8" t="s">
         <v>260</v>
       </c>
       <c r="C75" t="s">
         <v>261</v>
       </c>
       <c r="D75" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E75" t="s">
-        <v>262</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" spans="1:25">
       <c r="A76" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B76" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="B76" s="12" t="s">
+      <c r="C76" t="s">
         <v>264</v>
-      </c>
-      <c r="C76" t="s">
-        <v>265</v>
       </c>
       <c r="D76" t="s">
         <v>32</v>
       </c>
-      <c r="G76" t="s">
-        <v>28</v>
-      </c>
-      <c r="H76" t="s">
-        <v>28</v>
-      </c>
-      <c r="O76" t="s">
-        <v>28</v>
-      </c>
-      <c r="V76" t="s">
-        <v>28</v>
+      <c r="E76" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="77" spans="1:25">
       <c r="A77" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="8" t="s">
         <v>267</v>
       </c>
       <c r="C77" t="s">
@@ -5782,64 +5771,16 @@
       <c r="D77" t="s">
         <v>32</v>
       </c>
-      <c r="F77" t="s">
-        <v>28</v>
-      </c>
       <c r="G77" t="s">
         <v>28</v>
       </c>
       <c r="H77" t="s">
         <v>28</v>
       </c>
-      <c r="I77" t="s">
-        <v>28</v>
-      </c>
-      <c r="J77" t="s">
-        <v>28</v>
-      </c>
-      <c r="K77" t="s">
-        <v>28</v>
-      </c>
-      <c r="L77" t="s">
-        <v>28</v>
-      </c>
-      <c r="M77" t="s">
-        <v>28</v>
-      </c>
-      <c r="N77" t="s">
-        <v>28</v>
-      </c>
       <c r="O77" t="s">
         <v>28</v>
       </c>
-      <c r="P77" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>28</v>
-      </c>
-      <c r="R77" t="s">
-        <v>28</v>
-      </c>
-      <c r="S77" t="s">
-        <v>28</v>
-      </c>
-      <c r="T77" t="s">
-        <v>28</v>
-      </c>
-      <c r="U77" t="s">
-        <v>28</v>
-      </c>
       <c r="V77" t="s">
-        <v>28</v>
-      </c>
-      <c r="W77" t="s">
-        <v>28</v>
-      </c>
-      <c r="X77" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y77" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5847,31 +5788,73 @@
       <c r="A78" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="8" t="s">
         <v>270</v>
       </c>
       <c r="C78" t="s">
         <v>271</v>
       </c>
       <c r="D78" t="s">
-        <v>27</v>
-      </c>
-      <c r="E78" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="F78" t="s">
         <v>28</v>
       </c>
+      <c r="G78" t="s">
+        <v>28</v>
+      </c>
       <c r="H78" t="s">
         <v>28</v>
       </c>
+      <c r="I78" t="s">
+        <v>28</v>
+      </c>
+      <c r="J78" t="s">
+        <v>28</v>
+      </c>
+      <c r="K78" t="s">
+        <v>28</v>
+      </c>
+      <c r="L78" t="s">
+        <v>28</v>
+      </c>
+      <c r="M78" t="s">
+        <v>28</v>
+      </c>
+      <c r="N78" t="s">
+        <v>28</v>
+      </c>
+      <c r="O78" t="s">
+        <v>28</v>
+      </c>
+      <c r="P78" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>28</v>
+      </c>
+      <c r="R78" t="s">
+        <v>28</v>
+      </c>
       <c r="S78" t="s">
         <v>28</v>
       </c>
       <c r="T78" t="s">
         <v>28</v>
       </c>
+      <c r="U78" t="s">
+        <v>28</v>
+      </c>
+      <c r="V78" t="s">
+        <v>28</v>
+      </c>
       <c r="W78" t="s">
+        <v>28</v>
+      </c>
+      <c r="X78" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y78" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5879,70 +5862,31 @@
       <c r="A79" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="B79" s="8" t="s">
         <v>273</v>
       </c>
       <c r="C79" t="s">
         <v>274</v>
       </c>
       <c r="D79" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="E79" t="s">
+        <v>71</v>
       </c>
       <c r="F79" t="s">
         <v>28</v>
       </c>
-      <c r="G79" t="s">
-        <v>28</v>
-      </c>
       <c r="H79" t="s">
         <v>28</v>
       </c>
-      <c r="I79" t="s">
-        <v>28</v>
-      </c>
-      <c r="J79" t="s">
-        <v>28</v>
-      </c>
-      <c r="K79" t="s">
-        <v>28</v>
-      </c>
-      <c r="L79" t="s">
-        <v>28</v>
-      </c>
-      <c r="M79" t="s">
-        <v>28</v>
-      </c>
-      <c r="N79" t="s">
-        <v>28</v>
-      </c>
-      <c r="O79" t="s">
-        <v>28</v>
-      </c>
-      <c r="P79" t="s">
-        <v>28</v>
-      </c>
-      <c r="R79" t="s">
-        <v>28</v>
-      </c>
       <c r="S79" t="s">
         <v>28</v>
       </c>
       <c r="T79" t="s">
         <v>28</v>
       </c>
-      <c r="U79" t="s">
-        <v>28</v>
-      </c>
-      <c r="V79" t="s">
-        <v>28</v>
-      </c>
       <c r="W79" t="s">
-        <v>28</v>
-      </c>
-      <c r="X79" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y79" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5950,14 +5894,14 @@
       <c r="A80" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B80" s="12" t="s">
+      <c r="B80" s="8" t="s">
         <v>276</v>
       </c>
       <c r="C80" t="s">
         <v>277</v>
       </c>
       <c r="D80" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F80" t="s">
         <v>28</v>
@@ -5965,6 +5909,15 @@
       <c r="G80" t="s">
         <v>28</v>
       </c>
+      <c r="H80" t="s">
+        <v>28</v>
+      </c>
+      <c r="I80" t="s">
+        <v>28</v>
+      </c>
+      <c r="J80" t="s">
+        <v>28</v>
+      </c>
       <c r="K80" t="s">
         <v>28</v>
       </c>
@@ -5975,6 +5928,12 @@
         <v>28</v>
       </c>
       <c r="N80" t="s">
+        <v>28</v>
+      </c>
+      <c r="O80" t="s">
+        <v>28</v>
+      </c>
+      <c r="P80" t="s">
         <v>28</v>
       </c>
       <c r="R80" t="s">
@@ -6006,36 +5965,75 @@
       <c r="A81" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="B81" s="8" t="s">
         <v>279</v>
       </c>
       <c r="C81" t="s">
         <v>280</v>
       </c>
       <c r="D81" t="s">
-        <v>32</v>
-      </c>
-      <c r="E81" t="s">
-        <v>281</v>
-      </c>
-      <c r="P81" t="s">
+        <v>27</v>
+      </c>
+      <c r="F81" t="s">
+        <v>28</v>
+      </c>
+      <c r="G81" t="s">
+        <v>28</v>
+      </c>
+      <c r="K81" t="s">
+        <v>28</v>
+      </c>
+      <c r="L81" t="s">
+        <v>28</v>
+      </c>
+      <c r="M81" t="s">
+        <v>28</v>
+      </c>
+      <c r="N81" t="s">
+        <v>28</v>
+      </c>
+      <c r="R81" t="s">
+        <v>28</v>
+      </c>
+      <c r="S81" t="s">
+        <v>28</v>
+      </c>
+      <c r="T81" t="s">
+        <v>28</v>
+      </c>
+      <c r="U81" t="s">
+        <v>28</v>
+      </c>
+      <c r="V81" t="s">
+        <v>28</v>
+      </c>
+      <c r="W81" t="s">
+        <v>28</v>
+      </c>
+      <c r="X81" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y81" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="82" spans="1:64">
       <c r="A82" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B82" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="B82" s="12" t="s">
+      <c r="C82" t="s">
         <v>283</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
+        <v>32</v>
+      </c>
+      <c r="E82" t="s">
         <v>284</v>
       </c>
-      <c r="D82" t="s">
-        <v>27</v>
-      </c>
-      <c r="R82" t="s">
+      <c r="P82" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6043,7 +6041,7 @@
       <c r="A83" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B83" s="12" t="s">
+      <c r="B83" s="8" t="s">
         <v>286</v>
       </c>
       <c r="C83" t="s">
@@ -6052,36 +6050,30 @@
       <c r="D83" t="s">
         <v>27</v>
       </c>
-      <c r="E83" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="H83" t="s">
-        <v>28</v>
-      </c>
-      <c r="P83" t="s">
-        <v>28</v>
-      </c>
-      <c r="S83" t="s">
+      <c r="R83" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:64">
       <c r="A84" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B84" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="B84" s="12" t="s">
+      <c r="C84" t="s">
         <v>290</v>
-      </c>
-      <c r="C84" t="s">
-        <v>291</v>
       </c>
       <c r="D84" t="s">
         <v>27</v>
       </c>
-      <c r="F84" t="s">
-        <v>28</v>
-      </c>
-      <c r="R84" t="s">
+      <c r="E84" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="H84" t="s">
+        <v>28</v>
+      </c>
+      <c r="P84" t="s">
         <v>28</v>
       </c>
       <c r="S84" t="s">
@@ -6092,34 +6084,22 @@
       <c r="A85" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="B85" s="8" t="s">
         <v>293</v>
       </c>
       <c r="C85" t="s">
         <v>294</v>
       </c>
       <c r="D85" t="s">
-        <v>32</v>
-      </c>
-      <c r="G85" t="s">
-        <v>28</v>
-      </c>
-      <c r="I85" t="s">
-        <v>28</v>
-      </c>
-      <c r="J85" t="s">
-        <v>28</v>
-      </c>
-      <c r="L85" t="s">
-        <v>28</v>
-      </c>
-      <c r="M85" t="s">
-        <v>28</v>
-      </c>
-      <c r="N85" t="s">
+        <v>27</v>
+      </c>
+      <c r="F85" t="s">
         <v>28</v>
       </c>
       <c r="R85" t="s">
+        <v>28</v>
+      </c>
+      <c r="S85" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6127,7 +6107,7 @@
       <c r="A86" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="B86" s="8" t="s">
         <v>296</v>
       </c>
       <c r="C86" t="s">
@@ -6136,27 +6116,15 @@
       <c r="D86" t="s">
         <v>32</v>
       </c>
-      <c r="E86" t="s">
-        <v>281</v>
-      </c>
-      <c r="F86" t="s">
-        <v>28</v>
-      </c>
       <c r="G86" t="s">
         <v>28</v>
       </c>
-      <c r="H86" t="s">
-        <v>28</v>
-      </c>
       <c r="I86" t="s">
         <v>28</v>
       </c>
       <c r="J86" t="s">
         <v>28</v>
       </c>
-      <c r="K86" t="s">
-        <v>28</v>
-      </c>
       <c r="L86" t="s">
         <v>28</v>
       </c>
@@ -6166,45 +6134,15 @@
       <c r="N86" t="s">
         <v>28</v>
       </c>
-      <c r="O86" t="s">
-        <v>28</v>
-      </c>
-      <c r="P86" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>28</v>
-      </c>
       <c r="R86" t="s">
         <v>28</v>
       </c>
-      <c r="S86" t="s">
-        <v>28</v>
-      </c>
-      <c r="T86" t="s">
-        <v>28</v>
-      </c>
-      <c r="U86" t="s">
-        <v>28</v>
-      </c>
-      <c r="V86" t="s">
-        <v>28</v>
-      </c>
-      <c r="W86" t="s">
-        <v>28</v>
-      </c>
-      <c r="X86" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y86" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="87" spans="1:64">
-      <c r="A87" s="12" t="s">
+      <c r="A87" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B87" s="12" t="s">
+      <c r="B87" s="8" t="s">
         <v>299</v>
       </c>
       <c r="C87" t="s">
@@ -6213,6 +6151,9 @@
       <c r="D87" t="s">
         <v>32</v>
       </c>
+      <c r="E87" t="s">
+        <v>284</v>
+      </c>
       <c r="F87" t="s">
         <v>28</v>
       </c>
@@ -6240,6 +6181,12 @@
       <c r="N87" t="s">
         <v>28</v>
       </c>
+      <c r="O87" t="s">
+        <v>28</v>
+      </c>
+      <c r="P87" t="s">
+        <v>28</v>
+      </c>
       <c r="Q87" t="s">
         <v>28</v>
       </c>
@@ -6249,18 +6196,30 @@
       <c r="S87" t="s">
         <v>28</v>
       </c>
+      <c r="T87" t="s">
+        <v>28</v>
+      </c>
+      <c r="U87" t="s">
+        <v>28</v>
+      </c>
       <c r="V87" t="s">
         <v>28</v>
       </c>
+      <c r="W87" t="s">
+        <v>28</v>
+      </c>
+      <c r="X87" t="s">
+        <v>28</v>
+      </c>
       <c r="Y87" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="1:64" s="17" customFormat="1">
-      <c r="A88" s="18" t="s">
+    <row r="88" spans="1:64">
+      <c r="A88" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="B88" s="12" t="s">
+      <c r="B88" s="8" t="s">
         <v>302</v>
       </c>
       <c r="C88" t="s">
@@ -6269,76 +6228,54 @@
       <c r="D88" t="s">
         <v>32</v>
       </c>
-      <c r="E88"/>
-      <c r="F88"/>
-      <c r="G88"/>
+      <c r="F88" t="s">
+        <v>28</v>
+      </c>
+      <c r="G88" t="s">
+        <v>28</v>
+      </c>
       <c r="H88" t="s">
         <v>28</v>
       </c>
-      <c r="I88"/>
-      <c r="J88"/>
-      <c r="K88"/>
-      <c r="L88"/>
-      <c r="M88"/>
-      <c r="N88"/>
-      <c r="O88"/>
-      <c r="P88"/>
-      <c r="Q88"/>
-      <c r="R88"/>
-      <c r="S88"/>
-      <c r="T88"/>
-      <c r="U88"/>
-      <c r="V88"/>
-      <c r="W88" t="s">
-        <v>28</v>
-      </c>
-      <c r="X88"/>
-      <c r="Y88"/>
-      <c r="Z88"/>
-      <c r="AA88"/>
-      <c r="AB88"/>
-      <c r="AC88"/>
-      <c r="AD88"/>
-      <c r="AE88"/>
-      <c r="AF88"/>
-      <c r="AG88"/>
-      <c r="AH88"/>
-      <c r="AI88"/>
-      <c r="AJ88"/>
-      <c r="AK88"/>
-      <c r="AL88"/>
-      <c r="AM88"/>
-      <c r="AN88"/>
-      <c r="AO88"/>
-      <c r="AP88"/>
-      <c r="AQ88"/>
-      <c r="AR88"/>
-      <c r="AS88"/>
-      <c r="AT88"/>
-      <c r="AU88"/>
-      <c r="AV88"/>
-      <c r="AW88"/>
-      <c r="AX88"/>
-      <c r="AY88"/>
-      <c r="AZ88"/>
-      <c r="BA88"/>
-      <c r="BB88"/>
-      <c r="BC88"/>
-      <c r="BD88"/>
-      <c r="BE88"/>
-      <c r="BF88"/>
-      <c r="BG88"/>
-      <c r="BH88"/>
-      <c r="BI88"/>
-      <c r="BJ88"/>
-      <c r="BK88"/>
-      <c r="BL88"/>
-    </row>
-    <row r="89" spans="1:64" s="17" customFormat="1">
-      <c r="A89" s="6" t="s">
+      <c r="I88" t="s">
+        <v>28</v>
+      </c>
+      <c r="J88" t="s">
+        <v>28</v>
+      </c>
+      <c r="K88" t="s">
+        <v>28</v>
+      </c>
+      <c r="L88" t="s">
+        <v>28</v>
+      </c>
+      <c r="M88" t="s">
+        <v>28</v>
+      </c>
+      <c r="N88" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>28</v>
+      </c>
+      <c r="R88" t="s">
+        <v>28</v>
+      </c>
+      <c r="S88" t="s">
+        <v>28</v>
+      </c>
+      <c r="V88" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" spans="1:64" s="13" customFormat="1">
+      <c r="A89" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="8" t="s">
         <v>305</v>
       </c>
       <c r="C89" t="s">
@@ -6359,24 +6296,18 @@
       <c r="L89"/>
       <c r="M89"/>
       <c r="N89"/>
-      <c r="O89" t="s">
-        <v>28</v>
-      </c>
+      <c r="O89"/>
       <c r="P89"/>
       <c r="Q89"/>
       <c r="R89"/>
       <c r="S89"/>
-      <c r="T89" t="s">
-        <v>28</v>
-      </c>
+      <c r="T89"/>
       <c r="U89"/>
       <c r="V89"/>
       <c r="W89" t="s">
         <v>28</v>
       </c>
-      <c r="X89" t="s">
-        <v>28</v>
-      </c>
+      <c r="X89"/>
       <c r="Y89"/>
       <c r="Z89"/>
       <c r="AA89"/>
@@ -6418,11 +6349,11 @@
       <c r="BK89"/>
       <c r="BL89"/>
     </row>
-    <row r="90" spans="1:64">
+    <row r="90" spans="1:64" s="13" customFormat="1">
       <c r="A90" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="B90" s="12" t="s">
+      <c r="B90" s="8" t="s">
         <v>308</v>
       </c>
       <c r="C90" t="s">
@@ -6431,36 +6362,100 @@
       <c r="D90" t="s">
         <v>32</v>
       </c>
-      <c r="G90" t="s">
-        <v>28</v>
-      </c>
-      <c r="L90" t="s">
-        <v>28</v>
-      </c>
-      <c r="M90" t="s">
-        <v>28</v>
-      </c>
-      <c r="V90" t="s">
-        <v>28</v>
-      </c>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90" t="s">
+        <v>28</v>
+      </c>
+      <c r="I90"/>
+      <c r="J90"/>
+      <c r="K90"/>
+      <c r="L90"/>
+      <c r="M90"/>
+      <c r="N90"/>
+      <c r="O90" t="s">
+        <v>28</v>
+      </c>
+      <c r="P90"/>
+      <c r="Q90"/>
+      <c r="R90"/>
+      <c r="S90"/>
+      <c r="T90" t="s">
+        <v>28</v>
+      </c>
+      <c r="U90"/>
+      <c r="V90"/>
+      <c r="W90" t="s">
+        <v>28</v>
+      </c>
+      <c r="X90" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y90"/>
+      <c r="Z90"/>
+      <c r="AA90"/>
+      <c r="AB90"/>
+      <c r="AC90"/>
+      <c r="AD90"/>
+      <c r="AE90"/>
+      <c r="AF90"/>
+      <c r="AG90"/>
+      <c r="AH90"/>
+      <c r="AI90"/>
+      <c r="AJ90"/>
+      <c r="AK90"/>
+      <c r="AL90"/>
+      <c r="AM90"/>
+      <c r="AN90"/>
+      <c r="AO90"/>
+      <c r="AP90"/>
+      <c r="AQ90"/>
+      <c r="AR90"/>
+      <c r="AS90"/>
+      <c r="AT90"/>
+      <c r="AU90"/>
+      <c r="AV90"/>
+      <c r="AW90"/>
+      <c r="AX90"/>
+      <c r="AY90"/>
+      <c r="AZ90"/>
+      <c r="BA90"/>
+      <c r="BB90"/>
+      <c r="BC90"/>
+      <c r="BD90"/>
+      <c r="BE90"/>
+      <c r="BF90"/>
+      <c r="BG90"/>
+      <c r="BH90"/>
+      <c r="BI90"/>
+      <c r="BJ90"/>
+      <c r="BK90"/>
+      <c r="BL90"/>
     </row>
     <row r="91" spans="1:64">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="B91" s="12" t="s">
+      <c r="B91" s="8" t="s">
         <v>311</v>
       </c>
       <c r="C91" t="s">
         <v>312</v>
       </c>
       <c r="D91" t="s">
-        <v>27</v>
-      </c>
-      <c r="K91" t="s">
+        <v>32</v>
+      </c>
+      <c r="G91" t="s">
         <v>28</v>
       </c>
       <c r="L91" t="s">
+        <v>28</v>
+      </c>
+      <c r="M91" t="s">
+        <v>28</v>
+      </c>
+      <c r="V91" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6468,76 +6463,19 @@
       <c r="A92" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="8" t="s">
         <v>314</v>
       </c>
       <c r="C92" t="s">
         <v>315</v>
       </c>
       <c r="D92" t="s">
-        <v>32</v>
-      </c>
-      <c r="E92" t="s">
-        <v>71</v>
-      </c>
-      <c r="F92" t="s">
-        <v>28</v>
-      </c>
-      <c r="G92" t="s">
-        <v>28</v>
-      </c>
-      <c r="H92" t="s">
-        <v>28</v>
-      </c>
-      <c r="I92" t="s">
-        <v>28</v>
-      </c>
-      <c r="J92" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K92" t="s">
         <v>28</v>
       </c>
       <c r="L92" t="s">
-        <v>28</v>
-      </c>
-      <c r="M92" t="s">
-        <v>28</v>
-      </c>
-      <c r="N92" t="s">
-        <v>28</v>
-      </c>
-      <c r="O92" t="s">
-        <v>28</v>
-      </c>
-      <c r="P92" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q92" t="s">
-        <v>28</v>
-      </c>
-      <c r="R92" t="s">
-        <v>28</v>
-      </c>
-      <c r="S92" t="s">
-        <v>28</v>
-      </c>
-      <c r="T92" t="s">
-        <v>28</v>
-      </c>
-      <c r="U92" t="s">
-        <v>28</v>
-      </c>
-      <c r="V92" t="s">
-        <v>28</v>
-      </c>
-      <c r="W92" t="s">
-        <v>28</v>
-      </c>
-      <c r="X92" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y92" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6545,14 +6483,14 @@
       <c r="A93" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B93" s="12" t="s">
+      <c r="B93" s="6" t="s">
         <v>317</v>
       </c>
       <c r="C93" t="s">
         <v>318</v>
       </c>
       <c r="D93" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E93" t="s">
         <v>71</v>
@@ -6560,10 +6498,61 @@
       <c r="F93" t="s">
         <v>28</v>
       </c>
+      <c r="G93" t="s">
+        <v>28</v>
+      </c>
+      <c r="H93" t="s">
+        <v>28</v>
+      </c>
+      <c r="I93" t="s">
+        <v>28</v>
+      </c>
+      <c r="J93" t="s">
+        <v>28</v>
+      </c>
+      <c r="K93" t="s">
+        <v>28</v>
+      </c>
+      <c r="L93" t="s">
+        <v>28</v>
+      </c>
+      <c r="M93" t="s">
+        <v>28</v>
+      </c>
+      <c r="N93" t="s">
+        <v>28</v>
+      </c>
+      <c r="O93" t="s">
+        <v>28</v>
+      </c>
       <c r="P93" t="s">
         <v>28</v>
       </c>
+      <c r="Q93" t="s">
+        <v>28</v>
+      </c>
+      <c r="R93" t="s">
+        <v>28</v>
+      </c>
       <c r="S93" t="s">
+        <v>28</v>
+      </c>
+      <c r="T93" t="s">
+        <v>28</v>
+      </c>
+      <c r="U93" t="s">
+        <v>28</v>
+      </c>
+      <c r="V93" t="s">
+        <v>28</v>
+      </c>
+      <c r="W93" t="s">
+        <v>28</v>
+      </c>
+      <c r="X93" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y93" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6571,7 +6560,7 @@
       <c r="A94" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B94" s="12" t="s">
+      <c r="B94" s="8" t="s">
         <v>320</v>
       </c>
       <c r="C94" t="s">
@@ -6580,54 +6569,54 @@
       <c r="D94" t="s">
         <v>27</v>
       </c>
-      <c r="G94" t="s">
-        <v>28</v>
-      </c>
-      <c r="I94" t="s">
-        <v>28</v>
-      </c>
-      <c r="J94" t="s">
-        <v>28</v>
-      </c>
-      <c r="L94" t="s">
-        <v>28</v>
-      </c>
-      <c r="M94" t="s">
+      <c r="E94" t="s">
+        <v>71</v>
+      </c>
+      <c r="F94" t="s">
         <v>28</v>
       </c>
       <c r="P94" t="s">
         <v>28</v>
       </c>
-      <c r="R94" t="s">
-        <v>322</v>
-      </c>
-      <c r="V94" t="s">
+      <c r="S94" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="95" spans="1:64">
       <c r="A95" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B95" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B95" s="12" t="s">
+      <c r="C95" t="s">
         <v>324</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
+        <v>27</v>
+      </c>
+      <c r="G95" t="s">
+        <v>28</v>
+      </c>
+      <c r="I95" t="s">
+        <v>28</v>
+      </c>
+      <c r="J95" t="s">
+        <v>28</v>
+      </c>
+      <c r="L95" t="s">
+        <v>28</v>
+      </c>
+      <c r="M95" t="s">
+        <v>28</v>
+      </c>
+      <c r="P95" t="s">
+        <v>28</v>
+      </c>
+      <c r="R95" t="s">
         <v>325</v>
       </c>
-      <c r="D95" t="s">
-        <v>32</v>
-      </c>
-      <c r="E95" t="s">
-        <v>91</v>
-      </c>
-      <c r="H95" t="s">
-        <v>28</v>
-      </c>
-      <c r="U95" t="s">
-        <v>28</v>
-      </c>
-      <c r="X95" t="s">
+      <c r="V95" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6635,73 +6624,25 @@
       <c r="A96" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B96" s="12" t="s">
+      <c r="B96" s="8" t="s">
         <v>327</v>
       </c>
       <c r="C96" t="s">
         <v>328</v>
       </c>
       <c r="D96" t="s">
-        <v>27</v>
-      </c>
-      <c r="F96" t="s">
-        <v>28</v>
-      </c>
-      <c r="G96" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="E96" t="s">
+        <v>91</v>
       </c>
       <c r="H96" t="s">
         <v>28</v>
       </c>
-      <c r="I96" t="s">
-        <v>28</v>
-      </c>
-      <c r="J96" t="s">
-        <v>28</v>
-      </c>
-      <c r="K96" t="s">
-        <v>28</v>
-      </c>
-      <c r="L96" t="s">
-        <v>28</v>
-      </c>
-      <c r="M96" t="s">
-        <v>28</v>
-      </c>
-      <c r="N96" t="s">
-        <v>28</v>
-      </c>
-      <c r="O96" t="s">
-        <v>28</v>
-      </c>
-      <c r="P96" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>28</v>
-      </c>
-      <c r="R96" t="s">
-        <v>28</v>
-      </c>
-      <c r="S96" t="s">
-        <v>28</v>
-      </c>
-      <c r="T96" t="s">
-        <v>28</v>
-      </c>
       <c r="U96" t="s">
         <v>28</v>
       </c>
-      <c r="V96" t="s">
-        <v>28</v>
-      </c>
-      <c r="W96" t="s">
-        <v>28</v>
-      </c>
       <c r="X96" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y96" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6709,76 +6650,121 @@
       <c r="A97" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B97" s="12" t="s">
+      <c r="B97" s="8" t="s">
         <v>330</v>
       </c>
       <c r="C97" t="s">
         <v>331</v>
       </c>
       <c r="D97" t="s">
-        <v>32</v>
-      </c>
-      <c r="E97" t="s">
-        <v>332</v>
+        <v>27</v>
+      </c>
+      <c r="F97" t="s">
+        <v>28</v>
+      </c>
+      <c r="G97" t="s">
+        <v>28</v>
+      </c>
+      <c r="H97" t="s">
+        <v>28</v>
+      </c>
+      <c r="I97" t="s">
+        <v>28</v>
+      </c>
+      <c r="J97" t="s">
+        <v>28</v>
+      </c>
+      <c r="K97" t="s">
+        <v>28</v>
+      </c>
+      <c r="L97" t="s">
+        <v>28</v>
+      </c>
+      <c r="M97" t="s">
+        <v>28</v>
+      </c>
+      <c r="N97" t="s">
+        <v>28</v>
+      </c>
+      <c r="O97" t="s">
+        <v>28</v>
       </c>
       <c r="P97" t="s">
         <v>28</v>
       </c>
       <c r="Q97" t="s">
+        <v>28</v>
+      </c>
+      <c r="R97" t="s">
+        <v>28</v>
+      </c>
+      <c r="S97" t="s">
+        <v>28</v>
+      </c>
+      <c r="T97" t="s">
+        <v>28</v>
+      </c>
+      <c r="U97" t="s">
+        <v>28</v>
+      </c>
+      <c r="V97" t="s">
+        <v>28</v>
+      </c>
+      <c r="W97" t="s">
+        <v>28</v>
+      </c>
+      <c r="X97" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y97" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="98" spans="1:25">
       <c r="A98" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B98" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="B98" s="12" t="s">
+      <c r="C98" t="s">
         <v>334</v>
-      </c>
-      <c r="C98" t="s">
-        <v>335</v>
       </c>
       <c r="D98" t="s">
         <v>32</v>
       </c>
       <c r="E98" t="s">
-        <v>336</v>
-      </c>
-      <c r="H98" t="s">
-        <v>28</v>
-      </c>
-      <c r="S98" t="s">
-        <v>28</v>
-      </c>
-      <c r="U98" t="s">
-        <v>28</v>
-      </c>
-      <c r="X98" t="s">
+        <v>335</v>
+      </c>
+      <c r="P98" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q98" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="99" spans="1:25">
       <c r="A99" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B99" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="B99" s="12" t="s">
+      <c r="C99" t="s">
         <v>338</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
+        <v>32</v>
+      </c>
+      <c r="E99" t="s">
         <v>339</v>
       </c>
-      <c r="D99" t="s">
-        <v>27</v>
-      </c>
       <c r="H99" t="s">
         <v>28</v>
       </c>
       <c r="S99" t="s">
         <v>28</v>
       </c>
-      <c r="T99" t="s">
-        <v>28</v>
-      </c>
       <c r="U99" t="s">
         <v>28</v>
       </c>
@@ -6787,60 +6773,21 @@
       </c>
     </row>
     <row r="100" spans="1:25">
-      <c r="A100" s="7" t="s">
+      <c r="A100" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="8" t="s">
         <v>341</v>
       </c>
       <c r="C100" t="s">
-        <v>169</v>
+        <v>342</v>
       </c>
       <c r="D100" t="s">
         <v>27</v>
       </c>
-      <c r="E100" t="s">
-        <v>342</v>
-      </c>
-      <c r="F100" t="s">
-        <v>28</v>
-      </c>
-      <c r="G100" t="s">
-        <v>28</v>
-      </c>
       <c r="H100" t="s">
         <v>28</v>
       </c>
-      <c r="I100" t="s">
-        <v>28</v>
-      </c>
-      <c r="J100" t="s">
-        <v>28</v>
-      </c>
-      <c r="K100" t="s">
-        <v>28</v>
-      </c>
-      <c r="L100" t="s">
-        <v>28</v>
-      </c>
-      <c r="M100" t="s">
-        <v>28</v>
-      </c>
-      <c r="N100" t="s">
-        <v>28</v>
-      </c>
-      <c r="O100" t="s">
-        <v>28</v>
-      </c>
-      <c r="P100" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q100" t="s">
-        <v>28</v>
-      </c>
-      <c r="R100" t="s">
-        <v>28</v>
-      </c>
       <c r="S100" t="s">
         <v>28</v>
       </c>
@@ -6850,16 +6797,7 @@
       <c r="U100" t="s">
         <v>28</v>
       </c>
-      <c r="V100" t="s">
-        <v>28</v>
-      </c>
-      <c r="W100" t="s">
-        <v>28</v>
-      </c>
       <c r="X100" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y100" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6867,92 +6805,95 @@
       <c r="A101" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="B101" s="12" t="s">
+      <c r="B101" s="6" t="s">
         <v>344</v>
       </c>
       <c r="C101" t="s">
+        <v>169</v>
+      </c>
+      <c r="D101" t="s">
+        <v>27</v>
+      </c>
+      <c r="E101" t="s">
         <v>345</v>
       </c>
-      <c r="D101" t="s">
+      <c r="F101" t="s">
+        <v>28</v>
+      </c>
+      <c r="G101" t="s">
+        <v>28</v>
+      </c>
+      <c r="H101" t="s">
+        <v>28</v>
+      </c>
+      <c r="I101" t="s">
+        <v>28</v>
+      </c>
+      <c r="J101" t="s">
+        <v>28</v>
+      </c>
+      <c r="K101" t="s">
+        <v>28</v>
+      </c>
+      <c r="L101" t="s">
+        <v>28</v>
+      </c>
+      <c r="M101" t="s">
+        <v>28</v>
+      </c>
+      <c r="N101" t="s">
+        <v>28</v>
+      </c>
+      <c r="O101" t="s">
+        <v>28</v>
+      </c>
+      <c r="P101" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>28</v>
+      </c>
+      <c r="R101" t="s">
+        <v>28</v>
+      </c>
+      <c r="S101" t="s">
+        <v>28</v>
+      </c>
+      <c r="T101" t="s">
+        <v>28</v>
+      </c>
+      <c r="U101" t="s">
+        <v>28</v>
+      </c>
+      <c r="V101" t="s">
+        <v>28</v>
+      </c>
+      <c r="W101" t="s">
+        <v>28</v>
+      </c>
+      <c r="X101" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25">
+      <c r="A102" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="C102" t="s">
+        <v>348</v>
+      </c>
+      <c r="D102" t="s">
         <v>32</v>
       </c>
-      <c r="E101" t="s">
-        <v>346</v>
-      </c>
-      <c r="F101" t="s">
-        <v>28</v>
-      </c>
-      <c r="G101" t="s">
-        <v>28</v>
-      </c>
-      <c r="H101" t="s">
-        <v>28</v>
-      </c>
-      <c r="I101" t="s">
-        <v>28</v>
-      </c>
-      <c r="J101" t="s">
-        <v>28</v>
-      </c>
-      <c r="K101" t="s">
-        <v>28</v>
-      </c>
-      <c r="L101" t="s">
-        <v>28</v>
-      </c>
-      <c r="M101" t="s">
-        <v>28</v>
-      </c>
-      <c r="N101" t="s">
-        <v>28</v>
-      </c>
-      <c r="O101" t="s">
-        <v>28</v>
-      </c>
-      <c r="P101" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q101" t="s">
-        <v>28</v>
-      </c>
-      <c r="R101" t="s">
-        <v>28</v>
-      </c>
-      <c r="S101" t="s">
-        <v>28</v>
-      </c>
-      <c r="T101" t="s">
-        <v>28</v>
-      </c>
-      <c r="U101" t="s">
-        <v>28</v>
-      </c>
-      <c r="V101" t="s">
-        <v>28</v>
-      </c>
-      <c r="W101" t="s">
-        <v>28</v>
-      </c>
-      <c r="X101" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y101" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="102" spans="1:25">
-      <c r="A102" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B102" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="E102" t="s">
         <v>349</v>
       </c>
-      <c r="D102" t="s">
-        <v>27</v>
-      </c>
       <c r="F102" t="s">
         <v>28</v>
       </c>
@@ -6984,6 +6925,9 @@
         <v>28</v>
       </c>
       <c r="P102" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q102" t="s">
         <v>28</v>
       </c>
       <c r="R102" t="s">
@@ -7015,14 +6959,14 @@
       <c r="A103" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B103" s="12" t="s">
+      <c r="B103" s="8" t="s">
         <v>351</v>
       </c>
       <c r="C103" t="s">
         <v>352</v>
       </c>
       <c r="D103" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F103" t="s">
         <v>28</v>
@@ -7055,9 +6999,6 @@
         <v>28</v>
       </c>
       <c r="P103" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q103" t="s">
         <v>28</v>
       </c>
       <c r="R103" t="s">
@@ -7089,22 +7030,73 @@
       <c r="A104" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B104" s="12" t="s">
+      <c r="B104" s="8" t="s">
         <v>354</v>
       </c>
       <c r="C104" t="s">
         <v>355</v>
       </c>
       <c r="D104" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F104" t="s">
         <v>28</v>
       </c>
+      <c r="G104" t="s">
+        <v>28</v>
+      </c>
+      <c r="H104" t="s">
+        <v>28</v>
+      </c>
+      <c r="I104" t="s">
+        <v>28</v>
+      </c>
+      <c r="J104" t="s">
+        <v>28</v>
+      </c>
+      <c r="K104" t="s">
+        <v>28</v>
+      </c>
+      <c r="L104" t="s">
+        <v>28</v>
+      </c>
+      <c r="M104" t="s">
+        <v>28</v>
+      </c>
+      <c r="N104" t="s">
+        <v>28</v>
+      </c>
+      <c r="O104" t="s">
+        <v>28</v>
+      </c>
+      <c r="P104" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>28</v>
+      </c>
       <c r="R104" t="s">
         <v>28</v>
       </c>
       <c r="S104" t="s">
+        <v>28</v>
+      </c>
+      <c r="T104" t="s">
+        <v>28</v>
+      </c>
+      <c r="U104" t="s">
+        <v>28</v>
+      </c>
+      <c r="V104" t="s">
+        <v>28</v>
+      </c>
+      <c r="W104" t="s">
+        <v>28</v>
+      </c>
+      <c r="X104" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y104" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7112,7 +7104,7 @@
       <c r="A105" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B105" s="12" t="s">
+      <c r="B105" s="8" t="s">
         <v>357</v>
       </c>
       <c r="C105" t="s">
@@ -7121,10 +7113,13 @@
       <c r="D105" t="s">
         <v>27</v>
       </c>
-      <c r="M105" t="s">
+      <c r="F105" t="s">
         <v>28</v>
       </c>
       <c r="R105" t="s">
+        <v>28</v>
+      </c>
+      <c r="S105" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7132,7 +7127,7 @@
       <c r="A106" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B106" s="12" t="s">
+      <c r="B106" s="8" t="s">
         <v>360</v>
       </c>
       <c r="C106" t="s">
@@ -7141,64 +7136,10 @@
       <c r="D106" t="s">
         <v>27</v>
       </c>
-      <c r="F106" t="s">
-        <v>28</v>
-      </c>
-      <c r="G106" t="s">
-        <v>28</v>
-      </c>
-      <c r="H106" t="s">
-        <v>28</v>
-      </c>
-      <c r="I106" t="s">
-        <v>28</v>
-      </c>
-      <c r="J106" t="s">
-        <v>28</v>
-      </c>
-      <c r="K106" t="s">
-        <v>28</v>
-      </c>
-      <c r="L106" t="s">
-        <v>28</v>
-      </c>
       <c r="M106" t="s">
         <v>28</v>
       </c>
-      <c r="N106" t="s">
-        <v>28</v>
-      </c>
-      <c r="O106" t="s">
-        <v>28</v>
-      </c>
-      <c r="P106" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q106" t="s">
-        <v>28</v>
-      </c>
       <c r="R106" t="s">
-        <v>28</v>
-      </c>
-      <c r="S106" t="s">
-        <v>28</v>
-      </c>
-      <c r="T106" t="s">
-        <v>28</v>
-      </c>
-      <c r="U106" t="s">
-        <v>28</v>
-      </c>
-      <c r="V106" t="s">
-        <v>28</v>
-      </c>
-      <c r="W106" t="s">
-        <v>28</v>
-      </c>
-      <c r="X106" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y106" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7206,14 +7147,14 @@
       <c r="A107" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B107" s="12" t="s">
+      <c r="B107" s="8" t="s">
         <v>363</v>
       </c>
       <c r="C107" t="s">
         <v>364</v>
       </c>
       <c r="D107" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F107" t="s">
         <v>28</v>
@@ -7280,14 +7221,14 @@
       <c r="A108" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B108" s="12" t="s">
+      <c r="B108" s="8" t="s">
         <v>366</v>
       </c>
       <c r="C108" t="s">
         <v>367</v>
       </c>
       <c r="D108" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F108" t="s">
         <v>28</v>
@@ -7354,14 +7295,14 @@
       <c r="A109" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B109" s="12" t="s">
+      <c r="B109" s="8" t="s">
         <v>369</v>
       </c>
       <c r="C109" t="s">
         <v>370</v>
       </c>
       <c r="D109" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F109" t="s">
         <v>28</v>
@@ -7372,6 +7313,12 @@
       <c r="H109" t="s">
         <v>28</v>
       </c>
+      <c r="I109" t="s">
+        <v>28</v>
+      </c>
+      <c r="J109" t="s">
+        <v>28</v>
+      </c>
       <c r="K109" t="s">
         <v>28</v>
       </c>
@@ -7384,6 +7331,15 @@
       <c r="N109" t="s">
         <v>28</v>
       </c>
+      <c r="O109" t="s">
+        <v>28</v>
+      </c>
+      <c r="P109" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>28</v>
+      </c>
       <c r="R109" t="s">
         <v>28</v>
       </c>
@@ -7394,6 +7350,9 @@
         <v>28</v>
       </c>
       <c r="U109" t="s">
+        <v>28</v>
+      </c>
+      <c r="V109" t="s">
         <v>28</v>
       </c>
       <c r="W109" t="s">
@@ -7410,7 +7369,7 @@
       <c r="A110" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B110" s="12" t="s">
+      <c r="B110" s="8" t="s">
         <v>372</v>
       </c>
       <c r="C110" t="s">
@@ -7419,9 +7378,6 @@
       <c r="D110" t="s">
         <v>32</v>
       </c>
-      <c r="E110" t="s">
-        <v>374</v>
-      </c>
       <c r="F110" t="s">
         <v>28</v>
       </c>
@@ -7431,12 +7387,6 @@
       <c r="H110" t="s">
         <v>28</v>
       </c>
-      <c r="I110" t="s">
-        <v>28</v>
-      </c>
-      <c r="J110" t="s">
-        <v>28</v>
-      </c>
       <c r="K110" t="s">
         <v>28</v>
       </c>
@@ -7449,15 +7399,6 @@
       <c r="N110" t="s">
         <v>28</v>
       </c>
-      <c r="O110" t="s">
-        <v>28</v>
-      </c>
-      <c r="P110" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q110" t="s">
-        <v>28</v>
-      </c>
       <c r="R110" t="s">
         <v>28</v>
       </c>
@@ -7468,9 +7409,6 @@
         <v>28</v>
       </c>
       <c r="U110" t="s">
-        <v>28</v>
-      </c>
-      <c r="V110" t="s">
         <v>28</v>
       </c>
       <c r="W110" t="s">
@@ -7485,17 +7423,20 @@
     </row>
     <row r="111" spans="1:25">
       <c r="A111" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B111" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="B111" s="12" t="s">
+      <c r="C111" t="s">
         <v>376</v>
-      </c>
-      <c r="C111" t="s">
-        <v>377</v>
       </c>
       <c r="D111" t="s">
         <v>32</v>
       </c>
+      <c r="E111" t="s">
+        <v>377</v>
+      </c>
       <c r="F111" t="s">
         <v>28</v>
       </c>
@@ -7506,7 +7447,7 @@
         <v>28</v>
       </c>
       <c r="I111" t="s">
-        <v>378</v>
+        <v>28</v>
       </c>
       <c r="J111" t="s">
         <v>28</v>
@@ -7514,8 +7455,14 @@
       <c r="K111" t="s">
         <v>28</v>
       </c>
+      <c r="L111" t="s">
+        <v>28</v>
+      </c>
+      <c r="M111" t="s">
+        <v>28</v>
+      </c>
       <c r="N111" t="s">
-        <v>379</v>
+        <v>28</v>
       </c>
       <c r="O111" t="s">
         <v>28</v>
@@ -7523,6 +7470,9 @@
       <c r="P111" t="s">
         <v>28</v>
       </c>
+      <c r="Q111" t="s">
+        <v>28</v>
+      </c>
       <c r="R111" t="s">
         <v>28</v>
       </c>
@@ -7535,6 +7485,9 @@
       <c r="U111" t="s">
         <v>28</v>
       </c>
+      <c r="V111" t="s">
+        <v>28</v>
+      </c>
       <c r="W111" t="s">
         <v>28</v>
       </c>
@@ -7542,39 +7495,42 @@
         <v>28</v>
       </c>
       <c r="Y111" t="s">
-        <v>379</v>
+        <v>28</v>
       </c>
     </row>
     <row r="112" spans="1:25">
       <c r="A112" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="C112" t="s">
         <v>380</v>
-      </c>
-      <c r="B112" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="C112" t="s">
-        <v>382</v>
       </c>
       <c r="D112" t="s">
         <v>32</v>
       </c>
+      <c r="F112" t="s">
+        <v>28</v>
+      </c>
       <c r="G112" t="s">
         <v>28</v>
       </c>
       <c r="H112" t="s">
         <v>28</v>
       </c>
+      <c r="I112" t="s">
+        <v>381</v>
+      </c>
+      <c r="J112" t="s">
+        <v>28</v>
+      </c>
       <c r="K112" t="s">
         <v>28</v>
       </c>
-      <c r="L112" t="s">
-        <v>28</v>
-      </c>
-      <c r="M112" t="s">
-        <v>28</v>
-      </c>
       <c r="N112" t="s">
-        <v>28</v>
+        <v>382</v>
       </c>
       <c r="O112" t="s">
         <v>28</v>
@@ -7582,12 +7538,12 @@
       <c r="P112" t="s">
         <v>28</v>
       </c>
-      <c r="Q112" t="s">
-        <v>28</v>
-      </c>
       <c r="R112" t="s">
         <v>28</v>
       </c>
+      <c r="S112" t="s">
+        <v>28</v>
+      </c>
       <c r="T112" t="s">
         <v>28</v>
       </c>
@@ -7601,14 +7557,14 @@
         <v>28</v>
       </c>
       <c r="Y112" t="s">
-        <v>28</v>
+        <v>382</v>
       </c>
     </row>
     <row r="113" spans="1:25">
       <c r="A113" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="B113" s="12" t="s">
+      <c r="B113" s="8" t="s">
         <v>384</v>
       </c>
       <c r="C113" t="s">
@@ -7617,16 +7573,34 @@
       <c r="D113" t="s">
         <v>32</v>
       </c>
-      <c r="F113" t="s">
+      <c r="G113" t="s">
         <v>28</v>
       </c>
       <c r="H113" t="s">
         <v>28</v>
       </c>
+      <c r="K113" t="s">
+        <v>28</v>
+      </c>
+      <c r="L113" t="s">
+        <v>28</v>
+      </c>
+      <c r="M113" t="s">
+        <v>28</v>
+      </c>
       <c r="N113" t="s">
         <v>28</v>
       </c>
-      <c r="S113" t="s">
+      <c r="O113" t="s">
+        <v>28</v>
+      </c>
+      <c r="P113" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>28</v>
+      </c>
+      <c r="R113" t="s">
         <v>28</v>
       </c>
       <c r="T113" t="s">
@@ -7649,7 +7623,7 @@
       <c r="A114" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B114" s="12" t="s">
+      <c r="B114" s="8" t="s">
         <v>387</v>
       </c>
       <c r="C114" t="s">
@@ -7661,42 +7635,12 @@
       <c r="F114" t="s">
         <v>28</v>
       </c>
-      <c r="G114" t="s">
-        <v>28</v>
-      </c>
       <c r="H114" t="s">
         <v>28</v>
       </c>
-      <c r="I114" t="s">
-        <v>28</v>
-      </c>
-      <c r="J114" t="s">
-        <v>28</v>
-      </c>
-      <c r="K114" t="s">
-        <v>28</v>
-      </c>
-      <c r="L114" t="s">
-        <v>28</v>
-      </c>
-      <c r="M114" t="s">
-        <v>28</v>
-      </c>
       <c r="N114" t="s">
         <v>28</v>
       </c>
-      <c r="O114" t="s">
-        <v>28</v>
-      </c>
-      <c r="P114" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q114" t="s">
-        <v>28</v>
-      </c>
-      <c r="R114" t="s">
-        <v>28</v>
-      </c>
       <c r="S114" t="s">
         <v>28</v>
       </c>
@@ -7704,9 +7648,6 @@
         <v>28</v>
       </c>
       <c r="U114" t="s">
-        <v>28</v>
-      </c>
-      <c r="V114" t="s">
         <v>28</v>
       </c>
       <c r="W114" t="s">
@@ -7723,146 +7664,145 @@
       <c r="A115" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B115" s="12" t="s">
+      <c r="B115" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C115" t="s">
         <v>391</v>
       </c>
       <c r="D115" t="s">
+        <v>32</v>
+      </c>
+      <c r="F115" t="s">
+        <v>28</v>
+      </c>
+      <c r="G115" t="s">
+        <v>28</v>
+      </c>
+      <c r="H115" t="s">
+        <v>28</v>
+      </c>
+      <c r="I115" t="s">
+        <v>28</v>
+      </c>
+      <c r="J115" t="s">
+        <v>28</v>
+      </c>
+      <c r="K115" t="s">
+        <v>28</v>
+      </c>
+      <c r="L115" t="s">
+        <v>28</v>
+      </c>
+      <c r="M115" t="s">
+        <v>28</v>
+      </c>
+      <c r="N115" t="s">
+        <v>28</v>
+      </c>
+      <c r="O115" t="s">
+        <v>28</v>
+      </c>
+      <c r="P115" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>28</v>
+      </c>
+      <c r="R115" t="s">
+        <v>28</v>
+      </c>
+      <c r="S115" t="s">
+        <v>28</v>
+      </c>
+      <c r="T115" t="s">
+        <v>28</v>
+      </c>
+      <c r="U115" t="s">
+        <v>28</v>
+      </c>
+      <c r="V115" t="s">
+        <v>28</v>
+      </c>
+      <c r="W115" t="s">
+        <v>28</v>
+      </c>
+      <c r="X115" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y115" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25">
+      <c r="A116" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="C116" t="s">
+        <v>394</v>
+      </c>
+      <c r="D116" t="s">
         <v>27</v>
       </c>
-      <c r="F115" t="s">
-        <v>28</v>
-      </c>
-      <c r="G115" t="s">
-        <v>28</v>
-      </c>
-      <c r="H115" t="s">
-        <v>28</v>
-      </c>
-      <c r="K115" t="s">
-        <v>28</v>
-      </c>
-      <c r="L115" t="s">
-        <v>28</v>
-      </c>
-      <c r="M115" t="s">
-        <v>28</v>
-      </c>
-      <c r="P115" t="s">
-        <v>28</v>
-      </c>
-      <c r="R115" t="s">
-        <v>28</v>
-      </c>
-      <c r="S115" t="s">
-        <v>28</v>
-      </c>
-      <c r="U115" t="s">
-        <v>28</v>
-      </c>
-      <c r="V115" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y115" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="116" spans="1:25">
-      <c r="A116" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="C116" s="8"/>
-      <c r="D116" s="8" t="s">
+      <c r="F116" t="s">
+        <v>28</v>
+      </c>
+      <c r="G116" t="s">
+        <v>28</v>
+      </c>
+      <c r="H116" t="s">
+        <v>28</v>
+      </c>
+      <c r="K116" t="s">
+        <v>28</v>
+      </c>
+      <c r="L116" t="s">
+        <v>28</v>
+      </c>
+      <c r="M116" t="s">
+        <v>28</v>
+      </c>
+      <c r="P116" t="s">
+        <v>28</v>
+      </c>
+      <c r="R116" t="s">
+        <v>28</v>
+      </c>
+      <c r="S116" t="s">
+        <v>28</v>
+      </c>
+      <c r="U116" t="s">
+        <v>28</v>
+      </c>
+      <c r="V116" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y116" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25">
+      <c r="A117" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="D117" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E116" s="8" t="s">
+      <c r="E117" s="13" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="117" spans="1:25">
-      <c r="A117" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B117" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="C117" t="s">
-        <v>396</v>
-      </c>
-      <c r="D117" t="s">
-        <v>32</v>
-      </c>
-      <c r="F117" t="s">
-        <v>28</v>
-      </c>
-      <c r="G117" t="s">
-        <v>28</v>
-      </c>
-      <c r="H117" t="s">
-        <v>28</v>
-      </c>
-      <c r="I117" t="s">
-        <v>28</v>
-      </c>
-      <c r="J117" t="s">
-        <v>28</v>
-      </c>
-      <c r="K117" t="s">
-        <v>28</v>
-      </c>
-      <c r="L117" t="s">
-        <v>28</v>
-      </c>
-      <c r="M117" t="s">
-        <v>28</v>
-      </c>
-      <c r="N117" t="s">
-        <v>28</v>
-      </c>
-      <c r="O117" t="s">
-        <v>28</v>
-      </c>
-      <c r="P117" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q117" t="s">
-        <v>28</v>
-      </c>
-      <c r="R117" t="s">
-        <v>28</v>
-      </c>
-      <c r="S117" t="s">
-        <v>28</v>
-      </c>
-      <c r="T117" t="s">
-        <v>28</v>
-      </c>
-      <c r="U117" t="s">
-        <v>28</v>
-      </c>
-      <c r="V117" t="s">
-        <v>28</v>
-      </c>
-      <c r="W117" t="s">
-        <v>28</v>
-      </c>
-      <c r="X117" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y117" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="118" spans="1:25">
       <c r="A118" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B118" s="12" t="s">
+      <c r="B118" s="8" t="s">
         <v>398</v>
       </c>
       <c r="C118" t="s">
@@ -7871,12 +7811,42 @@
       <c r="D118" t="s">
         <v>32</v>
       </c>
-      <c r="E118" t="s">
-        <v>400</v>
-      </c>
       <c r="F118" t="s">
         <v>28</v>
       </c>
+      <c r="G118" t="s">
+        <v>28</v>
+      </c>
+      <c r="H118" t="s">
+        <v>28</v>
+      </c>
+      <c r="I118" t="s">
+        <v>28</v>
+      </c>
+      <c r="J118" t="s">
+        <v>28</v>
+      </c>
+      <c r="K118" t="s">
+        <v>28</v>
+      </c>
+      <c r="L118" t="s">
+        <v>28</v>
+      </c>
+      <c r="M118" t="s">
+        <v>28</v>
+      </c>
+      <c r="N118" t="s">
+        <v>28</v>
+      </c>
+      <c r="O118" t="s">
+        <v>28</v>
+      </c>
+      <c r="P118" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>28</v>
+      </c>
       <c r="R118" t="s">
         <v>28</v>
       </c>
@@ -7889,62 +7859,38 @@
       <c r="U118" t="s">
         <v>28</v>
       </c>
+      <c r="V118" t="s">
+        <v>28</v>
+      </c>
       <c r="W118" t="s">
+        <v>28</v>
+      </c>
+      <c r="X118" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y118" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="119" spans="1:25">
       <c r="A119" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B119" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="B119" s="12" t="s">
+      <c r="C119" t="s">
         <v>402</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
+        <v>32</v>
+      </c>
+      <c r="E119" t="s">
         <v>403</v>
       </c>
-      <c r="D119" t="s">
-        <v>27</v>
-      </c>
-      <c r="E119" t="s">
-        <v>149</v>
-      </c>
       <c r="F119" t="s">
         <v>28</v>
       </c>
-      <c r="G119" t="s">
-        <v>28</v>
-      </c>
-      <c r="H119" t="s">
-        <v>28</v>
-      </c>
-      <c r="I119" t="s">
-        <v>28</v>
-      </c>
-      <c r="J119" t="s">
-        <v>28</v>
-      </c>
-      <c r="K119" t="s">
-        <v>28</v>
-      </c>
-      <c r="L119" t="s">
-        <v>28</v>
-      </c>
-      <c r="M119" t="s">
-        <v>28</v>
-      </c>
-      <c r="N119" t="s">
-        <v>28</v>
-      </c>
-      <c r="O119" t="s">
-        <v>28</v>
-      </c>
-      <c r="P119" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q119" t="s">
-        <v>28</v>
-      </c>
       <c r="R119" t="s">
         <v>28</v>
       </c>
@@ -7957,16 +7903,7 @@
       <c r="U119" t="s">
         <v>28</v>
       </c>
-      <c r="V119" t="s">
-        <v>28</v>
-      </c>
       <c r="W119" t="s">
-        <v>28</v>
-      </c>
-      <c r="X119" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y119" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7974,17 +7911,17 @@
       <c r="A120" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B120" s="12" t="s">
+      <c r="B120" s="8" t="s">
         <v>405</v>
       </c>
       <c r="C120" t="s">
         <v>406</v>
       </c>
       <c r="D120" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E120" t="s">
-        <v>407</v>
+        <v>149</v>
       </c>
       <c r="F120" t="s">
         <v>28</v>
@@ -8001,48 +7938,102 @@
       <c r="J120" t="s">
         <v>28</v>
       </c>
+      <c r="K120" t="s">
+        <v>28</v>
+      </c>
       <c r="L120" t="s">
         <v>28</v>
       </c>
+      <c r="M120" t="s">
+        <v>28</v>
+      </c>
       <c r="N120" t="s">
         <v>28</v>
       </c>
+      <c r="O120" t="s">
+        <v>28</v>
+      </c>
       <c r="P120" t="s">
         <v>28</v>
       </c>
       <c r="Q120" t="s">
         <v>28</v>
       </c>
+      <c r="R120" t="s">
+        <v>28</v>
+      </c>
       <c r="S120" t="s">
         <v>28</v>
       </c>
       <c r="T120" t="s">
         <v>28</v>
       </c>
+      <c r="U120" t="s">
+        <v>28</v>
+      </c>
+      <c r="V120" t="s">
+        <v>28</v>
+      </c>
       <c r="W120" t="s">
         <v>28</v>
       </c>
       <c r="X120" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y120" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="121" spans="1:25">
       <c r="A121" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B121" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="B121" s="12" t="s">
+      <c r="C121" t="s">
         <v>409</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
+        <v>32</v>
+      </c>
+      <c r="E121" t="s">
         <v>410</v>
       </c>
-      <c r="D121" t="s">
-        <v>27</v>
+      <c r="F121" t="s">
+        <v>28</v>
+      </c>
+      <c r="G121" t="s">
+        <v>28</v>
       </c>
       <c r="H121" t="s">
         <v>28</v>
       </c>
-      <c r="O121" t="s">
+      <c r="I121" t="s">
+        <v>28</v>
+      </c>
+      <c r="J121" t="s">
+        <v>28</v>
+      </c>
+      <c r="L121" t="s">
+        <v>28</v>
+      </c>
+      <c r="N121" t="s">
+        <v>28</v>
+      </c>
+      <c r="P121" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>28</v>
+      </c>
+      <c r="S121" t="s">
+        <v>28</v>
+      </c>
+      <c r="T121" t="s">
+        <v>28</v>
+      </c>
+      <c r="W121" t="s">
         <v>28</v>
       </c>
       <c r="X121" t="s">
@@ -8053,7 +8044,7 @@
       <c r="A122" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B122" s="12" t="s">
+      <c r="B122" s="8" t="s">
         <v>412</v>
       </c>
       <c r="C122" t="s">
@@ -8062,16 +8053,13 @@
       <c r="D122" t="s">
         <v>27</v>
       </c>
-      <c r="F122" t="s">
-        <v>28</v>
-      </c>
-      <c r="K122" t="s">
-        <v>28</v>
-      </c>
-      <c r="R122" t="s">
-        <v>28</v>
-      </c>
-      <c r="S122" t="s">
+      <c r="H122" t="s">
+        <v>28</v>
+      </c>
+      <c r="O122" t="s">
+        <v>28</v>
+      </c>
+      <c r="X122" t="s">
         <v>28</v>
       </c>
     </row>
@@ -8079,36 +8067,45 @@
       <c r="A123" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B123" s="12" t="s">
+      <c r="B123" s="8" t="s">
         <v>415</v>
       </c>
       <c r="C123" t="s">
         <v>416</v>
       </c>
       <c r="D123" t="s">
-        <v>32</v>
-      </c>
-      <c r="E123" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="O123" t="s">
+        <v>27</v>
+      </c>
+      <c r="F123" t="s">
+        <v>28</v>
+      </c>
+      <c r="K123" t="s">
+        <v>28</v>
+      </c>
+      <c r="R123" t="s">
+        <v>28</v>
+      </c>
+      <c r="S123" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="124" spans="1:25">
       <c r="A124" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B124" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="B124" s="12" t="s">
+      <c r="C124" t="s">
         <v>419</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
+        <v>32</v>
+      </c>
+      <c r="E124" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="D124" t="s">
-        <v>27</v>
-      </c>
-      <c r="N124" t="s">
+      <c r="O124" t="s">
         <v>28</v>
       </c>
     </row>
@@ -8116,7 +8113,7 @@
       <c r="A125" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="B125" s="12" t="s">
+      <c r="B125" s="8" t="s">
         <v>422</v>
       </c>
       <c r="C125" t="s">
@@ -8125,90 +8122,84 @@
       <c r="D125" t="s">
         <v>27</v>
       </c>
-      <c r="E125" t="s">
-        <v>424</v>
-      </c>
-      <c r="F125" t="s">
-        <v>28</v>
-      </c>
-      <c r="G125" t="s">
-        <v>28</v>
-      </c>
-      <c r="H125" t="s">
-        <v>28</v>
-      </c>
-      <c r="I125" t="s">
-        <v>28</v>
-      </c>
-      <c r="J125" t="s">
-        <v>28</v>
-      </c>
-      <c r="K125" t="s">
-        <v>28</v>
-      </c>
-      <c r="L125" t="s">
-        <v>28</v>
-      </c>
-      <c r="M125" t="s">
-        <v>28</v>
-      </c>
       <c r="N125" t="s">
-        <v>28</v>
-      </c>
-      <c r="O125" t="s">
-        <v>28</v>
-      </c>
-      <c r="P125" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q125" t="s">
-        <v>28</v>
-      </c>
-      <c r="R125" t="s">
-        <v>28</v>
-      </c>
-      <c r="S125" t="s">
-        <v>28</v>
-      </c>
-      <c r="T125" t="s">
-        <v>28</v>
-      </c>
-      <c r="U125" t="s">
-        <v>28</v>
-      </c>
-      <c r="V125" t="s">
-        <v>28</v>
-      </c>
-      <c r="W125" t="s">
-        <v>28</v>
-      </c>
-      <c r="X125" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y125" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="126" spans="1:25">
       <c r="A126" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B126" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="B126" s="12" t="s">
+      <c r="C126" t="s">
         <v>426</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
+        <v>27</v>
+      </c>
+      <c r="E126" t="s">
         <v>427</v>
       </c>
-      <c r="D126" t="s">
-        <v>32</v>
+      <c r="F126" t="s">
+        <v>28</v>
+      </c>
+      <c r="G126" t="s">
+        <v>28</v>
       </c>
       <c r="H126" t="s">
         <v>28</v>
       </c>
+      <c r="I126" t="s">
+        <v>28</v>
+      </c>
+      <c r="J126" t="s">
+        <v>28</v>
+      </c>
+      <c r="K126" t="s">
+        <v>28</v>
+      </c>
+      <c r="L126" t="s">
+        <v>28</v>
+      </c>
+      <c r="M126" t="s">
+        <v>28</v>
+      </c>
+      <c r="N126" t="s">
+        <v>28</v>
+      </c>
       <c r="O126" t="s">
         <v>28</v>
       </c>
+      <c r="P126" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>28</v>
+      </c>
+      <c r="R126" t="s">
+        <v>28</v>
+      </c>
+      <c r="S126" t="s">
+        <v>28</v>
+      </c>
+      <c r="T126" t="s">
+        <v>28</v>
+      </c>
+      <c r="U126" t="s">
+        <v>28</v>
+      </c>
+      <c r="V126" t="s">
+        <v>28</v>
+      </c>
+      <c r="W126" t="s">
+        <v>28</v>
+      </c>
       <c r="X126" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y126" t="s">
         <v>28</v>
       </c>
     </row>
@@ -8216,7 +8207,7 @@
       <c r="A127" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B127" s="12" t="s">
+      <c r="B127" s="8" t="s">
         <v>429</v>
       </c>
       <c r="C127" t="s">
@@ -8225,31 +8216,10 @@
       <c r="D127" t="s">
         <v>32</v>
       </c>
-      <c r="F127" t="s">
-        <v>28</v>
-      </c>
-      <c r="G127" t="s">
-        <v>28</v>
-      </c>
       <c r="H127" t="s">
         <v>28</v>
       </c>
-      <c r="K127" t="s">
-        <v>28</v>
-      </c>
-      <c r="R127" t="s">
-        <v>28</v>
-      </c>
-      <c r="S127" t="s">
-        <v>28</v>
-      </c>
-      <c r="T127" t="s">
-        <v>28</v>
-      </c>
-      <c r="U127" t="s">
-        <v>28</v>
-      </c>
-      <c r="W127" t="s">
+      <c r="O127" t="s">
         <v>28</v>
       </c>
       <c r="X127" t="s">
@@ -8260,7 +8230,7 @@
       <c r="A128" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B128" s="12" t="s">
+      <c r="B128" s="8" t="s">
         <v>432</v>
       </c>
       <c r="C128" t="s">
@@ -8304,7 +8274,7 @@
       <c r="A129" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B129" s="12" t="s">
+      <c r="B129" s="8" t="s">
         <v>435</v>
       </c>
       <c r="C129" t="s">
@@ -8322,33 +8292,9 @@
       <c r="H129" t="s">
         <v>28</v>
       </c>
-      <c r="I129" t="s">
-        <v>28</v>
-      </c>
-      <c r="J129" t="s">
-        <v>28</v>
-      </c>
       <c r="K129" t="s">
         <v>28</v>
       </c>
-      <c r="L129" t="s">
-        <v>28</v>
-      </c>
-      <c r="M129" t="s">
-        <v>28</v>
-      </c>
-      <c r="N129" t="s">
-        <v>28</v>
-      </c>
-      <c r="O129" t="s">
-        <v>28</v>
-      </c>
-      <c r="P129" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q129" t="s">
-        <v>28</v>
-      </c>
       <c r="R129" t="s">
         <v>28</v>
       </c>
@@ -8361,16 +8307,10 @@
       <c r="U129" t="s">
         <v>28</v>
       </c>
-      <c r="V129" t="s">
-        <v>28</v>
-      </c>
       <c r="W129" t="s">
         <v>28</v>
       </c>
       <c r="X129" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y129" t="s">
         <v>28</v>
       </c>
     </row>
@@ -8378,7 +8318,7 @@
       <c r="A130" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="B130" s="12" t="s">
+      <c r="B130" s="8" t="s">
         <v>438</v>
       </c>
       <c r="C130" t="s">
@@ -8387,84 +8327,84 @@
       <c r="D130" t="s">
         <v>32</v>
       </c>
-      <c r="E130" t="s">
-        <v>440</v>
+      <c r="F130" t="s">
+        <v>28</v>
+      </c>
+      <c r="G130" t="s">
+        <v>28</v>
+      </c>
+      <c r="H130" t="s">
+        <v>28</v>
+      </c>
+      <c r="I130" t="s">
+        <v>28</v>
+      </c>
+      <c r="J130" t="s">
+        <v>28</v>
+      </c>
+      <c r="K130" t="s">
+        <v>28</v>
+      </c>
+      <c r="L130" t="s">
+        <v>28</v>
+      </c>
+      <c r="M130" t="s">
+        <v>28</v>
+      </c>
+      <c r="N130" t="s">
+        <v>28</v>
       </c>
       <c r="O130" t="s">
+        <v>28</v>
+      </c>
+      <c r="P130" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>28</v>
+      </c>
+      <c r="R130" t="s">
+        <v>28</v>
+      </c>
+      <c r="S130" t="s">
+        <v>28</v>
+      </c>
+      <c r="T130" t="s">
+        <v>28</v>
+      </c>
+      <c r="U130" t="s">
+        <v>28</v>
+      </c>
+      <c r="V130" t="s">
+        <v>28</v>
+      </c>
+      <c r="W130" t="s">
+        <v>28</v>
+      </c>
+      <c r="X130" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y130" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="131" spans="1:25">
       <c r="A131" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B131" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="B131" s="12" t="s">
+      <c r="C131" t="s">
         <v>442</v>
-      </c>
-      <c r="C131" t="s">
-        <v>443</v>
       </c>
       <c r="D131" t="s">
         <v>32</v>
       </c>
-      <c r="F131" t="s">
-        <v>28</v>
-      </c>
-      <c r="G131" t="s">
-        <v>28</v>
-      </c>
-      <c r="H131" t="s">
-        <v>28</v>
-      </c>
-      <c r="I131" t="s">
-        <v>28</v>
-      </c>
-      <c r="J131" t="s">
-        <v>28</v>
-      </c>
-      <c r="K131" t="s">
-        <v>28</v>
-      </c>
-      <c r="L131" t="s">
-        <v>28</v>
-      </c>
-      <c r="M131" t="s">
-        <v>28</v>
-      </c>
-      <c r="N131" t="s">
-        <v>28</v>
+      <c r="E131" t="s">
+        <v>443</v>
       </c>
       <c r="O131" t="s">
-        <v>28</v>
-      </c>
-      <c r="P131" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q131" t="s">
-        <v>28</v>
-      </c>
-      <c r="R131" t="s">
-        <v>28</v>
-      </c>
-      <c r="S131" t="s">
-        <v>28</v>
-      </c>
-      <c r="T131" t="s">
-        <v>28</v>
-      </c>
-      <c r="U131" t="s">
-        <v>28</v>
-      </c>
-      <c r="V131" t="s">
-        <v>28</v>
-      </c>
-      <c r="W131" t="s">
-        <v>28</v>
-      </c>
-      <c r="X131" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y131" t="s">
         <v>28</v>
       </c>
     </row>
@@ -8472,7 +8412,7 @@
       <c r="A132" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="B132" s="6" t="s">
+      <c r="B132" s="8" t="s">
         <v>445</v>
       </c>
       <c r="C132" t="s">
@@ -8481,10 +8421,64 @@
       <c r="D132" t="s">
         <v>32</v>
       </c>
+      <c r="F132" t="s">
+        <v>28</v>
+      </c>
+      <c r="G132" t="s">
+        <v>28</v>
+      </c>
+      <c r="H132" t="s">
+        <v>28</v>
+      </c>
+      <c r="I132" t="s">
+        <v>28</v>
+      </c>
+      <c r="J132" t="s">
+        <v>28</v>
+      </c>
+      <c r="K132" t="s">
+        <v>28</v>
+      </c>
+      <c r="L132" t="s">
+        <v>28</v>
+      </c>
+      <c r="M132" t="s">
+        <v>28</v>
+      </c>
+      <c r="N132" t="s">
+        <v>28</v>
+      </c>
+      <c r="O132" t="s">
+        <v>28</v>
+      </c>
       <c r="P132" t="s">
         <v>28</v>
       </c>
       <c r="Q132" t="s">
+        <v>28</v>
+      </c>
+      <c r="R132" t="s">
+        <v>28</v>
+      </c>
+      <c r="S132" t="s">
+        <v>28</v>
+      </c>
+      <c r="T132" t="s">
+        <v>28</v>
+      </c>
+      <c r="U132" t="s">
+        <v>28</v>
+      </c>
+      <c r="V132" t="s">
+        <v>28</v>
+      </c>
+      <c r="W132" t="s">
+        <v>28</v>
+      </c>
+      <c r="X132" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y132" t="s">
         <v>28</v>
       </c>
     </row>
@@ -8492,40 +8486,19 @@
       <c r="A133" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B133" s="12" t="s">
+      <c r="B133" s="6" t="s">
         <v>448</v>
       </c>
       <c r="C133" t="s">
         <v>449</v>
       </c>
       <c r="D133" t="s">
-        <v>27</v>
-      </c>
-      <c r="G133" t="s">
-        <v>28</v>
-      </c>
-      <c r="H133" t="s">
-        <v>28</v>
-      </c>
-      <c r="K133" t="s">
-        <v>28</v>
-      </c>
-      <c r="O133" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="P133" t="s">
         <v>28</v>
       </c>
-      <c r="R133" t="s">
-        <v>28</v>
-      </c>
-      <c r="U133" t="s">
-        <v>28</v>
-      </c>
-      <c r="X133" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y133" t="s">
+      <c r="Q133" t="s">
         <v>28</v>
       </c>
     </row>
@@ -8533,20 +8506,14 @@
       <c r="A134" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B134" s="12" t="s">
+      <c r="B134" s="8" t="s">
         <v>451</v>
       </c>
       <c r="C134" t="s">
         <v>452</v>
       </c>
       <c r="D134" t="s">
-        <v>32</v>
-      </c>
-      <c r="E134" t="s">
-        <v>453</v>
-      </c>
-      <c r="F134" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G134" t="s">
         <v>28</v>
@@ -8554,49 +8521,19 @@
       <c r="H134" t="s">
         <v>28</v>
       </c>
-      <c r="I134" t="s">
-        <v>28</v>
-      </c>
-      <c r="J134" t="s">
-        <v>28</v>
-      </c>
       <c r="K134" t="s">
         <v>28</v>
       </c>
-      <c r="L134" t="s">
-        <v>28</v>
-      </c>
-      <c r="M134" t="s">
-        <v>28</v>
-      </c>
-      <c r="N134" t="s">
-        <v>28</v>
-      </c>
       <c r="O134" t="s">
         <v>28</v>
       </c>
       <c r="P134" t="s">
         <v>28</v>
       </c>
-      <c r="Q134" t="s">
-        <v>28</v>
-      </c>
       <c r="R134" t="s">
         <v>28</v>
       </c>
-      <c r="S134" t="s">
-        <v>28</v>
-      </c>
-      <c r="T134" t="s">
-        <v>28</v>
-      </c>
       <c r="U134" t="s">
-        <v>28</v>
-      </c>
-      <c r="V134" t="s">
-        <v>28</v>
-      </c>
-      <c r="W134" t="s">
         <v>28</v>
       </c>
       <c r="X134" t="s">
@@ -8608,65 +8545,101 @@
     </row>
     <row r="135" spans="1:25">
       <c r="A135" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B135" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="B135" s="12" t="s">
+      <c r="C135" t="s">
         <v>455</v>
-      </c>
-      <c r="C135" t="s">
-        <v>456</v>
       </c>
       <c r="D135" t="s">
         <v>32</v>
       </c>
       <c r="E135" t="s">
-        <v>457</v>
+        <v>456</v>
+      </c>
+      <c r="F135" t="s">
+        <v>28</v>
+      </c>
+      <c r="G135" t="s">
+        <v>28</v>
+      </c>
+      <c r="H135" t="s">
+        <v>28</v>
+      </c>
+      <c r="I135" t="s">
+        <v>28</v>
+      </c>
+      <c r="J135" t="s">
+        <v>28</v>
+      </c>
+      <c r="K135" t="s">
+        <v>28</v>
+      </c>
+      <c r="L135" t="s">
+        <v>28</v>
+      </c>
+      <c r="M135" t="s">
+        <v>28</v>
+      </c>
+      <c r="N135" t="s">
+        <v>28</v>
+      </c>
+      <c r="O135" t="s">
+        <v>28</v>
       </c>
       <c r="P135" t="s">
         <v>28</v>
       </c>
       <c r="Q135" t="s">
+        <v>28</v>
+      </c>
+      <c r="R135" t="s">
+        <v>28</v>
+      </c>
+      <c r="S135" t="s">
+        <v>28</v>
+      </c>
+      <c r="T135" t="s">
+        <v>28</v>
+      </c>
+      <c r="U135" t="s">
+        <v>28</v>
+      </c>
+      <c r="V135" t="s">
+        <v>28</v>
+      </c>
+      <c r="W135" t="s">
+        <v>28</v>
+      </c>
+      <c r="X135" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y135" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="136" spans="1:25">
       <c r="A136" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B136" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="B136" s="12" t="s">
+      <c r="C136" t="s">
         <v>459</v>
-      </c>
-      <c r="C136" t="s">
-        <v>460</v>
       </c>
       <c r="D136" t="s">
         <v>32</v>
       </c>
-      <c r="F136" t="s">
-        <v>28</v>
-      </c>
-      <c r="H136" t="s">
-        <v>28</v>
-      </c>
-      <c r="O136" t="s">
-        <v>28</v>
-      </c>
-      <c r="R136" t="s">
-        <v>28</v>
-      </c>
-      <c r="S136" t="s">
-        <v>28</v>
-      </c>
-      <c r="T136" t="s">
-        <v>28</v>
-      </c>
-      <c r="U136" t="s">
-        <v>28</v>
-      </c>
-      <c r="W136" t="s">
-        <v>28</v>
-      </c>
-      <c r="X136" t="s">
+      <c r="E136" t="s">
+        <v>460</v>
+      </c>
+      <c r="P136" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q136" t="s">
         <v>28</v>
       </c>
     </row>
@@ -8674,7 +8647,7 @@
       <c r="A137" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="B137" s="12" t="s">
+      <c r="B137" s="8" t="s">
         <v>462</v>
       </c>
       <c r="C137" t="s">
@@ -8683,45 +8656,15 @@
       <c r="D137" t="s">
         <v>32</v>
       </c>
-      <c r="E137" t="s">
-        <v>332</v>
-      </c>
       <c r="F137" t="s">
         <v>28</v>
       </c>
-      <c r="G137" t="s">
-        <v>28</v>
-      </c>
       <c r="H137" t="s">
         <v>28</v>
       </c>
-      <c r="I137" t="s">
-        <v>28</v>
-      </c>
-      <c r="J137" t="s">
-        <v>28</v>
-      </c>
-      <c r="K137" t="s">
-        <v>28</v>
-      </c>
-      <c r="L137" t="s">
-        <v>28</v>
-      </c>
-      <c r="M137" t="s">
-        <v>28</v>
-      </c>
-      <c r="N137" t="s">
-        <v>28</v>
-      </c>
       <c r="O137" t="s">
         <v>28</v>
       </c>
-      <c r="P137" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q137" t="s">
-        <v>28</v>
-      </c>
       <c r="R137" t="s">
         <v>28</v>
       </c>
@@ -8734,16 +8677,10 @@
       <c r="U137" t="s">
         <v>28</v>
       </c>
-      <c r="V137" t="s">
-        <v>28</v>
-      </c>
       <c r="W137" t="s">
         <v>28</v>
       </c>
       <c r="X137" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y137" t="s">
         <v>28</v>
       </c>
     </row>
@@ -8751,17 +8688,17 @@
       <c r="A138" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="B138" s="12" t="s">
+      <c r="B138" s="8" t="s">
         <v>465</v>
       </c>
       <c r="C138" t="s">
-        <v>466</v>
+        <v>31</v>
       </c>
       <c r="D138" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E138" t="s">
-        <v>71</v>
+        <v>335</v>
       </c>
       <c r="F138" t="s">
         <v>28</v>
@@ -8794,6 +8731,9 @@
         <v>28</v>
       </c>
       <c r="P138" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q138" t="s">
         <v>28</v>
       </c>
       <c r="R138" t="s">
@@ -8823,27 +8763,72 @@
     </row>
     <row r="139" spans="1:25">
       <c r="A139" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B139" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="B139" s="12" t="s">
+      <c r="C139" t="s">
         <v>468</v>
-      </c>
-      <c r="C139" t="s">
-        <v>469</v>
       </c>
       <c r="D139" t="s">
         <v>27</v>
       </c>
+      <c r="E139" t="s">
+        <v>71</v>
+      </c>
+      <c r="F139" t="s">
+        <v>28</v>
+      </c>
+      <c r="G139" t="s">
+        <v>28</v>
+      </c>
       <c r="H139" t="s">
         <v>28</v>
       </c>
+      <c r="I139" t="s">
+        <v>28</v>
+      </c>
+      <c r="J139" t="s">
+        <v>28</v>
+      </c>
       <c r="K139" t="s">
         <v>28</v>
       </c>
-      <c r="Q139" t="s">
+      <c r="L139" t="s">
+        <v>28</v>
+      </c>
+      <c r="M139" t="s">
+        <v>28</v>
+      </c>
+      <c r="N139" t="s">
+        <v>28</v>
+      </c>
+      <c r="O139" t="s">
+        <v>28</v>
+      </c>
+      <c r="P139" t="s">
         <v>28</v>
       </c>
       <c r="R139" t="s">
+        <v>28</v>
+      </c>
+      <c r="S139" t="s">
+        <v>28</v>
+      </c>
+      <c r="T139" t="s">
+        <v>28</v>
+      </c>
+      <c r="U139" t="s">
+        <v>28</v>
+      </c>
+      <c r="V139" t="s">
+        <v>28</v>
+      </c>
+      <c r="W139" t="s">
+        <v>28</v>
+      </c>
+      <c r="X139" t="s">
         <v>28</v>
       </c>
       <c r="Y139" t="s">
@@ -8852,62 +8837,68 @@
     </row>
     <row r="140" spans="1:25">
       <c r="A140" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B140" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="B140" s="12" t="s">
+      <c r="C140" t="s">
         <v>471</v>
       </c>
-      <c r="C140" t="s">
-        <v>472</v>
-      </c>
       <c r="D140" t="s">
-        <v>32</v>
-      </c>
-      <c r="E140" t="s">
-        <v>153</v>
-      </c>
-      <c r="I140" t="s">
-        <v>28</v>
-      </c>
-      <c r="J140" t="s">
+        <v>27</v>
+      </c>
+      <c r="H140" t="s">
         <v>28</v>
       </c>
       <c r="K140" t="s">
         <v>28</v>
       </c>
+      <c r="Q140" t="s">
+        <v>28</v>
+      </c>
       <c r="R140" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y140" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="141" spans="1:25">
       <c r="A141" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B141" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="B141" s="12" t="s">
+      <c r="C141" t="s">
         <v>474</v>
-      </c>
-      <c r="C141" t="s">
-        <v>475</v>
       </c>
       <c r="D141" t="s">
         <v>32</v>
       </c>
-      <c r="H141" t="s">
-        <v>28</v>
-      </c>
-      <c r="O141" t="s">
-        <v>28</v>
-      </c>
-      <c r="X141" t="s">
+      <c r="E141" t="s">
+        <v>153</v>
+      </c>
+      <c r="I141" t="s">
+        <v>28</v>
+      </c>
+      <c r="J141" t="s">
+        <v>28</v>
+      </c>
+      <c r="K141" t="s">
+        <v>28</v>
+      </c>
+      <c r="R141" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="142" spans="1:25">
       <c r="A142" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B142" s="8" t="s">
         <v>476</v>
-      </c>
-      <c r="B142" s="12" t="s">
-        <v>25</v>
       </c>
       <c r="C142" t="s">
         <v>477</v>
@@ -8915,64 +8906,13 @@
       <c r="D142" t="s">
         <v>32</v>
       </c>
-      <c r="F142" t="s">
-        <v>28</v>
-      </c>
-      <c r="G142" t="s">
-        <v>28</v>
-      </c>
       <c r="H142" t="s">
         <v>28</v>
       </c>
-      <c r="I142" t="s">
-        <v>28</v>
-      </c>
-      <c r="J142" t="s">
-        <v>28</v>
-      </c>
-      <c r="K142" t="s">
-        <v>28</v>
-      </c>
-      <c r="L142" t="s">
-        <v>28</v>
-      </c>
-      <c r="M142" t="s">
-        <v>28</v>
-      </c>
-      <c r="N142" t="s">
-        <v>28</v>
-      </c>
       <c r="O142" t="s">
         <v>28</v>
       </c>
-      <c r="P142" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q142" t="s">
-        <v>28</v>
-      </c>
-      <c r="R142" t="s">
-        <v>28</v>
-      </c>
-      <c r="S142" t="s">
-        <v>28</v>
-      </c>
-      <c r="T142" t="s">
-        <v>28</v>
-      </c>
-      <c r="U142" t="s">
-        <v>28</v>
-      </c>
-      <c r="V142" t="s">
-        <v>28</v>
-      </c>
-      <c r="W142" t="s">
-        <v>28</v>
-      </c>
       <c r="X142" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y142" t="s">
         <v>28</v>
       </c>
     </row>
@@ -8980,14 +8920,23 @@
       <c r="A143" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="B143" s="12" t="s">
+      <c r="B143" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C143" t="s">
         <v>479</v>
       </c>
-      <c r="C143" t="s">
-        <v>480</v>
-      </c>
       <c r="D143" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="F143" t="s">
+        <v>28</v>
+      </c>
+      <c r="G143" t="s">
+        <v>28</v>
+      </c>
+      <c r="H143" t="s">
+        <v>28</v>
       </c>
       <c r="I143" t="s">
         <v>28</v>
@@ -8998,34 +8947,61 @@
       <c r="K143" t="s">
         <v>28</v>
       </c>
+      <c r="L143" t="s">
+        <v>28</v>
+      </c>
+      <c r="M143" t="s">
+        <v>28</v>
+      </c>
+      <c r="N143" t="s">
+        <v>28</v>
+      </c>
+      <c r="O143" t="s">
+        <v>28</v>
+      </c>
+      <c r="P143" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>28</v>
+      </c>
       <c r="R143" t="s">
         <v>28</v>
       </c>
+      <c r="S143" t="s">
+        <v>28</v>
+      </c>
       <c r="T143" t="s">
+        <v>28</v>
+      </c>
+      <c r="U143" t="s">
+        <v>28</v>
+      </c>
+      <c r="V143" t="s">
+        <v>28</v>
+      </c>
+      <c r="W143" t="s">
+        <v>28</v>
+      </c>
+      <c r="X143" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y143" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="144" spans="1:25">
       <c r="A144" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B144" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="B144" s="12" t="s">
-        <v>54</v>
-      </c>
       <c r="C144" t="s">
-        <v>443</v>
+        <v>482</v>
       </c>
       <c r="D144" t="s">
-        <v>32</v>
-      </c>
-      <c r="F144" t="s">
-        <v>28</v>
-      </c>
-      <c r="G144" t="s">
-        <v>28</v>
-      </c>
-      <c r="H144" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I144" t="s">
         <v>28</v>
@@ -9036,152 +9012,137 @@
       <c r="K144" t="s">
         <v>28</v>
       </c>
-      <c r="L144" t="s">
-        <v>28</v>
-      </c>
-      <c r="M144" t="s">
-        <v>28</v>
-      </c>
-      <c r="N144" t="s">
-        <v>28</v>
-      </c>
-      <c r="O144" t="s">
-        <v>28</v>
-      </c>
-      <c r="P144" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q144" t="s">
-        <v>28</v>
-      </c>
       <c r="R144" t="s">
         <v>28</v>
       </c>
-      <c r="S144" t="s">
-        <v>28</v>
-      </c>
       <c r="T144" t="s">
-        <v>28</v>
-      </c>
-      <c r="U144" t="s">
-        <v>28</v>
-      </c>
-      <c r="V144" t="s">
-        <v>28</v>
-      </c>
-      <c r="W144" t="s">
-        <v>28</v>
-      </c>
-      <c r="X144" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y144" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="145" spans="1:25">
       <c r="A145" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="B145" s="12" t="s">
         <v>483</v>
       </c>
+      <c r="B145" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="C145" t="s">
-        <v>484</v>
+        <v>446</v>
       </c>
       <c r="D145" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="F145" t="s">
+        <v>28</v>
+      </c>
+      <c r="G145" t="s">
+        <v>28</v>
       </c>
       <c r="H145" t="s">
         <v>28</v>
       </c>
+      <c r="I145" t="s">
+        <v>28</v>
+      </c>
+      <c r="J145" t="s">
+        <v>28</v>
+      </c>
+      <c r="K145" t="s">
+        <v>28</v>
+      </c>
+      <c r="L145" t="s">
+        <v>28</v>
+      </c>
+      <c r="M145" t="s">
+        <v>28</v>
+      </c>
+      <c r="N145" t="s">
+        <v>28</v>
+      </c>
+      <c r="O145" t="s">
+        <v>28</v>
+      </c>
       <c r="P145" t="s">
         <v>28</v>
       </c>
-      <c r="S145" s="2"/>
+      <c r="Q145" t="s">
+        <v>28</v>
+      </c>
+      <c r="R145" t="s">
+        <v>28</v>
+      </c>
+      <c r="S145" t="s">
+        <v>28</v>
+      </c>
       <c r="T145" t="s">
         <v>28</v>
       </c>
+      <c r="U145" t="s">
+        <v>28</v>
+      </c>
+      <c r="V145" t="s">
+        <v>28</v>
+      </c>
+      <c r="W145" t="s">
+        <v>28</v>
+      </c>
       <c r="X145" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y145" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="146" spans="1:25">
       <c r="A146" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B146" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="B146" s="12" t="s">
+      <c r="C146" t="s">
         <v>486</v>
-      </c>
-      <c r="C146" t="s">
-        <v>487</v>
       </c>
       <c r="D146" t="s">
         <v>27</v>
       </c>
-      <c r="F146" t="s">
-        <v>28</v>
-      </c>
-      <c r="G146" t="s">
-        <v>28</v>
-      </c>
-      <c r="I146" t="s">
-        <v>28</v>
-      </c>
-      <c r="J146" t="s">
-        <v>28</v>
-      </c>
-      <c r="K146" t="s">
-        <v>28</v>
-      </c>
-      <c r="N146" t="s">
+      <c r="H146" t="s">
         <v>28</v>
       </c>
       <c r="P146" t="s">
         <v>28</v>
       </c>
-      <c r="R146" t="s">
-        <v>28</v>
-      </c>
-      <c r="S146" t="s">
-        <v>28</v>
-      </c>
+      <c r="S146" s="2"/>
       <c r="T146" t="s">
         <v>28</v>
       </c>
-      <c r="U146" t="s">
-        <v>28</v>
-      </c>
-      <c r="W146" t="s">
-        <v>28</v>
-      </c>
       <c r="X146" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y146" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="147" spans="1:25">
       <c r="A147" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B147" s="8" t="s">
         <v>488</v>
       </c>
-      <c r="B147" s="12" t="s">
+      <c r="C147" t="s">
         <v>489</v>
       </c>
-      <c r="C147" t="s">
-        <v>490</v>
-      </c>
       <c r="D147" t="s">
-        <v>32</v>
-      </c>
-      <c r="E147" t="s">
-        <v>332</v>
+        <v>27</v>
       </c>
       <c r="F147" t="s">
         <v>28</v>
       </c>
-      <c r="H147" t="s">
+      <c r="G147" t="s">
+        <v>28</v>
+      </c>
+      <c r="I147" t="s">
+        <v>28</v>
+      </c>
+      <c r="J147" t="s">
         <v>28</v>
       </c>
       <c r="K147" t="s">
@@ -9190,13 +9151,7 @@
       <c r="N147" t="s">
         <v>28</v>
       </c>
-      <c r="O147" t="s">
-        <v>28</v>
-      </c>
       <c r="P147" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q147" t="s">
         <v>28</v>
       </c>
       <c r="R147" t="s">
@@ -9223,92 +9178,151 @@
     </row>
     <row r="148" spans="1:25">
       <c r="A148" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B148" s="8" t="s">
         <v>491</v>
       </c>
-      <c r="B148" s="12" t="s">
+      <c r="C148" t="s">
         <v>492</v>
-      </c>
-      <c r="C148" t="s">
-        <v>493</v>
       </c>
       <c r="D148" t="s">
         <v>32</v>
       </c>
+      <c r="E148" t="s">
+        <v>335</v>
+      </c>
+      <c r="F148" t="s">
+        <v>28</v>
+      </c>
+      <c r="H148" t="s">
+        <v>28</v>
+      </c>
+      <c r="K148" t="s">
+        <v>28</v>
+      </c>
+      <c r="N148" t="s">
+        <v>28</v>
+      </c>
+      <c r="O148" t="s">
+        <v>28</v>
+      </c>
+      <c r="P148" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>28</v>
+      </c>
       <c r="R148" t="s">
         <v>28</v>
       </c>
+      <c r="S148" t="s">
+        <v>28</v>
+      </c>
+      <c r="T148" t="s">
+        <v>28</v>
+      </c>
+      <c r="U148" t="s">
+        <v>28</v>
+      </c>
+      <c r="W148" t="s">
+        <v>28</v>
+      </c>
+      <c r="X148" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y148" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="149" spans="1:25">
-      <c r="A149" s="3" t="s">
+      <c r="A149" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B149" s="8" t="s">
         <v>494</v>
       </c>
-      <c r="B149" s="12" t="s">
+      <c r="C149" t="s">
         <v>495</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
+        <v>32</v>
+      </c>
+      <c r="R149" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="150" spans="1:25">
+      <c r="A150" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="D149" t="s">
+      <c r="B150" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F149" t="s">
-        <v>28</v>
-      </c>
-      <c r="G149" t="s">
-        <v>28</v>
-      </c>
-      <c r="H149" t="s">
-        <v>28</v>
-      </c>
-      <c r="I149" t="s">
-        <v>28</v>
-      </c>
-      <c r="J149" t="s">
-        <v>28</v>
-      </c>
-      <c r="K149" t="s">
-        <v>28</v>
-      </c>
-      <c r="L149" t="s">
-        <v>28</v>
-      </c>
-      <c r="M149" t="s">
-        <v>28</v>
-      </c>
-      <c r="N149" t="s">
-        <v>28</v>
-      </c>
-      <c r="O149" t="s">
-        <v>28</v>
-      </c>
-      <c r="P149" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q149" t="s">
-        <v>28</v>
-      </c>
-      <c r="R149" t="s">
-        <v>28</v>
-      </c>
-      <c r="S149" t="s">
-        <v>28</v>
-      </c>
-      <c r="T149" t="s">
-        <v>28</v>
-      </c>
-      <c r="U149" t="s">
-        <v>28</v>
-      </c>
-      <c r="V149" t="s">
-        <v>28</v>
-      </c>
-      <c r="W149" t="s">
-        <v>28</v>
-      </c>
-      <c r="X149" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y149" t="s">
+      <c r="C150" t="s">
+        <v>498</v>
+      </c>
+      <c r="D150" t="s">
+        <v>499</v>
+      </c>
+      <c r="F150" t="s">
+        <v>28</v>
+      </c>
+      <c r="G150" t="s">
+        <v>28</v>
+      </c>
+      <c r="H150" t="s">
+        <v>28</v>
+      </c>
+      <c r="I150" t="s">
+        <v>28</v>
+      </c>
+      <c r="J150" t="s">
+        <v>28</v>
+      </c>
+      <c r="K150" t="s">
+        <v>28</v>
+      </c>
+      <c r="L150" t="s">
+        <v>28</v>
+      </c>
+      <c r="M150" t="s">
+        <v>28</v>
+      </c>
+      <c r="N150" t="s">
+        <v>28</v>
+      </c>
+      <c r="O150" t="s">
+        <v>28</v>
+      </c>
+      <c r="P150" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>28</v>
+      </c>
+      <c r="R150" t="s">
+        <v>28</v>
+      </c>
+      <c r="S150" t="s">
+        <v>28</v>
+      </c>
+      <c r="T150" t="s">
+        <v>28</v>
+      </c>
+      <c r="U150" t="s">
+        <v>28</v>
+      </c>
+      <c r="V150" t="s">
+        <v>28</v>
+      </c>
+      <c r="W150" t="s">
+        <v>28</v>
+      </c>
+      <c r="X150" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y150" t="s">
         <v>28</v>
       </c>
     </row>
@@ -9381,225 +9395,91 @@
     <hyperlink ref="A68" r:id="rId64" display="http://www.europeanamericana.com/" xr:uid="{E16DAB69-2A03-40D0-8705-DC429C7F8336}"/>
     <hyperlink ref="A69" r:id="rId65" display="http://ec.europa.eu/eurostat/data/database" xr:uid="{4F4F458A-D92A-47EC-9CB6-03B14F62F186}"/>
     <hyperlink ref="A70" r:id="rId66" display="https://openathens.ovid.com/OAKeystone/deeplink?idpselect=https://cas.cuni.cz/idp/shibboleth&amp;entityID=https://cas.cuni.cz/idp/shibboleth&amp;T=JS&amp;PAGE=main&amp;D=ebmz" xr:uid="{7899D9A4-0EE5-4628-9A98-D0B525D8A1E7}"/>
-    <hyperlink ref="A71" r:id="rId67" display="https://ezdroje.cuni.cz/prehled/index.php?lang=cs&amp;type=fakulty&amp;fids=28" xr:uid="{88962E4A-0289-446A-82B6-5F7C05405ACA}"/>
-    <hyperlink ref="A72" r:id="rId68" display="https://infotrac.gale.com/itweb/karlova?db=GLS" xr:uid="{20543049-E846-4032-8164-A1547FBF2D29}"/>
-    <hyperlink ref="A73" r:id="rId69" display="https://infotrac.gale.com/itweb/karlova?db=GVRL" xr:uid="{6CC9D709-EB19-4D39-AB0A-5BCCED9B93AA}"/>
-    <hyperlink ref="A74" r:id="rId70" display="http://ckis.cuni.cz/F/?func=find-b-0&amp;local_base=cks02" xr:uid="{C7B31603-ABBF-4A06-BD99-2EAB71463B7C}"/>
-    <hyperlink ref="A75" r:id="rId71" display="https://openathens.ovid.com/OAKeystone/deeplink?idpselect=https://cas.cuni.cz/idp/shibboleth&amp;entityID=https://cas.cuni.cz/idp/shibboleth&amp;T=JS&amp;PAGE=main&amp;D=gref" xr:uid="{37D99E7A-8D49-4D3F-B60B-743FD105AF91}"/>
-    <hyperlink ref="A76" r:id="rId72" display="https://pubs.geoscienceworld.org/institutional-login" xr:uid="{F0F5AD95-1A8E-4FBB-859E-ADE22844B58C}"/>
-    <hyperlink ref="A77" r:id="rId73" display="https://cunicz.sharepoint.com/:b:/s/ukuk-eiz/EUVCu6IcIBBCgOt5EQMvz4wBvWoDIr_26l3HqHIUsBNF6w" xr:uid="{815BB46F-6C6C-4FAE-AA43-92B8DDEF5293}"/>
-    <hyperlink ref="A78" r:id="rId74" display="http://www.greeninfoonline.com/" xr:uid="{BA20BE6F-59E3-45DB-B02B-6955100A456D}"/>
-    <hyperlink ref="A79" r:id="rId75" display="https://www.degruyter.com/applib/openathens?entityID=https://cas.cuni.cz/idp/shibboleth&amp;openAthens2Redirect=/db/ibz" xr:uid="{F3C41D6B-5701-4274-970D-D906953A1FD3}"/>
-    <hyperlink ref="A80" r:id="rId76" display="http://www.icpsr.umich.edu/" xr:uid="{86CA0468-77A4-4F5F-A460-6E42DD6AB61C}"/>
-    <hyperlink ref="A81" r:id="rId77" display="http://ieeexplore.ieee.org/servlet/wayf.jsp?entityId=https://cas.cuni.cz/idp/shibboleth&amp;url=http%3A%2F%2Fieeexplore.ieee.org%2FXplore%2Fhome.jsp" xr:uid="{7A308B7D-0DEE-46C0-8C38-652CA90CFF8E}"/>
-    <hyperlink ref="A82" r:id="rId78" display="https://www.ixtheo.de/" xr:uid="{B5C18366-28DF-4755-AA88-DE869245BE0F}"/>
-    <hyperlink ref="A83" r:id="rId79" display="https://myiopscience.iop.org/signin?origin=deeplink&amp;entity=https%3A%2F%2Fcas.cuni.cz%2Fidp%2Fshibboleth&amp;target=http%3A%2F%2Fiopscience.iop.org%2F" xr:uid="{BFECAE69-F4B9-4463-A736-F80256E399DD}"/>
-    <hyperlink ref="A85" r:id="rId80" display="https://www.jbe-platform.com/session/ext/shib?url=%2F" xr:uid="{035CED96-52B8-453A-97B0-4B5D7BF6358B}"/>
-    <hyperlink ref="A86" r:id="rId81" display="http://login.incites.clarivate.com/?auth=ShibbolethIdPForm2_IC2JCR&amp;entityID=https://cas.cuni.cz/idp/shibboleth&amp;ShibFederation=CzechFederation" xr:uid="{AF01A132-D951-4198-8735-CAD61A4B7AAA}"/>
-    <hyperlink ref="A87" r:id="rId82" display="https://shibbolethsp.jstor.org/start?entityID=https%3A%2F%2Fcas.cuni.cz%2Fidp%2Fshibboleth&amp;dest=https://www.jstor.org/&amp;site=jstor" xr:uid="{60EAFFC1-C154-4324-889E-EA3CB087C34A}"/>
-    <hyperlink ref="A89" r:id="rId83" display="https://auth.karger.com/Wayfless?entity=https://cas.cuni.cz/idp/shibboleth&amp;target=https://www.karger.com/Journal/IndexListAZ" xr:uid="{40E391AE-61BB-4B09-BC72-0275332DE931}"/>
-    <hyperlink ref="A90" r:id="rId84" display="https://www-klapp-online-de.ezproxy.is.cuni.cz/cgi-bin/koha/opac-main.pl" xr:uid="{3B5B4148-F20A-4C12-A97D-48AA56E63985}"/>
-    <hyperlink ref="A92" r:id="rId85" display="http://search.ebscohost.com/login.aspx?authtype=shib&amp;custid=s1240919&amp;profile=ehost&amp;defaultdb=lgs" xr:uid="{7EFD551F-E0F3-4167-B401-C91F22B4F793}"/>
-    <hyperlink ref="A93" r:id="rId86" display="https://login.ezproxy.is.cuni.cz/login?url=http://search.ebscohost.com/login.aspx?authtype=ip&amp;custid=s1240919&amp;profile=ehost&amp;defaultdb=lxh" xr:uid="{CA192C1E-BEB6-403E-85FE-A068235D42A1}"/>
-    <hyperlink ref="A94" r:id="rId87" display="https://lindat.mff.cuni.cz/cs/" xr:uid="{DBBDEB99-EE3C-406F-892A-71ACFA6154F0}"/>
-    <hyperlink ref="A95" r:id="rId88" display="https://openathens.ovid.com/OAKeystone/deeplink?idpselect=https://cas.cuni.cz/idp/shibboleth&amp;entityID=https://cas.cuni.cz/idp/shibboleth&amp;T=JS&amp;PAGE=main&amp;D=yrovft" xr:uid="{F836279E-E021-4CA6-8A10-3BEB99636447}"/>
-    <hyperlink ref="A96" r:id="rId89" display="http://www.manuscriptorium.com/index.php?q=cs" xr:uid="{663B65FC-354F-4334-91CE-5DBC12F67508}"/>
-    <hyperlink ref="A97" r:id="rId90" display="https://ezproxy.is.cuni.cz/login?url=https://www.ams.org/mathscinet/" xr:uid="{118890DD-ABF6-4B2B-9B38-6467295B017A}"/>
-    <hyperlink ref="A98" r:id="rId91" display="https://openathens.ovid.com/OAKeystone/deeplink?idpselect=https://cas.cuni.cz/idp/shibboleth&amp;entityID=https://cas.cuni.cz/idp/shibboleth&amp;T=JS&amp;PAGE=main&amp;D=mesz" xr:uid="{AFF472EA-8C57-4D42-9A58-1E49B210CB54}"/>
-    <hyperlink ref="A99" r:id="rId92" display="http://www.merck.com/pubs/" xr:uid="{5C73B27B-BF90-4358-908B-E32C1713013A}"/>
-    <hyperlink ref="A100" r:id="rId93" display="https://ndk.cz/podminky-zpristupneni?target=https://ndk.cz/" xr:uid="{8C232780-CB0C-4428-A08D-5A26868A4179}"/>
-    <hyperlink ref="A101" r:id="rId94" display="https://ndk.cz/podminky-zpristupneni?" xr:uid="{0C8F23F5-AC35-4DEA-A1B3-DF24617F7720}"/>
-    <hyperlink ref="A102" r:id="rId95" display="http://www.oapen.org/" xr:uid="{E4D2FAB2-73F0-4FE0-AD1A-93B7F0BF2C4B}"/>
-    <hyperlink ref="A103" r:id="rId96" display="https://www.oecd-ilibrary.org/session/ext/shib?url=&amp;entityId=https://cas.cuni.cz/idp/shibboleth" xr:uid="{F8DCCC4A-2FC1-497F-89F0-FB30D5C69ABD}"/>
-    <hyperlink ref="A104" r:id="rId97" display="http://www.un.org/en/documents/ods/" xr:uid="{D7678B06-5839-442D-92F9-E871AEEAB0EF}"/>
-    <hyperlink ref="A105" r:id="rId98" display="https://vzlbs2.gbv.de/DB=55/" xr:uid="{B4F3D9A3-4231-43B5-B4F2-16B9892D97CB}"/>
-    <hyperlink ref="A106" r:id="rId99" display="https://www.openaire.eu/plugins/user/oneloginsaml/oneloginsaml.php?sso" xr:uid="{2E9A7126-3530-417A-A60D-EFC977B8C5A8}"/>
-    <hyperlink ref="A107" r:id="rId100" display="http://ezproxy.is.cuni.cz/login?url=http://openlibrary.org/borrow" xr:uid="{D3604AE0-BB0C-4025-9634-0003BF07C454}"/>
-    <hyperlink ref="A108" r:id="rId101" display="https://openresearchlibrary.org/home" xr:uid="{97565B68-DC4A-4E73-8E80-DBDE1852AF8A}"/>
-    <hyperlink ref="A109" r:id="rId102" display="https://shibboleth2sp.sams.oup.com/Shibboleth.sso/Login?entityID=https://cas.cuni.cz/idp/shibboleth&amp;target=https%3A%2F%2Fshibboleth2sp.sams.oup.com/shib?dest=https://www.oxfordbibliographies.com/SHIBBOLETH?dest=%2F" xr:uid="{CDADC58E-350B-4D91-AFC7-751BA320AB2C}"/>
-    <hyperlink ref="A110" r:id="rId103" display="https://shibboleth2sp.sams.oup.com/Shibboleth.sso/Login?entityID=https://cas.cuni.cz/idp/shibboleth&amp;target=https%3A%2F%2Fshibboleth2sp.sams.oup.com/shib%3Fdest=http%3A%2F%2Fwww.oed.com/SHIBBOLETH?dest=%2F" xr:uid="{1DB9EBAB-8724-484C-BC27-47BA93138575}"/>
-    <hyperlink ref="A111" r:id="rId104" display="https://ezproxy.is.cuni.cz/login?url=https://www.oxfordhandbooks.com/browse?t0=ORR:LAW00010" xr:uid="{4BDA6E80-D9AD-4379-8BBF-0DF4DB6CDF05}"/>
-    <hyperlink ref="A112" r:id="rId105" display="https://shibboleth2sp.sams2.oup.com/Shibboleth.sso/Login?entityID=https%3A%2F%2Fcas.cuni.cz%2Fidp%2Fshibboleth&amp;target=https%3A%2F%2Fshibboleth2sp.sams2.oup.com/shib%3Fdest=https%3A%2F%2Facademic.oup.com%2FSHIBBOLETH?dest=%2Fjournals" xr:uid="{D4B1919E-F55D-4D0A-945F-226E0D1FC499}"/>
-    <hyperlink ref="A113" r:id="rId106" display="https://shibboleth2sp.sams.oup.com/Shibboleth.sso/Login?entityID=https://cas.cuni.cz/idp/shibboleth&amp;target=https%3A%2F%2Fshibboleth2sp.sams.oup.com/shib?dest=https://www.oxfordmedicine.com/SHIBBOLETH?dest=%2F" xr:uid="{20C45779-8591-4CA8-92BB-D6AB8B0BD3D9}"/>
-    <hyperlink ref="A114" r:id="rId107" display="https://shibboleth2sp.sams.oup.com/Shibboleth.sso/Login?entityID=https://cas.cuni.cz/idp/shibboleth&amp;target=https%3A%2F%2Fshibboleth2sp.sams.oup.com/shib%3Fdest=https://oxford.universitypressscholarship.com/SHIBBOLETH?dest=%2F" xr:uid="{763BE611-7345-4C2C-A118-A3F7FD47DDBB}"/>
-    <hyperlink ref="A115" r:id="rId108" display="http://www.persee.fr/web/guest/home" xr:uid="{3CCEF6B6-2522-46B3-B7A8-4BE02680EE63}"/>
-    <hyperlink ref="A116" r:id="rId109" display="http://search.ebscohost.com/login.aspx?authtype=shib&amp;profile=ehost&amp;custid=s1240919&amp;defaultdb=poh" xr:uid="{8FA98509-92F7-4EC9-AA78-2A6CE0F8CB21}"/>
-    <hyperlink ref="A117" r:id="rId110" display="https://ebookcentral.proquest.com/lib/cuni" xr:uid="{55EFB8DC-746E-4174-9D2D-14FCA1FC90AF}"/>
-    <hyperlink ref="A118" r:id="rId111" display="https://ezdroje.cuni.cz/prehled/index.php?lang=cs&amp;type=fakulty&amp;fids=28" xr:uid="{20015E11-AD02-421B-A14A-95F74FFE80C9}"/>
-    <hyperlink ref="A119" r:id="rId112" display="http://search.proquest.com/publiccontent/shibboleth?accountid=15618" xr:uid="{B075D399-C337-405C-90B1-0A554E8BB744}"/>
-    <hyperlink ref="A120" r:id="rId113" display="https://ecuni.publi.cz/" xr:uid="{999C5B5B-D9C3-4E2D-AEB4-3FFBD18D2CC8}"/>
-    <hyperlink ref="A121" r:id="rId114" display="http://ezproxy.is.cuni.cz/login?url=http://www.ncbi.nlm.nih.gov/pubmed?otool=iczcplib" xr:uid="{13A8ABFF-2B1E-4EF0-93E1-15EA4695ED35}"/>
-    <hyperlink ref="A122" r:id="rId115" display="http://web.nli.org.il/sites/NLI/English/infochannels/Catalogs/bibliographic-databases/rambi/Pages/rambi.aspx" xr:uid="{5EBF7A68-36C6-414F-BE67-2877AEBDAD7D}"/>
-    <hyperlink ref="A123" r:id="rId116" display="https://auth.elsevier.com/ShibAuth/institutionLogin?entityID=https%3A%2F%2Fcas.cuni.cz%2Fidp%2Fshibboleth&amp;appReturnURL=https%3A%2F%2Fwww.reaxys.com%2Fservices%2Foauth%2Fshibboleth-sso" xr:uid="{E91E3930-E762-49D3-BD92-5DCACD4571E7}"/>
-    <hyperlink ref="A124" r:id="rId117" display="http://opac.rism.info/" xr:uid="{0BEA2E46-6132-4E9C-A085-77D38F269297}"/>
-    <hyperlink ref="A125" r:id="rId118" display="https://is.cuni.cz/webapps/zzp/search/?tab_searchas=basic&amp;lang=cs" xr:uid="{903B3F9D-E294-4678-9D78-18BC5AD60088}"/>
-    <hyperlink ref="A126" r:id="rId119" display="https://www.rsc.org/rsc-id/account/checkfederatedaccess?instituteurl=https%3A%2F%2Fcas.cuni.cz%2Fidp%2Fshibboleth&amp;returnurl=https%3A%2F%2Fpubs.rsc.org" xr:uid="{6935C73C-CDEF-471B-8F4E-9621E4C1ECD1}"/>
-    <hyperlink ref="A127" r:id="rId120" display="http://iam.atypon.com/action/ssostart?idp=https%3A%2F%2Fcas.cuni.cz%2Fidp%2Fshibboleth&amp;redirectUri=%2F&amp;targetSP=https%3A%2F%2Fjournals.sagepub.com" xr:uid="{3E8A75AB-5E20-4375-9B47-705670ACBDAF}"/>
-    <hyperlink ref="A128" r:id="rId121" display="http://ezproxy.is.cuni.cz/login?url=http://knowledge.sagepub.com/" xr:uid="{39601009-ACF1-41BE-B0DF-0CCD98E9A020}"/>
-    <hyperlink ref="A129" r:id="rId122" display="https://www.sciencedirect.com/customer/authenticate?federation_id=2026&amp;institution_id=18945&amp;auth_type=SHIBBOLETH&amp;targetURL=%2F" xr:uid="{3387BE85-7530-4076-92FB-123BBF010AF1}"/>
-    <hyperlink ref="A130" r:id="rId123" display="http://ezproxy.is.cuni.cz/login?url=https://scifinder.cas.org" xr:uid="{5F3ACAB8-E5A3-40DE-8E6B-5BA0950BD154}"/>
-    <hyperlink ref="A131" r:id="rId124" display="https://auth.elsevier.com/ShibAuth/institutionLogin?entityID=https%3A%2F%2Fcas.cuni.cz%2Fidp%2Fshibboleth&amp;appReturnURL=http%3A%2F%2Fwww.scopus.com" xr:uid="{FFE569AE-CF2B-49B4-9B15-F1715B01B456}"/>
-    <hyperlink ref="A132" r:id="rId125" display="http://iam.atypon.com/action/ssostart?idp=https%3A%2F%2Fcas.cuni.cz%2Fidp%2Fshibboleth&amp;redirectUri=%2Fjournals&amp;targetSP=https%3A%2F%2Fepubs.siam.org" xr:uid="{D1AFD3A3-A56B-4F87-9136-A02087F0AD12}"/>
-    <hyperlink ref="A133" r:id="rId126" display="http://www.ssrn.com/" xr:uid="{244DC937-A5A7-4F73-BF71-7899CF620F0D}"/>
-    <hyperlink ref="A134" r:id="rId127" display="https://fsso.springer.com/federation/init?entityId=https://cas.cuni.cz/idp/shibboleth&amp;returnUrl=http://link.springer.com/" xr:uid="{092D2F51-395F-4550-9AAB-9F79AAE4EA3E}"/>
-    <hyperlink ref="A135" r:id="rId128" display="https://www-morganclaypool-com.ezproxy.is.cuni.cz/page/synthesis" xr:uid="{993CD44E-E04F-49B3-AC29-B3BFF6725E29}"/>
-    <hyperlink ref="A136" r:id="rId129" display="https://www.taylorfrancis.com/start-session?idp=https://cas.cuni.cz/idp/shibboleth&amp;redirectUri=https://www.taylorfrancis.com" xr:uid="{01FA6968-7C99-4F15-BA92-90C1A26603C7}"/>
-    <hyperlink ref="A137" r:id="rId130" display="http://www.tandfonline.com/action/ssostart?idp=https%3A%2F%2Fcas.cuni.cz%2Fidp%2Fshibboleth&amp;redirectUri=%2F" xr:uid="{054FA973-93CB-4A2B-9218-DD965793CC5C}"/>
-    <hyperlink ref="A138" r:id="rId131" display="http://www.teacherreference.com/" xr:uid="{D5BBA35E-FF32-4506-97A9-3F0DB3B91289}"/>
-    <hyperlink ref="A139" r:id="rId132" display="https://www.arts.kuleuven.be/sinologie/english/cct" xr:uid="{290C187B-96FE-4E66-A808-7519A192728C}"/>
-    <hyperlink ref="A140" r:id="rId133" display="http://ezproxy.is.cuni.cz/login?url=http://stephanus.tlg.uci.edu/" xr:uid="{83D7F942-7564-46FD-A3E9-602FCC75FDA0}"/>
-    <hyperlink ref="A141" r:id="rId134" display="https://profile.thieme.de/HTML/sso/er/cp_er_shibboleth.htm?wayfless=ZmVkZXJhdGlvbmlkPWh0dHBzOi8vZWR1aWQuY3ovbWV0YWRhdGEmZW50aXR5aWQ9aHR0cHM6Ly9jYXMuY3VuaS5jei9pZHAvc2hpYmJvbGV0aA%3D%3D&amp;hook_url=https%3A%2F%2Fmedone-education.thieme.com" xr:uid="{0B07D280-7DD9-4C4E-AB7A-E6C1000AAB94}"/>
-    <hyperlink ref="A142" r:id="rId135" display="https://ezproxy.is.cuni.cz/login?url=https://ulrichsweb.serialssolutions.com/" xr:uid="{68E29B08-2AEA-4716-B4D7-366AA65A58F6}"/>
-    <hyperlink ref="A143" r:id="rId136" display="http://vis.idu.cz/" xr:uid="{C20283D7-D775-4D1C-9042-368A9FA5D019}"/>
-    <hyperlink ref="A144" r:id="rId137" display="http://www.webofknowledge.com/?auth=ShibbolethIdPForm&amp;entityID=https://cas.cuni.cz/idp/shibboleth&amp;target=https%253A%252F%252Fwww.webofknowledge.com%252F%253FDestApp%253DWOS&amp;ShibFederation=CzechFederation&amp;DestApp=WOS" xr:uid="{CA927AB8-D4FF-44D3-89E2-C7EE29E1E9B5}"/>
-    <hyperlink ref="A145" r:id="rId138" display="https://www.wikiskripta.eu/" xr:uid="{33E4D557-0130-4F42-9E6C-9B12B8BAB852}"/>
-    <hyperlink ref="A146" r:id="rId139" display="http://wikisofia.cz/" xr:uid="{F543DD83-FCE6-429F-A7B1-68403001A774}"/>
-    <hyperlink ref="A147" r:id="rId140" display="https://onlinelibrary.wiley.com/action/ssostart?idp=https://cas.cuni.cz/idp/shibboleth&amp;redirectUri=https://onlinelibrary.wiley.com/" xr:uid="{27204B2E-CE42-4C74-B1C9-EB0335E46C1D}"/>
-    <hyperlink ref="A148" r:id="rId141" location="/homepage/main-page" display="https://www-worldchristiandatabase-org.ezproxy.is.cuni.cz/wcd/ - /homepage/main-page" xr:uid="{13FACE57-AA44-4124-9F14-15C254AD1D3C}"/>
+    <hyperlink ref="A72" r:id="rId67" display="https://ezdroje.cuni.cz/prehled/index.php?lang=cs&amp;type=fakulty&amp;fids=28" xr:uid="{88962E4A-0289-446A-82B6-5F7C05405ACA}"/>
+    <hyperlink ref="A73" r:id="rId68" display="https://infotrac.gale.com/itweb/karlova?db=GLS" xr:uid="{20543049-E846-4032-8164-A1547FBF2D29}"/>
+    <hyperlink ref="A74" r:id="rId69" display="https://infotrac.gale.com/itweb/karlova?db=GVRL" xr:uid="{6CC9D709-EB19-4D39-AB0A-5BCCED9B93AA}"/>
+    <hyperlink ref="A75" r:id="rId70" display="http://ckis.cuni.cz/F/?func=find-b-0&amp;local_base=cks02" xr:uid="{C7B31603-ABBF-4A06-BD99-2EAB71463B7C}"/>
+    <hyperlink ref="A76" r:id="rId71" display="https://openathens.ovid.com/OAKeystone/deeplink?idpselect=https://cas.cuni.cz/idp/shibboleth&amp;entityID=https://cas.cuni.cz/idp/shibboleth&amp;T=JS&amp;PAGE=main&amp;D=gref" xr:uid="{37D99E7A-8D49-4D3F-B60B-743FD105AF91}"/>
+    <hyperlink ref="A77" r:id="rId72" display="https://pubs.geoscienceworld.org/institutional-login" xr:uid="{F0F5AD95-1A8E-4FBB-859E-ADE22844B58C}"/>
+    <hyperlink ref="A78" r:id="rId73" display="https://cunicz.sharepoint.com/:b:/s/ukuk-eiz/EUVCu6IcIBBCgOt5EQMvz4wBvWoDIr_26l3HqHIUsBNF6w" xr:uid="{815BB46F-6C6C-4FAE-AA43-92B8DDEF5293}"/>
+    <hyperlink ref="A79" r:id="rId74" display="http://www.greeninfoonline.com/" xr:uid="{BA20BE6F-59E3-45DB-B02B-6955100A456D}"/>
+    <hyperlink ref="A80" r:id="rId75" display="https://www.degruyter.com/applib/openathens?entityID=https://cas.cuni.cz/idp/shibboleth&amp;openAthens2Redirect=/db/ibz" xr:uid="{F3C41D6B-5701-4274-970D-D906953A1FD3}"/>
+    <hyperlink ref="A81" r:id="rId76" display="http://www.icpsr.umich.edu/" xr:uid="{86CA0468-77A4-4F5F-A460-6E42DD6AB61C}"/>
+    <hyperlink ref="A82" r:id="rId77" display="http://ieeexplore.ieee.org/servlet/wayf.jsp?entityId=https://cas.cuni.cz/idp/shibboleth&amp;url=http%3A%2F%2Fieeexplore.ieee.org%2FXplore%2Fhome.jsp" xr:uid="{7A308B7D-0DEE-46C0-8C38-652CA90CFF8E}"/>
+    <hyperlink ref="A83" r:id="rId78" display="https://www.ixtheo.de/" xr:uid="{B5C18366-28DF-4755-AA88-DE869245BE0F}"/>
+    <hyperlink ref="A84" r:id="rId79" display="https://myiopscience.iop.org/signin?origin=deeplink&amp;entity=https%3A%2F%2Fcas.cuni.cz%2Fidp%2Fshibboleth&amp;target=http%3A%2F%2Fiopscience.iop.org%2F" xr:uid="{BFECAE69-F4B9-4463-A736-F80256E399DD}"/>
+    <hyperlink ref="A86" r:id="rId80" display="https://www.jbe-platform.com/session/ext/shib?url=%2F" xr:uid="{035CED96-52B8-453A-97B0-4B5D7BF6358B}"/>
+    <hyperlink ref="A87" r:id="rId81" display="http://login.incites.clarivate.com/?auth=ShibbolethIdPForm2_IC2JCR&amp;entityID=https://cas.cuni.cz/idp/shibboleth&amp;ShibFederation=CzechFederation" xr:uid="{AF01A132-D951-4198-8735-CAD61A4B7AAA}"/>
+    <hyperlink ref="A88" r:id="rId82" display="https://shibbolethsp.jstor.org/start?entityID=https%3A%2F%2Fcas.cuni.cz%2Fidp%2Fshibboleth&amp;dest=https://www.jstor.org/&amp;site=jstor" xr:uid="{60EAFFC1-C154-4324-889E-EA3CB087C34A}"/>
+    <hyperlink ref="A90" r:id="rId83" display="https://auth.karger.com/Wayfless?entity=https://cas.cuni.cz/idp/shibboleth&amp;target=https://www.karger.com/Journal/IndexListAZ" xr:uid="{40E391AE-61BB-4B09-BC72-0275332DE931}"/>
+    <hyperlink ref="A91" r:id="rId84" display="https://www-klapp-online-de.ezproxy.is.cuni.cz/cgi-bin/koha/opac-main.pl" xr:uid="{3B5B4148-F20A-4C12-A97D-48AA56E63985}"/>
+    <hyperlink ref="A93" r:id="rId85" display="http://search.ebscohost.com/login.aspx?authtype=shib&amp;custid=s1240919&amp;profile=ehost&amp;defaultdb=lgs" xr:uid="{7EFD551F-E0F3-4167-B401-C91F22B4F793}"/>
+    <hyperlink ref="A94" r:id="rId86" display="https://login.ezproxy.is.cuni.cz/login?url=http://search.ebscohost.com/login.aspx?authtype=ip&amp;custid=s1240919&amp;profile=ehost&amp;defaultdb=lxh" xr:uid="{CA192C1E-BEB6-403E-85FE-A068235D42A1}"/>
+    <hyperlink ref="A95" r:id="rId87" display="https://lindat.mff.cuni.cz/cs/" xr:uid="{DBBDEB99-EE3C-406F-892A-71ACFA6154F0}"/>
+    <hyperlink ref="A96" r:id="rId88" display="https://openathens.ovid.com/OAKeystone/deeplink?idpselect=https://cas.cuni.cz/idp/shibboleth&amp;entityID=https://cas.cuni.cz/idp/shibboleth&amp;T=JS&amp;PAGE=main&amp;D=yrovft" xr:uid="{F836279E-E021-4CA6-8A10-3BEB99636447}"/>
+    <hyperlink ref="A97" r:id="rId89" display="http://www.manuscriptorium.com/index.php?q=cs" xr:uid="{663B65FC-354F-4334-91CE-5DBC12F67508}"/>
+    <hyperlink ref="A98" r:id="rId90" display="https://ezproxy.is.cuni.cz/login?url=https://www.ams.org/mathscinet/" xr:uid="{118890DD-ABF6-4B2B-9B38-6467295B017A}"/>
+    <hyperlink ref="A99" r:id="rId91" display="https://openathens.ovid.com/OAKeystone/deeplink?idpselect=https://cas.cuni.cz/idp/shibboleth&amp;entityID=https://cas.cuni.cz/idp/shibboleth&amp;T=JS&amp;PAGE=main&amp;D=mesz" xr:uid="{AFF472EA-8C57-4D42-9A58-1E49B210CB54}"/>
+    <hyperlink ref="A100" r:id="rId92" display="http://www.merck.com/pubs/" xr:uid="{5C73B27B-BF90-4358-908B-E32C1713013A}"/>
+    <hyperlink ref="A101" r:id="rId93" display="https://ndk.cz/podminky-zpristupneni?target=https://ndk.cz/" xr:uid="{8C232780-CB0C-4428-A08D-5A26868A4179}"/>
+    <hyperlink ref="A102" r:id="rId94" display="https://ndk.cz/podminky-zpristupneni?" xr:uid="{0C8F23F5-AC35-4DEA-A1B3-DF24617F7720}"/>
+    <hyperlink ref="A103" r:id="rId95" display="http://www.oapen.org/" xr:uid="{E4D2FAB2-73F0-4FE0-AD1A-93B7F0BF2C4B}"/>
+    <hyperlink ref="A104" r:id="rId96" display="https://www.oecd-ilibrary.org/session/ext/shib?url=&amp;entityId=https://cas.cuni.cz/idp/shibboleth" xr:uid="{F8DCCC4A-2FC1-497F-89F0-FB30D5C69ABD}"/>
+    <hyperlink ref="A105" r:id="rId97" display="http://www.un.org/en/documents/ods/" xr:uid="{D7678B06-5839-442D-92F9-E871AEEAB0EF}"/>
+    <hyperlink ref="A106" r:id="rId98" display="https://vzlbs2.gbv.de/DB=55/" xr:uid="{B4F3D9A3-4231-43B5-B4F2-16B9892D97CB}"/>
+    <hyperlink ref="A107" r:id="rId99" display="https://www.openaire.eu/plugins/user/oneloginsaml/oneloginsaml.php?sso" xr:uid="{2E9A7126-3530-417A-A60D-EFC977B8C5A8}"/>
+    <hyperlink ref="A108" r:id="rId100" display="http://ezproxy.is.cuni.cz/login?url=http://openlibrary.org/borrow" xr:uid="{D3604AE0-BB0C-4025-9634-0003BF07C454}"/>
+    <hyperlink ref="A109" r:id="rId101" display="https://openresearchlibrary.org/home" xr:uid="{97565B68-DC4A-4E73-8E80-DBDE1852AF8A}"/>
+    <hyperlink ref="A110" r:id="rId102" display="https://shibboleth2sp.sams.oup.com/Shibboleth.sso/Login?entityID=https://cas.cuni.cz/idp/shibboleth&amp;target=https%3A%2F%2Fshibboleth2sp.sams.oup.com/shib?dest=https://www.oxfordbibliographies.com/SHIBBOLETH?dest=%2F" xr:uid="{CDADC58E-350B-4D91-AFC7-751BA320AB2C}"/>
+    <hyperlink ref="A111" r:id="rId103" display="https://shibboleth2sp.sams.oup.com/Shibboleth.sso/Login?entityID=https://cas.cuni.cz/idp/shibboleth&amp;target=https%3A%2F%2Fshibboleth2sp.sams.oup.com/shib%3Fdest=http%3A%2F%2Fwww.oed.com/SHIBBOLETH?dest=%2F" xr:uid="{1DB9EBAB-8724-484C-BC27-47BA93138575}"/>
+    <hyperlink ref="A112" r:id="rId104" display="https://ezproxy.is.cuni.cz/login?url=https://www.oxfordhandbooks.com/browse?t0=ORR:LAW00010" xr:uid="{4BDA6E80-D9AD-4379-8BBF-0DF4DB6CDF05}"/>
+    <hyperlink ref="A113" r:id="rId105" display="https://shibboleth2sp.sams2.oup.com/Shibboleth.sso/Login?entityID=https%3A%2F%2Fcas.cuni.cz%2Fidp%2Fshibboleth&amp;target=https%3A%2F%2Fshibboleth2sp.sams2.oup.com/shib%3Fdest=https%3A%2F%2Facademic.oup.com%2FSHIBBOLETH?dest=%2Fjournals" xr:uid="{D4B1919E-F55D-4D0A-945F-226E0D1FC499}"/>
+    <hyperlink ref="A114" r:id="rId106" display="https://shibboleth2sp.sams.oup.com/Shibboleth.sso/Login?entityID=https://cas.cuni.cz/idp/shibboleth&amp;target=https%3A%2F%2Fshibboleth2sp.sams.oup.com/shib?dest=https://www.oxfordmedicine.com/SHIBBOLETH?dest=%2F" xr:uid="{20C45779-8591-4CA8-92BB-D6AB8B0BD3D9}"/>
+    <hyperlink ref="A115" r:id="rId107" display="https://shibboleth2sp.sams.oup.com/Shibboleth.sso/Login?entityID=https://cas.cuni.cz/idp/shibboleth&amp;target=https%3A%2F%2Fshibboleth2sp.sams.oup.com/shib%3Fdest=https://oxford.universitypressscholarship.com/SHIBBOLETH?dest=%2F" xr:uid="{763BE611-7345-4C2C-A118-A3F7FD47DDBB}"/>
+    <hyperlink ref="A116" r:id="rId108" display="http://www.persee.fr/web/guest/home" xr:uid="{3CCEF6B6-2522-46B3-B7A8-4BE02680EE63}"/>
+    <hyperlink ref="A117" r:id="rId109" display="http://search.ebscohost.com/login.aspx?authtype=shib&amp;profile=ehost&amp;custid=s1240919&amp;defaultdb=poh" xr:uid="{8FA98509-92F7-4EC9-AA78-2A6CE0F8CB21}"/>
+    <hyperlink ref="A118" r:id="rId110" display="https://ebookcentral.proquest.com/lib/cuni" xr:uid="{55EFB8DC-746E-4174-9D2D-14FCA1FC90AF}"/>
+    <hyperlink ref="A119" r:id="rId111" display="https://ezdroje.cuni.cz/prehled/index.php?lang=cs&amp;type=fakulty&amp;fids=28" xr:uid="{20015E11-AD02-421B-A14A-95F74FFE80C9}"/>
+    <hyperlink ref="A120" r:id="rId112" display="http://search.proquest.com/publiccontent/shibboleth?accountid=15618" xr:uid="{B075D399-C337-405C-90B1-0A554E8BB744}"/>
+    <hyperlink ref="A121" r:id="rId113" display="https://ecuni.publi.cz/" xr:uid="{999C5B5B-D9C3-4E2D-AEB4-3FFBD18D2CC8}"/>
+    <hyperlink ref="A122" r:id="rId114" display="http://ezproxy.is.cuni.cz/login?url=http://www.ncbi.nlm.nih.gov/pubmed?otool=iczcplib" xr:uid="{13A8ABFF-2B1E-4EF0-93E1-15EA4695ED35}"/>
+    <hyperlink ref="A123" r:id="rId115" display="http://web.nli.org.il/sites/NLI/English/infochannels/Catalogs/bibliographic-databases/rambi/Pages/rambi.aspx" xr:uid="{5EBF7A68-36C6-414F-BE67-2877AEBDAD7D}"/>
+    <hyperlink ref="A124" r:id="rId116" display="https://auth.elsevier.com/ShibAuth/institutionLogin?entityID=https%3A%2F%2Fcas.cuni.cz%2Fidp%2Fshibboleth&amp;appReturnURL=https%3A%2F%2Fwww.reaxys.com%2Fservices%2Foauth%2Fshibboleth-sso" xr:uid="{E91E3930-E762-49D3-BD92-5DCACD4571E7}"/>
+    <hyperlink ref="A125" r:id="rId117" display="http://opac.rism.info/" xr:uid="{0BEA2E46-6132-4E9C-A085-77D38F269297}"/>
+    <hyperlink ref="A126" r:id="rId118" display="https://is.cuni.cz/webapps/zzp/search/?tab_searchas=basic&amp;lang=cs" xr:uid="{903B3F9D-E294-4678-9D78-18BC5AD60088}"/>
+    <hyperlink ref="A127" r:id="rId119" display="https://www.rsc.org/rsc-id/account/checkfederatedaccess?instituteurl=https%3A%2F%2Fcas.cuni.cz%2Fidp%2Fshibboleth&amp;returnurl=https%3A%2F%2Fpubs.rsc.org" xr:uid="{6935C73C-CDEF-471B-8F4E-9621E4C1ECD1}"/>
+    <hyperlink ref="A128" r:id="rId120" display="http://iam.atypon.com/action/ssostart?idp=https%3A%2F%2Fcas.cuni.cz%2Fidp%2Fshibboleth&amp;redirectUri=%2F&amp;targetSP=https%3A%2F%2Fjournals.sagepub.com" xr:uid="{3E8A75AB-5E20-4375-9B47-705670ACBDAF}"/>
+    <hyperlink ref="A129" r:id="rId121" display="http://ezproxy.is.cuni.cz/login?url=http://knowledge.sagepub.com/" xr:uid="{39601009-ACF1-41BE-B0DF-0CCD98E9A020}"/>
+    <hyperlink ref="A130" r:id="rId122" display="https://www.sciencedirect.com/customer/authenticate?federation_id=2026&amp;institution_id=18945&amp;auth_type=SHIBBOLETH&amp;targetURL=%2F" xr:uid="{3387BE85-7530-4076-92FB-123BBF010AF1}"/>
+    <hyperlink ref="A131" r:id="rId123" display="http://ezproxy.is.cuni.cz/login?url=https://scifinder.cas.org" xr:uid="{5F3ACAB8-E5A3-40DE-8E6B-5BA0950BD154}"/>
+    <hyperlink ref="A132" r:id="rId124" display="https://auth.elsevier.com/ShibAuth/institutionLogin?entityID=https%3A%2F%2Fcas.cuni.cz%2Fidp%2Fshibboleth&amp;appReturnURL=http%3A%2F%2Fwww.scopus.com" xr:uid="{FFE569AE-CF2B-49B4-9B15-F1715B01B456}"/>
+    <hyperlink ref="A133" r:id="rId125" display="http://iam.atypon.com/action/ssostart?idp=https%3A%2F%2Fcas.cuni.cz%2Fidp%2Fshibboleth&amp;redirectUri=%2Fjournals&amp;targetSP=https%3A%2F%2Fepubs.siam.org" xr:uid="{D1AFD3A3-A56B-4F87-9136-A02087F0AD12}"/>
+    <hyperlink ref="A134" r:id="rId126" display="http://www.ssrn.com/" xr:uid="{244DC937-A5A7-4F73-BF71-7899CF620F0D}"/>
+    <hyperlink ref="A135" r:id="rId127" display="https://fsso.springer.com/federation/init?entityId=https://cas.cuni.cz/idp/shibboleth&amp;returnUrl=http://link.springer.com/" xr:uid="{092D2F51-395F-4550-9AAB-9F79AAE4EA3E}"/>
+    <hyperlink ref="A136" r:id="rId128" display="https://www-morganclaypool-com.ezproxy.is.cuni.cz/page/synthesis" xr:uid="{993CD44E-E04F-49B3-AC29-B3BFF6725E29}"/>
+    <hyperlink ref="A137" r:id="rId129" display="https://www.taylorfrancis.com/start-session?idp=https://cas.cuni.cz/idp/shibboleth&amp;redirectUri=https://www.taylorfrancis.com" xr:uid="{01FA6968-7C99-4F15-BA92-90C1A26603C7}"/>
+    <hyperlink ref="A138" r:id="rId130" display="http://www.tandfonline.com/action/ssostart?idp=https%3A%2F%2Fcas.cuni.cz%2Fidp%2Fshibboleth&amp;redirectUri=%2F" xr:uid="{054FA973-93CB-4A2B-9218-DD965793CC5C}"/>
+    <hyperlink ref="A139" r:id="rId131" display="http://www.teacherreference.com/" xr:uid="{D5BBA35E-FF32-4506-97A9-3F0DB3B91289}"/>
+    <hyperlink ref="A140" r:id="rId132" display="https://www.arts.kuleuven.be/sinologie/english/cct" xr:uid="{290C187B-96FE-4E66-A808-7519A192728C}"/>
+    <hyperlink ref="A141" r:id="rId133" display="http://ezproxy.is.cuni.cz/login?url=http://stephanus.tlg.uci.edu/" xr:uid="{83D7F942-7564-46FD-A3E9-602FCC75FDA0}"/>
+    <hyperlink ref="A142" r:id="rId134" display="https://profile.thieme.de/HTML/sso/er/cp_er_shibboleth.htm?wayfless=ZmVkZXJhdGlvbmlkPWh0dHBzOi8vZWR1aWQuY3ovbWV0YWRhdGEmZW50aXR5aWQ9aHR0cHM6Ly9jYXMuY3VuaS5jei9pZHAvc2hpYmJvbGV0aA%3D%3D&amp;hook_url=https%3A%2F%2Fmedone-education.thieme.com" xr:uid="{0B07D280-7DD9-4C4E-AB7A-E6C1000AAB94}"/>
+    <hyperlink ref="A143" r:id="rId135" display="https://ezproxy.is.cuni.cz/login?url=https://ulrichsweb.serialssolutions.com/" xr:uid="{68E29B08-2AEA-4716-B4D7-366AA65A58F6}"/>
+    <hyperlink ref="A144" r:id="rId136" display="http://vis.idu.cz/" xr:uid="{C20283D7-D775-4D1C-9042-368A9FA5D019}"/>
+    <hyperlink ref="A145" r:id="rId137" display="http://www.webofknowledge.com/?auth=ShibbolethIdPForm&amp;entityID=https://cas.cuni.cz/idp/shibboleth&amp;target=https%253A%252F%252Fwww.webofknowledge.com%252F%253FDestApp%253DWOS&amp;ShibFederation=CzechFederation&amp;DestApp=WOS" xr:uid="{CA927AB8-D4FF-44D3-89E2-C7EE29E1E9B5}"/>
+    <hyperlink ref="A146" r:id="rId138" display="https://www.wikiskripta.eu/" xr:uid="{33E4D557-0130-4F42-9E6C-9B12B8BAB852}"/>
+    <hyperlink ref="A147" r:id="rId139" display="http://wikisofia.cz/" xr:uid="{F543DD83-FCE6-429F-A7B1-68403001A774}"/>
+    <hyperlink ref="A148" r:id="rId140" display="https://onlinelibrary.wiley.com/action/ssostart?idp=https://cas.cuni.cz/idp/shibboleth&amp;redirectUri=https://onlinelibrary.wiley.com/" xr:uid="{27204B2E-CE42-4C74-B1C9-EB0335E46C1D}"/>
+    <hyperlink ref="A149" r:id="rId141" location="/homepage/main-page" display="https://www-worldchristiandatabase-org.ezproxy.is.cuni.cz/wcd/ - /homepage/main-page" xr:uid="{13FACE57-AA44-4124-9F14-15C254AD1D3C}"/>
     <hyperlink ref="A44" r:id="rId142" xr:uid="{DE4B468D-1452-4BC3-8E27-0D8F216B52FE}"/>
-    <hyperlink ref="B24" r:id="rId143" xr:uid="{E72D54A4-91A6-4431-B4B9-57C554A14E9A}"/>
-    <hyperlink ref="B39" r:id="rId144" xr:uid="{1161B3DE-5AF0-47BC-AED6-2B2E7D42D1B9}"/>
-    <hyperlink ref="B149" r:id="rId145" xr:uid="{8F944467-4AA8-4943-BE23-88D29760E3A6}"/>
-    <hyperlink ref="B33" r:id="rId146" xr:uid="{A2298AA5-0EFC-4DE8-9B30-0E9C5E220291}"/>
-    <hyperlink ref="B34" r:id="rId147" xr:uid="{6EE6FEB7-1361-4908-9446-C46EFC1185FC}"/>
-    <hyperlink ref="B119" r:id="rId148" xr:uid="{469ECC17-2973-4C75-A333-DF1E5BC5ADAB}"/>
-    <hyperlink ref="B120" r:id="rId149" xr:uid="{B08B16DE-DFDF-4E68-AB6C-5DA6781A33E3}"/>
-    <hyperlink ref="B38" r:id="rId150" xr:uid="{BA3B2AED-B325-44CC-963A-59D39AFA4536}"/>
-    <hyperlink ref="B107" r:id="rId151" xr:uid="{EBB79F4D-14B9-47C2-A367-9697A061A42D}"/>
-    <hyperlink ref="B148" r:id="rId152" xr:uid="{8B403CE0-91FC-4665-82E4-CEF81E63FC75}"/>
-    <hyperlink ref="B12" r:id="rId153" xr:uid="{7062BE10-9146-4D11-9AEE-99E2CC3E86D7}"/>
-    <hyperlink ref="B2:B11" r:id="rId154" xr:uid="{5F34FF1D-DDBD-4EFF-AE6E-732643DF42D2}"/>
-    <hyperlink ref="B13" r:id="rId155" xr:uid="{93CFEDE4-956C-43FE-AE48-DE50902635F2}"/>
-    <hyperlink ref="B14" r:id="rId156" xr:uid="{BFD0D084-DE50-49D0-9960-80095B957C5E}"/>
-    <hyperlink ref="B15" r:id="rId157" xr:uid="{0901B883-ADD7-498E-8AE0-4D8E001A12C8}"/>
-    <hyperlink ref="B16" r:id="rId158" xr:uid="{3CDEDB41-00E4-4FCF-819F-2BF009EE1862}"/>
-    <hyperlink ref="B17" r:id="rId159" xr:uid="{8B4EE105-7BAF-46F7-BC49-1CCC5D5A898E}"/>
-    <hyperlink ref="B18" r:id="rId160" xr:uid="{629526B6-9BE8-4961-9AF1-8E56D09079BB}"/>
-    <hyperlink ref="B19" r:id="rId161" xr:uid="{880C5EAC-EB51-414F-ACFD-C6CB61B735C5}"/>
-    <hyperlink ref="B20" r:id="rId162" xr:uid="{0918F63F-26A0-4E9C-A838-BCD613A889A7}"/>
-    <hyperlink ref="B21" r:id="rId163" xr:uid="{494A95E7-3F44-417C-9544-B4D682663627}"/>
-    <hyperlink ref="B22" r:id="rId164" xr:uid="{293AF3B4-1B6C-4B9C-8236-579750AA3CD4}"/>
-    <hyperlink ref="B23" r:id="rId165" xr:uid="{3CEFD6A6-9C53-424E-843B-326F50889647}"/>
-    <hyperlink ref="B25" r:id="rId166" xr:uid="{F6D51B36-9712-4752-B61D-F4F1649D3CEE}"/>
-    <hyperlink ref="B26" r:id="rId167" xr:uid="{E98F77E0-A850-40B6-92D3-F27A1F7224EC}"/>
-    <hyperlink ref="B27" r:id="rId168" xr:uid="{9F3B07B7-C170-4680-B0EE-54BA296796CF}"/>
-    <hyperlink ref="B28" r:id="rId169" xr:uid="{F3F88F68-DB10-4435-AC94-4DE562444A10}"/>
-    <hyperlink ref="B29" r:id="rId170" xr:uid="{F0190073-EE94-45D5-B70D-BADC11129C9A}"/>
-    <hyperlink ref="B30" r:id="rId171" xr:uid="{9C53F34D-FFD4-46DB-8DCA-E1972AD749D7}"/>
-    <hyperlink ref="B31" r:id="rId172" xr:uid="{C4990409-D918-4C82-9B29-5062CEE1A0D0}"/>
-    <hyperlink ref="B32" r:id="rId173" xr:uid="{8CB7E3A2-4BC9-4A2E-BB79-60CEC5763329}"/>
-    <hyperlink ref="B35" r:id="rId174" xr:uid="{83C902BE-418A-40EB-831C-CD7336ACE178}"/>
-    <hyperlink ref="B36" r:id="rId175" xr:uid="{ED55D577-734A-40A4-A03E-C82F92C146DD}"/>
-    <hyperlink ref="B37" r:id="rId176" xr:uid="{6B2A7D57-55B5-41A4-9989-13602EAC9EDB}"/>
-    <hyperlink ref="A91" r:id="rId177" display="http://classiques.uqac.ca/" xr:uid="{130F7F3F-0FC0-4D40-8E97-B2C973DC8233}"/>
-    <hyperlink ref="B91" r:id="rId178" xr:uid="{79931180-73DE-40C4-BBA0-5FC561C5C4DA}"/>
-    <hyperlink ref="B40" r:id="rId179" xr:uid="{452E7426-66D1-47EC-B279-BC92C74E1905}"/>
-    <hyperlink ref="B41" r:id="rId180" xr:uid="{093ECAB3-F968-4C39-A8C7-260BEC0651B0}"/>
-    <hyperlink ref="B42" r:id="rId181" xr:uid="{00973828-49B4-4FE1-B78A-B8A05A1B7E80}"/>
-    <hyperlink ref="B43" r:id="rId182" xr:uid="{680ABD29-2906-4427-A11B-65EFEA865A89}"/>
-    <hyperlink ref="B44" r:id="rId183" xr:uid="{EBE4A31F-A70D-4B2B-89ED-A1FFA86B00F3}"/>
-    <hyperlink ref="B45" r:id="rId184" xr:uid="{79FF37F7-C112-4E70-9E11-CA123ECFCD8D}"/>
-    <hyperlink ref="A47" r:id="rId185" display="http://kramerius.fsv.cuni.cz/search/?language=cs&amp;" xr:uid="{762F48CA-D90B-4F6B-BF21-B16822F75DC6}"/>
-    <hyperlink ref="A46" r:id="rId186" display="https://ndk.cz/podminky-zpristupneni?target=https://ndk.cz/" xr:uid="{BAB4AA02-93FA-4972-B2B3-D56C2654B517}"/>
-    <hyperlink ref="B46" r:id="rId187" xr:uid="{5B9032C3-A960-4DA8-87A0-C51075ACAABF}"/>
-    <hyperlink ref="B48" r:id="rId188" xr:uid="{BD2C52DC-0D3C-4FF7-9F74-558A67B355C9}"/>
-    <hyperlink ref="B47" r:id="rId189" xr:uid="{6A1418C1-8094-4BF5-A87B-74CA826700FD}"/>
-    <hyperlink ref="B49" r:id="rId190" xr:uid="{5EF0B4D5-DFEA-495C-8345-81ED718FECE4}"/>
-    <hyperlink ref="B50" r:id="rId191" xr:uid="{538AD341-FB17-4D4E-AA13-0AAA9A92417F}"/>
-    <hyperlink ref="B51" r:id="rId192" xr:uid="{399AEBE4-41BC-436B-B66C-9CBA8DCFD753}"/>
-    <hyperlink ref="B52" r:id="rId193" xr:uid="{1FD57E0C-81FA-4B5C-8A7B-C69C7F5B0CA4}"/>
-    <hyperlink ref="B53" r:id="rId194" xr:uid="{13394B27-632C-4F23-8F78-8BFA8B606A3F}"/>
-    <hyperlink ref="B54" r:id="rId195" xr:uid="{FE257F2D-E262-4F63-B52D-C17426EE2C4F}"/>
-    <hyperlink ref="B55" r:id="rId196" xr:uid="{FED048CD-A9B0-4D0B-BE34-54459C0DED07}"/>
-    <hyperlink ref="B56" r:id="rId197" xr:uid="{9DDFAF5D-649F-4514-BB71-AFAE560877F4}"/>
-    <hyperlink ref="B57" r:id="rId198" xr:uid="{1F14D014-C88B-4D64-B38F-86699772ED52}"/>
-    <hyperlink ref="B58" r:id="rId199" xr:uid="{2233DBFE-1DD0-483F-8532-109410374CE0}"/>
-    <hyperlink ref="B59" r:id="rId200" xr:uid="{2CC2832C-1749-4878-930A-CFE455BD54F2}"/>
-    <hyperlink ref="B60" r:id="rId201" xr:uid="{B8807E5A-9984-4FEF-B31A-0A57AE4F66A5}"/>
-    <hyperlink ref="B62" r:id="rId202" xr:uid="{BF46A372-22BF-4D3F-905E-7039F44C43D0}"/>
-    <hyperlink ref="B61" r:id="rId203" xr:uid="{83CE7535-9385-40F0-A45D-BB5BAE6EE3B6}"/>
-    <hyperlink ref="B63" r:id="rId204" xr:uid="{461827F2-F724-46D3-82E5-0252FB8AE10C}"/>
-    <hyperlink ref="B64" r:id="rId205" xr:uid="{AF77F90F-812C-4C7A-868E-94AFD0FDA993}"/>
-    <hyperlink ref="B65" r:id="rId206" xr:uid="{CEC5736B-ED61-49DF-859B-D24A4BEBFB05}"/>
-    <hyperlink ref="B66" r:id="rId207" xr:uid="{0AD2131A-BEF5-4125-AA86-263C2B1DEC04}"/>
-    <hyperlink ref="B67" r:id="rId208" xr:uid="{60DD5530-09B6-4146-A8BC-8F81D03001C4}"/>
-    <hyperlink ref="B68" r:id="rId209" xr:uid="{2961FB13-4D8C-4D7E-9809-C06ECAA73B79}"/>
-    <hyperlink ref="B69" r:id="rId210" xr:uid="{241F3CEB-8FB6-4F7D-97F1-94B644402AB6}"/>
-    <hyperlink ref="B70" r:id="rId211" xr:uid="{910EEB5E-AC55-4042-BB3C-CD32F7E852BF}"/>
-    <hyperlink ref="B71" r:id="rId212" xr:uid="{6A77D357-DBF7-4C75-A83C-AEB000E7CCBF}"/>
-    <hyperlink ref="B72" r:id="rId213" xr:uid="{34CD9CB1-C208-4DA9-9497-31251E613D51}"/>
-    <hyperlink ref="B73" r:id="rId214" xr:uid="{AD00135C-0228-439B-AAC1-2A75E4A29D55}"/>
-    <hyperlink ref="B74" r:id="rId215" xr:uid="{B1966BB9-4D5C-4314-81F4-40F471AA1AEB}"/>
-    <hyperlink ref="B75" r:id="rId216" xr:uid="{D05A3242-0D2A-48E8-B34B-B48DF9ACB8B9}"/>
-    <hyperlink ref="B76" r:id="rId217" xr:uid="{8B5E7887-EFD5-4B6B-8337-926D43989DA6}"/>
-    <hyperlink ref="B101" r:id="rId218" xr:uid="{A0664FED-49D6-4B8F-A987-D024743E31E9}"/>
-    <hyperlink ref="B89" r:id="rId219" xr:uid="{2FD3E03A-5B45-4BF3-B91C-1B070568A85D}"/>
-    <hyperlink ref="A88" r:id="rId220" display="https://auth.karger.com/?returnUrl=/BookSeries/Home/254810" xr:uid="{1D45D12F-B61C-483D-9C0E-9BB99499C0D8}"/>
-    <hyperlink ref="B88" r:id="rId221" xr:uid="{5F43D562-359F-4D0A-A6D7-83BCC81EE5C7}"/>
-    <hyperlink ref="B77" r:id="rId222" xr:uid="{B183033D-5F2D-4B22-8519-CDE4F6A677D6}"/>
-    <hyperlink ref="B78" r:id="rId223" xr:uid="{1C9C8BA8-7D8C-46A9-B1D5-4D3094B33BC5}"/>
-    <hyperlink ref="B79" r:id="rId224" xr:uid="{675756E7-B53C-4056-B4B4-9D9071DD0F33}"/>
-    <hyperlink ref="B80" r:id="rId225" xr:uid="{C0A5ABF9-571A-4915-8E1E-1FB3E2DC97E9}"/>
-    <hyperlink ref="B81" r:id="rId226" xr:uid="{991810F3-D182-4CA6-B0B7-E817E1D8CFB8}"/>
-    <hyperlink ref="B82" r:id="rId227" xr:uid="{A638F610-5D98-4E17-9806-37697CEEBCE0}"/>
-    <hyperlink ref="A84" r:id="rId228" display="https://www.ireon-portal.eu/" xr:uid="{7616849A-EFE8-4DAF-BB8D-669ED3A5DDDE}"/>
-    <hyperlink ref="B84" r:id="rId229" xr:uid="{F7CDF2C8-3EE4-48EB-80F8-601D04CDD559}"/>
-    <hyperlink ref="B83" r:id="rId230" xr:uid="{8191F90D-9502-445A-9C33-61B449C8EA47}"/>
-    <hyperlink ref="B85" r:id="rId231" xr:uid="{57E34F8D-4555-4BB4-911A-C1A00E41E840}"/>
-    <hyperlink ref="B86" r:id="rId232" xr:uid="{A6D472F7-6689-4F4B-8F5D-365F1C65AB33}"/>
-    <hyperlink ref="B87" r:id="rId233" xr:uid="{0FC96AFA-0DAD-40B6-9D53-3F15D9CDBEEA}"/>
-    <hyperlink ref="B90" r:id="rId234" xr:uid="{CC31C4C6-D5E2-49D0-939F-0848981B5CC2}"/>
-    <hyperlink ref="B93" r:id="rId235" xr:uid="{8B4E7A66-C6AD-401D-B894-4056FB3F3E9E}"/>
-    <hyperlink ref="B94" r:id="rId236" xr:uid="{2C41F765-28F0-4CF1-8DE1-44EF67C7D187}"/>
-    <hyperlink ref="B95" r:id="rId237" xr:uid="{EE8BC927-C640-4D7C-ABA6-A82481E95349}"/>
-    <hyperlink ref="B96" r:id="rId238" xr:uid="{5BE7EC5F-39EB-4DEA-AB08-498268F0D9AE}"/>
-    <hyperlink ref="B97" r:id="rId239" xr:uid="{F0D308C1-9422-48C0-A6B5-E0A62A5FDDF2}"/>
-    <hyperlink ref="B98" r:id="rId240" xr:uid="{D5330601-CD7A-41A1-89FC-DCCCEC0321BB}"/>
-    <hyperlink ref="B99" r:id="rId241" xr:uid="{6BC3ACAB-BCB2-46FA-9AFE-0A86AAD7D5C9}"/>
-    <hyperlink ref="B102" r:id="rId242" xr:uid="{F9827899-AAB1-4BD5-8D3D-ECD78D6DC5FA}"/>
-    <hyperlink ref="B103" r:id="rId243" xr:uid="{4E4611DA-DC59-4A21-A20E-406B22646C56}"/>
-    <hyperlink ref="B104" r:id="rId244" xr:uid="{DE07C688-8467-4863-A2C2-9477542ABCCD}"/>
-    <hyperlink ref="B105" r:id="rId245" xr:uid="{3ADD6985-F343-4D44-9585-FD22B28333B7}"/>
-    <hyperlink ref="B106" r:id="rId246" xr:uid="{97D3A6DD-7EC1-4E1D-B911-BC3A5ED0C3A8}"/>
-    <hyperlink ref="B108" r:id="rId247" xr:uid="{AF78B01E-2006-4410-86ED-6E1B375B9480}"/>
-    <hyperlink ref="B109" r:id="rId248" xr:uid="{B15E0A03-E95F-4BFA-9873-BFA9CE42B656}"/>
-    <hyperlink ref="B110" r:id="rId249" xr:uid="{FEE8177D-0875-4FFF-8F25-77C15A540451}"/>
-    <hyperlink ref="B111" r:id="rId250" xr:uid="{F8E19BBF-92AC-4636-9AA6-357D336AA390}"/>
-    <hyperlink ref="B112" r:id="rId251" xr:uid="{EB31069E-C854-4835-8789-8E9428ED12D4}"/>
-    <hyperlink ref="B113" r:id="rId252" xr:uid="{0F694713-F391-4A64-A103-714A800AD825}"/>
-    <hyperlink ref="B114" r:id="rId253" xr:uid="{B5688855-F199-4F75-8B0C-B071483B6DBD}"/>
-    <hyperlink ref="B115" r:id="rId254" xr:uid="{91E62922-C20B-425A-89D5-E7F3AF5EE387}"/>
-    <hyperlink ref="B117" r:id="rId255" xr:uid="{AD146BCA-CD72-4B53-9CF2-C5CF35C0461C}"/>
-    <hyperlink ref="B118" r:id="rId256" xr:uid="{FEABFA40-95DD-4394-8C07-D18DEE90EA3D}"/>
-    <hyperlink ref="B121" r:id="rId257" xr:uid="{DB31E37E-4807-4017-9349-972CE73A49D7}"/>
-    <hyperlink ref="B122" r:id="rId258" xr:uid="{A20D4F62-C55D-4632-A6F5-5E1E7751785B}"/>
-    <hyperlink ref="B123" r:id="rId259" xr:uid="{DF083965-0F6A-41F5-BAD7-E34FEEBD6A67}"/>
-    <hyperlink ref="B124" r:id="rId260" xr:uid="{402710B8-8B0C-4361-A2BC-42DB1216614C}"/>
-    <hyperlink ref="B125" r:id="rId261" xr:uid="{44B2BC9B-BB82-42CF-BA53-5C43177D64C0}"/>
-    <hyperlink ref="B126" r:id="rId262" xr:uid="{CD2DEECA-CBB1-4F30-9204-23B0B8B41A34}"/>
-    <hyperlink ref="B127" r:id="rId263" xr:uid="{73BB30B6-3CC4-420D-9F6F-CD1B7BFFDFBB}"/>
-    <hyperlink ref="B128" r:id="rId264" xr:uid="{02374176-11AC-43F3-88AB-10F2E6CB994E}"/>
-    <hyperlink ref="B129" r:id="rId265" xr:uid="{9DE5BF65-D849-4920-B531-802AFE01BB0D}"/>
-    <hyperlink ref="B130" r:id="rId266" xr:uid="{B7CF87DB-CD0D-40A8-8306-2726642A7B29}"/>
-    <hyperlink ref="B131" r:id="rId267" xr:uid="{37A663E7-FCC8-4B5B-81E8-87D6E63B1A39}"/>
-    <hyperlink ref="B133" r:id="rId268" xr:uid="{D5FEBEFF-E4DF-4730-A983-AA1FA6A22ADC}"/>
-    <hyperlink ref="B134" r:id="rId269" xr:uid="{2C1ED2EF-4480-4573-AC79-AB18366CBB01}"/>
-    <hyperlink ref="B135" r:id="rId270" xr:uid="{B8D67300-C160-4B33-B4E5-D982B525A1E2}"/>
-    <hyperlink ref="B136" r:id="rId271" xr:uid="{EACFAAF7-EF5F-425E-BD13-529E5EEEFBB9}"/>
-    <hyperlink ref="B137" r:id="rId272" xr:uid="{8E4D01CB-C96A-4CB9-82B2-73A3C5598506}"/>
-    <hyperlink ref="B138" r:id="rId273" xr:uid="{0288581E-C164-4431-8C1A-E5942E743E5C}"/>
-    <hyperlink ref="B139" r:id="rId274" xr:uid="{B9D34B94-75C8-4481-8E4C-A43EBF4A83F0}"/>
-    <hyperlink ref="B140" r:id="rId275" xr:uid="{5CE21737-D400-48A9-A1BF-D6E14B7A268C}"/>
-    <hyperlink ref="B141" r:id="rId276" xr:uid="{28029E71-F1BF-433C-B13E-BD1DCD1DFC71}"/>
-    <hyperlink ref="B142" r:id="rId277" xr:uid="{774FF427-ED95-46DA-8743-5494FD55A064}"/>
-    <hyperlink ref="B143" r:id="rId278" xr:uid="{AF429706-FCB3-4ACF-B29E-3FD4F88C5DC6}"/>
-    <hyperlink ref="B144" r:id="rId279" xr:uid="{26867E72-DD41-4EA7-AF1C-EDD848B6E012}"/>
-    <hyperlink ref="B145" r:id="rId280" xr:uid="{10853787-3CA6-4CEE-A458-AE91E670D425}"/>
-    <hyperlink ref="B146" r:id="rId281" xr:uid="{B335CC0E-7CFB-416F-9450-F169014F411C}"/>
-    <hyperlink ref="B147" r:id="rId282" xr:uid="{46385813-CDE7-4555-8F73-730735C054A2}"/>
+    <hyperlink ref="A92" r:id="rId143" display="http://classiques.uqac.ca/" xr:uid="{130F7F3F-0FC0-4D40-8E97-B2C973DC8233}"/>
+    <hyperlink ref="A47" r:id="rId144" display="http://kramerius.fsv.cuni.cz/search/?language=cs&amp;" xr:uid="{762F48CA-D90B-4F6B-BF21-B16822F75DC6}"/>
+    <hyperlink ref="A46" r:id="rId145" display="https://ndk.cz/podminky-zpristupneni?target=https://ndk.cz/" xr:uid="{BAB4AA02-93FA-4972-B2B3-D56C2654B517}"/>
+    <hyperlink ref="A89" r:id="rId146" display="https://auth.karger.com/?returnUrl=/BookSeries/Home/254810" xr:uid="{1D45D12F-B61C-483D-9C0E-9BB99499C0D8}"/>
+    <hyperlink ref="A85" r:id="rId147" display="https://www.ireon-portal.eu/" xr:uid="{7616849A-EFE8-4DAF-BB8D-669ED3A5DDDE}"/>
+    <hyperlink ref="A71" r:id="rId148" xr:uid="{09D1ED2C-6E8C-413E-B3EB-70C3C5D57A06}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId283"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId149"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Běžné"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Běžné"&amp;12Stránka &amp;P</oddFooter>
@@ -9618,163 +9498,163 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>499</v>
+      <c r="B2" s="8" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>500</v>
+      <c r="B3" s="8" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>501</v>
+      <c r="B4" s="8" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>502</v>
+      <c r="B5" s="8" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>503</v>
+      <c r="B6" s="8" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>504</v>
+      <c r="B7" s="8" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>505</v>
+      <c r="B8" s="8" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>506</v>
+      <c r="B9" s="8" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>507</v>
+      <c r="B10" s="8" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>508</v>
+      <c r="B11" s="8" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>509</v>
+      <c r="B12" s="8" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>510</v>
+      <c r="B13" s="8" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>511</v>
+      <c r="B14" s="8" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>512</v>
+      <c r="B15" s="8" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>513</v>
+      <c r="B16" s="8" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>514</v>
+      <c r="B17" s="8" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>515</v>
+      <c r="B18" s="8" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>516</v>
+      <c r="B19" s="8" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>517</v>
+      <c r="B20" s="8" t="s">
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -9802,7 +9682,7 @@
         <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -9810,7 +9690,7 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -9818,15 +9698,15 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B4" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -9834,7 +9714,7 @@
         <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -9842,7 +9722,7 @@
         <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -9850,7 +9730,7 @@
         <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -9858,7 +9738,7 @@
         <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -9866,7 +9746,7 @@
         <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -9874,7 +9754,7 @@
         <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -9887,15 +9767,15 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B12" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B13" t="s">
         <v>63</v>
@@ -9903,7 +9783,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B14" t="s">
         <v>66</v>
@@ -9911,15 +9791,15 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B15" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B16" t="s">
         <v>69</v>
@@ -9927,7 +9807,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B17" t="s">
         <v>73</v>
@@ -9951,10 +9831,10 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B20" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -9983,7 +9863,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B24" t="s">
         <v>93</v>
@@ -10015,7 +9895,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B28" t="s">
         <v>105</v>
@@ -10031,7 +9911,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B30" t="s">
         <v>111</v>
@@ -10039,7 +9919,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B31" t="s">
         <v>114</v>
@@ -10047,10 +9927,10 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B32" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -10063,7 +9943,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B34" t="s">
         <v>120</v>
@@ -10071,7 +9951,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B35" t="s">
         <v>123</v>
@@ -10111,18 +9991,18 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B40" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B41" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -10135,18 +10015,18 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B43" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B44" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -10159,10 +10039,10 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B46" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -10199,18 +10079,18 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B51" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B52" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -10223,10 +10103,10 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B54" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -10247,7 +10127,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B57" t="s">
         <v>171</v>
@@ -10263,7 +10143,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B59" t="s">
         <v>175</v>
@@ -10271,7 +10151,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B60" t="s">
         <v>178</v>
@@ -10287,7 +10167,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B62" t="s">
         <v>183</v>
@@ -10295,15 +10175,15 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B63" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B64" t="s">
         <v>186</v>
@@ -10319,15 +10199,15 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B66" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B67" t="s">
         <v>192</v>
@@ -10359,10 +10239,10 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B71" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -10391,18 +10271,18 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B75" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B76" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -10423,15 +10303,15 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B79" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B80" t="s">
         <v>219</v>
@@ -10439,18 +10319,18 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B81" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B82" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -10471,10 +10351,10 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B85" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -10519,951 +10399,951 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B91" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B92" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B93" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B94" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B95" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B96" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B97" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B98" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B99" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B100" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B101" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B102" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B103" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B104" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B105" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B106" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B107" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B108" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B109" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B110" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B111" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B112" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B113" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B114" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B115" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B116" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B117" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B118" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B119" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B120" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B121" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B122" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B123" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B124" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B125" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B126" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B127" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B128" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B129" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B130" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B131" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B132" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B133" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B134" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B135" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B136" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B137" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B138" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B139" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B140" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B141" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B142" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B143" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B144" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B145" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B146" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B147" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B148" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B149" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B150" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B151" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B152" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B153" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B154" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B155" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B156" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B157" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B158" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B159" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B160" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B161" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B162" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B163" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B164" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B165" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B166" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B167" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B168" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B169" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B170" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B171" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B172" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B173" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B174" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B175" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B176" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B177" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B178" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B179" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B180" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B181" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B182" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B183" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B184" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B185" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B186" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B187" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B188" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B189" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B190" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B191" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B192" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B193" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B194" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B195" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B196" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B197" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B198" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B199" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B200" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B201" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B202" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B203" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B204" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B205" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B206" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B207" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B208" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B209" t="s">
         <v>25</v>
@@ -11471,31 +11351,31 @@
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B210" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B211" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B212" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B213" t="s">
         <v>54</v>
@@ -11503,58 +11383,58 @@
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B214" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B215" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B216" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B217" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B218" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B219" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B220" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
   </sheetData>
@@ -11563,6 +11443,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010027AB162C77806142879CF42993C03AB7" ma:contentTypeVersion="15" ma:contentTypeDescription="Vytvoří nový dokument" ma:contentTypeScope="" ma:versionID="0fd8035d9306821e4a81ca99c4f89ccd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7f50c9d8-a752-4225-ae80-8200403cb6f4" xmlns:ns3="4a166712-586c-4573-8e1c-d8a76dcaec52" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="38e0236d02ca4fb4839d1b80e951ef45" ns2:_="" ns3:_="">
     <xsd:import namespace="7f50c9d8-a752-4225-ae80-8200403cb6f4"/>
@@ -11779,23 +11674,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F705B8CB-2F83-4147-B21E-D1CC59ED4F79}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F238E2E1-025F-4AC0-AFB0-533029191084}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11803,5 +11683,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F238E2E1-025F-4AC0-AFB0-533029191084}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F705B8CB-2F83-4147-B21E-D1CC59ED4F79}"/>
 </file>